--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7731" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A1EE05C-8BB9-4F5F-9F3C-571D93236436}"/>
+  <xr:revisionPtr revIDLastSave="7751" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{308EF24E-48A5-49A5-85F6-F2974814921C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="11" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -28,9 +28,10 @@
     <sheet name="2019" sheetId="26" r:id="rId13"/>
     <sheet name="2020" sheetId="27" r:id="rId14"/>
     <sheet name="2021" sheetId="28" r:id="rId15"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId16"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId17"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId18"/>
+    <sheet name="2022" sheetId="31" r:id="rId16"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
+    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId18"/>
+    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2724" uniqueCount="624">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="626">
   <si>
     <t>ROUND</t>
   </si>
@@ -1922,6 +1923,12 @@
   </si>
   <si>
     <t>1-6 6-4 6-3</t>
+  </si>
+  <si>
+    <t>Emma Raducanu (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>6-0 2-6 6-1</t>
   </si>
 </sst>
 </file>
@@ -4387,7 +4394,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3916A6FA-B41D-4E88-A6EF-EBB3C4B8AD1D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -7623,7 +7630,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -7946,7 +7953,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E55" activeCellId="16" sqref="E2 E4 E6 E8 E11 E16 E19 E23 E28 E33 E37 E40 E43 E45 E49 E52 E55"/>
     </sheetView>
   </sheetViews>
@@ -8616,14 +8623,81 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FCF5CC1-BD7E-457F-A6D3-66ED3642E3CB}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" t="s">
+        <v>624</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>625</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8673,7 +8747,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F16" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
@@ -8972,57 +9046,78 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="3">
-        <f>SUM(B2:B16)</f>
-        <v>231</v>
-      </c>
-      <c r="C17" s="3">
-        <f>SUM(C2:C16)</f>
-        <v>6</v>
-      </c>
-      <c r="D17" s="3">
-        <f>SUM(D2:D16)</f>
-        <v>318</v>
-      </c>
-      <c r="E17" s="3">
-        <f>SUM(E2:E16)</f>
-        <v>223</v>
-      </c>
-      <c r="F17" s="4">
-        <f>(D17-E17)/D17</f>
-        <v>0.29874213836477986</v>
+      <c r="A17">
+        <v>2022</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>180</v>
+        <v>6</v>
       </c>
       <c r="B18" s="3">
-        <f>AVERAGE(B2:B16)</f>
-        <v>15.4</v>
+        <f>SUM(B2:B17)</f>
+        <v>232</v>
       </c>
       <c r="C18" s="3">
-        <f>AVERAGE(C2:C16)</f>
-        <v>0.4</v>
+        <f>SUM(C2:C17)</f>
+        <v>6</v>
       </c>
       <c r="D18" s="3">
-        <f>AVERAGE(D2:D16)</f>
-        <v>21.2</v>
+        <f>SUM(D2:D17)</f>
+        <v>318</v>
       </c>
       <c r="E18" s="3">
-        <f>AVERAGE(E2:E16)</f>
-        <v>14.866666666666667</v>
+        <f>SUM(E2:E17)</f>
+        <v>224</v>
       </c>
       <c r="F18" s="4">
         <f>(D18-E18)/D18</f>
-        <v>0.29874213836477981</v>
+        <v>0.29559748427672955</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B19" s="3">
+        <f>AVERAGE(B2:B17)</f>
+        <v>14.5</v>
+      </c>
+      <c r="C19" s="3">
+        <f>AVERAGE(C2:C17)</f>
+        <v>0.375</v>
+      </c>
+      <c r="D19" s="3">
+        <f>AVERAGE(D2:D17)</f>
+        <v>19.875</v>
+      </c>
+      <c r="E19" s="3">
+        <f>AVERAGE(E2:E17)</f>
+        <v>14</v>
+      </c>
+      <c r="F19" s="4">
+        <f>(D19-E19)/D19</f>
+        <v>0.29559748427672955</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F16">
+  <conditionalFormatting sqref="F2:F17">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7751" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{308EF24E-48A5-49A5-85F6-F2974814921C}"/>
+  <xr:revisionPtr revIDLastSave="7819" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1CB3B98-4CF0-4876-A9D5-08324E410AF1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2736" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="637">
   <si>
     <t>ROUND</t>
   </si>
@@ -1484,9 +1484,6 @@
     <t>6-1 6-7(3) 6-2</t>
   </si>
   <si>
-    <t>Daria Gavrilova (AUSTRALIA)</t>
-  </si>
-  <si>
     <t>Carla Suárez Navarro (SPAIN)</t>
   </si>
   <si>
@@ -1929,6 +1926,42 @@
   </si>
   <si>
     <t>6-0 2-6 6-1</t>
+  </si>
+  <si>
+    <t>ABIERTO ZAPOPAN</t>
+  </si>
+  <si>
+    <t>Brenda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Chloé Paquet (FRANCE)</t>
+  </si>
+  <si>
+    <t>Dasha Saville (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>4-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>Semifinals</t>
+  </si>
+  <si>
+    <t>Naomi Osaka (JAPAN)</t>
+  </si>
+  <si>
+    <t>3-6 6-1 6-2</t>
+  </si>
+  <si>
+    <t>Panna Udvardy (HUNGARY)</t>
+  </si>
+  <si>
+    <t>CHARLESTON OPEN</t>
+  </si>
+  <si>
+    <t>Qinwen Zheng (CHINA)</t>
+  </si>
+  <si>
+    <t>6-3 4-6 6-0</t>
   </si>
 </sst>
 </file>
@@ -4394,7 +4427,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3916A6FA-B41D-4E88-A6EF-EBB3C4B8AD1D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4889,8 +4922,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4948,7 +4981,7 @@
         <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
@@ -4982,7 +5015,7 @@
         <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5010,7 +5043,7 @@
         <v>58</v>
       </c>
       <c r="D8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -5027,7 +5060,7 @@
         <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>16</v>
@@ -5047,13 +5080,13 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -5075,7 +5108,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E14" s="6" t="s">
         <v>16</v>
@@ -5109,12 +5142,12 @@
         <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B18" t="s">
         <v>31</v>
@@ -5123,7 +5156,7 @@
         <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
@@ -5154,7 +5187,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>634</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -5177,7 +5210,7 @@
         <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>477</v>
+        <v>628</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>16</v>
@@ -5191,13 +5224,13 @@
         <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -5211,7 +5244,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -5239,7 +5272,7 @@
         <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E28" s="6" t="s">
         <v>16</v>
@@ -5253,7 +5286,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -5279,7 +5312,7 @@
         <v>16</v>
       </c>
       <c r="F31" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -5293,7 +5326,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5307,7 +5340,7 @@
         <v>58</v>
       </c>
       <c r="D34" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -5321,13 +5354,13 @@
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -5375,7 +5408,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -5389,7 +5422,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5403,7 +5436,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>17</v>
@@ -5429,12 +5462,12 @@
         <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B46" t="s">
         <v>31</v>
@@ -5443,7 +5476,7 @@
         <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E46" s="7" t="s">
         <v>17</v>
@@ -5465,7 +5498,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -5530,7 +5563,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -5550,13 +5583,13 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -5570,7 +5603,7 @@
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5598,7 +5631,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -5660,7 +5693,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -5674,7 +5707,7 @@
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -5682,7 +5715,7 @@
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -5702,7 +5735,7 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>16</v>
@@ -5722,7 +5755,7 @@
         <v>16</v>
       </c>
       <c r="F19" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -5730,7 +5763,7 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
@@ -5750,7 +5783,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -5758,13 +5791,13 @@
         <v>19</v>
       </c>
       <c r="D22" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F22" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -5778,7 +5811,7 @@
         <v>16</v>
       </c>
       <c r="F23" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -5837,7 +5870,7 @@
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -5846,7 +5879,7 @@
         <v>125</v>
       </c>
       <c r="D30" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E30" s="7" t="s">
         <v>17</v>
@@ -5866,7 +5899,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5877,18 +5910,18 @@
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>17</v>
@@ -5916,7 +5949,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -5987,7 +6020,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6015,13 +6048,13 @@
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6035,12 +6068,12 @@
         <v>17</v>
       </c>
       <c r="F8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B10" t="s">
         <v>31</v>
@@ -6063,7 +6096,7 @@
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -6103,7 +6136,7 @@
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6111,7 +6144,7 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E15" s="6" t="s">
         <v>16</v>
@@ -6145,7 +6178,7 @@
         <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -6275,7 +6308,7 @@
         <v>16</v>
       </c>
       <c r="F29" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -6289,7 +6322,7 @@
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -6303,12 +6336,12 @@
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -6317,13 +6350,13 @@
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E33" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6337,7 +6370,7 @@
         <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
@@ -6371,7 +6404,7 @@
         <v>16</v>
       </c>
       <c r="F37" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -6379,7 +6412,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>16</v>
@@ -6393,7 +6426,7 @@
         <v>19</v>
       </c>
       <c r="D39" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
@@ -6495,7 +6528,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>16</v>
@@ -6509,7 +6542,7 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E49" s="6" t="s">
         <v>16</v>
@@ -6523,7 +6556,7 @@
         <v>19</v>
       </c>
       <c r="D50" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E50" s="6" t="s">
         <v>16</v>
@@ -6585,13 +6618,13 @@
         <v>14</v>
       </c>
       <c r="D55" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6619,7 +6652,7 @@
         <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>16</v>
@@ -6647,7 +6680,7 @@
         <v>14</v>
       </c>
       <c r="D60" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E60" s="6" t="s">
         <v>16</v>
@@ -6661,7 +6694,7 @@
         <v>19</v>
       </c>
       <c r="D61" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E61" s="7" t="s">
         <v>17</v>
@@ -6701,13 +6734,13 @@
         <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E65" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F65" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6721,13 +6754,13 @@
         <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E67" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F67" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -6760,7 +6793,7 @@
     </row>
     <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B71" t="s">
         <v>31</v>
@@ -6769,7 +6802,7 @@
         <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E71" s="7" t="s">
         <v>17</v>
@@ -6809,7 +6842,7 @@
         <v>16</v>
       </c>
       <c r="F74" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -6817,13 +6850,13 @@
         <v>125</v>
       </c>
       <c r="D75" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E75" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F75" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -6837,7 +6870,7 @@
         <v>16</v>
       </c>
       <c r="F76" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -6867,8 +6900,8 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6932,13 +6965,13 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
+        <v>556</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>557</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6946,13 +6979,13 @@
         <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6966,7 +6999,7 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -7000,7 +7033,7 @@
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -7008,13 +7041,13 @@
         <v>14</v>
       </c>
       <c r="D10" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7042,7 +7075,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>17</v>
@@ -7053,7 +7086,7 @@
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B15" t="s">
         <v>31</v>
@@ -7082,7 +7115,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E17" s="6" t="s">
         <v>16</v>
@@ -7116,13 +7149,13 @@
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -7136,7 +7169,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -7150,7 +7183,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7161,7 +7194,7 @@
         <v>31</v>
       </c>
       <c r="D24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>16</v>
@@ -7178,7 +7211,7 @@
         <v>16</v>
       </c>
       <c r="F25" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7274,7 +7307,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7288,13 +7321,13 @@
         <v>58</v>
       </c>
       <c r="D35" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -7302,13 +7335,13 @@
         <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E36" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F36" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -7330,7 +7363,7 @@
         <v>14</v>
       </c>
       <c r="D38" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>16</v>
@@ -7370,7 +7403,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7398,7 +7431,7 @@
         <v>42</v>
       </c>
       <c r="D44" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -7432,7 +7465,7 @@
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E47" s="7" t="s">
         <v>17</v>
@@ -7472,13 +7505,13 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F51" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -7506,7 +7539,7 @@
         <v>58</v>
       </c>
       <c r="D54" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E54" s="7" t="s">
         <v>17</v>
@@ -7560,7 +7593,7 @@
         <v>15</v>
       </c>
       <c r="D59" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>16</v>
@@ -7594,7 +7627,7 @@
         <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E62" s="6" t="s">
         <v>16</v>
@@ -7631,7 +7664,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7675,7 +7708,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>17</v>
@@ -7695,7 +7728,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -7721,7 +7754,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7735,7 +7768,7 @@
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>17</v>
@@ -7746,22 +7779,22 @@
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>581</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>585</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" t="s">
         <v>582</v>
-      </c>
-      <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" t="s">
-        <v>586</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -7769,18 +7802,18 @@
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F11" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B13" t="s">
         <v>31</v>
@@ -7789,7 +7822,7 @@
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>17</v>
@@ -7815,7 +7848,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7863,7 +7896,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -7877,7 +7910,7 @@
         <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -7897,7 +7930,7 @@
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>17</v>
@@ -7917,7 +7950,7 @@
         <v>58</v>
       </c>
       <c r="D25" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -7931,13 +7964,13 @@
         <v>42</v>
       </c>
       <c r="D26" t="s">
+        <v>589</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" t="s">
         <v>590</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" t="s">
-        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -7953,8 +7986,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E55" activeCellId="16" sqref="E2 E4 E6 E8 E11 E16 E19 E23 E28 E33 E37 E40 E43 E45 E49 E52 E55"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7989,7 +8022,7 @@
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B2" t="s">
         <v>31</v>
@@ -7998,7 +8031,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>17</v>
@@ -8018,7 +8051,7 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -8029,7 +8062,7 @@
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
@@ -8038,7 +8071,7 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
@@ -8049,7 +8082,7 @@
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B8" t="s">
         <v>31</v>
@@ -8084,7 +8117,7 @@
         <v>16</v>
       </c>
       <c r="F10" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -8092,7 +8125,7 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>17</v>
@@ -8112,7 +8145,7 @@
         <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E13" s="6" t="s">
         <v>16</v>
@@ -8154,7 +8187,7 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -8188,13 +8221,13 @@
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8208,7 +8241,7 @@
         <v>32</v>
       </c>
       <c r="D21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E21" s="6" t="s">
         <v>16</v>
@@ -8222,7 +8255,7 @@
         <v>33</v>
       </c>
       <c r="D22" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>16</v>
@@ -8242,12 +8275,12 @@
         <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -8256,7 +8289,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -8270,13 +8303,13 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F26" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -8304,7 +8337,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8318,13 +8351,13 @@
         <v>58</v>
       </c>
       <c r="D30" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E30" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F30" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -8346,7 +8379,7 @@
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E32" s="6" t="s">
         <v>16</v>
@@ -8408,7 +8441,7 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
@@ -8419,7 +8452,7 @@
     </row>
     <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B39" t="s">
         <v>31</v>
@@ -8428,7 +8461,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E39" s="6" t="s">
         <v>16</v>
@@ -8442,7 +8475,7 @@
         <v>14</v>
       </c>
       <c r="D40" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E40" s="7" t="s">
         <v>17</v>
@@ -8462,13 +8495,13 @@
         <v>42</v>
       </c>
       <c r="D42" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F42" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -8476,18 +8509,18 @@
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E43" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F43" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B45" t="s">
         <v>31</v>
@@ -8502,7 +8535,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -8522,7 +8555,7 @@
         <v>16</v>
       </c>
       <c r="F47" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -8550,12 +8583,12 @@
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B51" t="s">
         <v>31</v>
@@ -8564,13 +8597,13 @@
         <v>58</v>
       </c>
       <c r="D51" t="s">
+        <v>616</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51" t="s">
         <v>617</v>
-      </c>
-      <c r="E51" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -8578,7 +8611,7 @@
         <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E52" s="7" t="s">
         <v>17</v>
@@ -8589,13 +8622,13 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>620</v>
+      </c>
+      <c r="B54" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" t="s">
         <v>621</v>
-      </c>
-      <c r="B54" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" t="s">
-        <v>622</v>
       </c>
       <c r="E54" s="6" t="s">
         <v>16</v>
@@ -8606,13 +8639,13 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="E55" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -8627,20 +8660,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -8674,13 +8707,171 @@
         <v>58</v>
       </c>
       <c r="D2" t="s">
+        <v>623</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
         <v>624</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>625</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>626</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>627</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>628</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>630</v>
+      </c>
+      <c r="D7" t="s">
+        <v>576</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>631</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>633</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>618</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>634</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>635</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -8696,8 +8887,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9050,20 +9241,20 @@
         <v>2022</v>
       </c>
       <c r="B17">
+        <v>6</v>
+      </c>
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
       <c r="D17">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17" s="5" t="e">
+        <v>4</v>
+      </c>
+      <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9072,23 +9263,23 @@
       </c>
       <c r="B18" s="3">
         <f>SUM(B2:B17)</f>
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="C18" s="3">
         <f>SUM(C2:C17)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18" s="3">
         <f>SUM(D2:D17)</f>
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="F18" s="4">
         <f>(D18-E18)/D18</f>
-        <v>0.29559748427672955</v>
+        <v>0.29938271604938271</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9097,23 +9288,23 @@
       </c>
       <c r="B19" s="3">
         <f>AVERAGE(B2:B17)</f>
-        <v>14.5</v>
+        <v>14.8125</v>
       </c>
       <c r="C19" s="3">
         <f>AVERAGE(C2:C17)</f>
-        <v>0.375</v>
+        <v>0.4375</v>
       </c>
       <c r="D19" s="3">
         <f>AVERAGE(D2:D17)</f>
-        <v>19.875</v>
+        <v>20.25</v>
       </c>
       <c r="E19" s="3">
         <f>AVERAGE(E2:E17)</f>
-        <v>14</v>
+        <v>14.1875</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.29559748427672955</v>
+        <v>0.29938271604938271</v>
       </c>
     </row>
   </sheetData>
@@ -9999,7 +10190,7 @@
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -10676,7 +10867,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -11551,7 +11742,7 @@
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B11" t="s">
         <v>31</v>
@@ -12552,7 +12743,7 @@
     </row>
     <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
@@ -13327,7 +13518,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
@@ -13445,7 +13636,7 @@
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
@@ -14042,8 +14233,8 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14186,7 +14377,7 @@
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B12" t="s">
         <v>31</v>
@@ -14559,7 +14750,7 @@
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E42" s="6" t="s">
         <v>16</v>
@@ -14587,7 +14778,7 @@
         <v>19</v>
       </c>
       <c r="D44" t="s">
-        <v>477</v>
+        <v>628</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>16</v>
@@ -14655,7 +14846,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14669,7 +14860,7 @@
         <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E51" s="6" t="s">
         <v>16</v>
@@ -14697,7 +14888,7 @@
         <v>19</v>
       </c>
       <c r="D53" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E53" s="6" t="s">
         <v>16</v>
@@ -14717,7 +14908,7 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -14725,7 +14916,7 @@
         <v>23</v>
       </c>
       <c r="D55" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E55" s="6" t="s">
         <v>16</v>
@@ -14765,7 +14956,7 @@
         <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E59" s="6" t="s">
         <v>16</v>
@@ -14785,7 +14976,7 @@
         <v>16</v>
       </c>
       <c r="F60" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -14799,7 +14990,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14824,16 +15015,16 @@
     </row>
     <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
+        <v>485</v>
+      </c>
+      <c r="B65" t="s">
+        <v>31</v>
+      </c>
+      <c r="C65" t="s">
+        <v>15</v>
+      </c>
+      <c r="D65" t="s">
         <v>486</v>
-      </c>
-      <c r="B65" t="s">
-        <v>31</v>
-      </c>
-      <c r="C65" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" t="s">
-        <v>487</v>
       </c>
       <c r="E65" s="6" t="s">
         <v>16</v>
@@ -14847,7 +15038,7 @@
         <v>14</v>
       </c>
       <c r="D66" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E66" s="6" t="s">
         <v>16</v>
@@ -14861,7 +15052,7 @@
         <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E67" s="7" t="s">
         <v>17</v>
@@ -14887,7 +15078,7 @@
         <v>16</v>
       </c>
       <c r="F69" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -14895,7 +15086,7 @@
         <v>15</v>
       </c>
       <c r="D70" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E70" s="7" t="s">
         <v>17</v>
@@ -14935,7 +15126,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7819" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1CB3B98-4CF0-4876-A9D5-08324E410AF1}"/>
+  <xr:revisionPtr revIDLastSave="7824" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{278089C4-E1D2-4006-8AC3-73B11719AC54}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="6" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2782" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="638">
   <si>
     <t>ROUND</t>
   </si>
@@ -1962,6 +1962,9 @@
   </si>
   <si>
     <t>6-3 4-6 6-0</t>
+  </si>
+  <si>
+    <t>Anhelina Kalinina (UKRAINE)</t>
   </si>
 </sst>
 </file>
@@ -8663,7 +8666,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E12" activeCellId="1" sqref="E4:E8 E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8866,12 +8869,24 @@
         <v>636</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>76</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>637</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +8903,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9250,11 +9265,11 @@
         <v>6</v>
       </c>
       <c r="E17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9275,11 +9290,11 @@
       </c>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="F18" s="4">
         <f>(D18-E18)/D18</f>
-        <v>0.29938271604938271</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9300,11 +9315,11 @@
       </c>
       <c r="E19" s="3">
         <f>AVERAGE(E2:E17)</f>
-        <v>14.1875</v>
+        <v>14.25</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.29938271604938271</v>
+        <v>0.29629629629629628</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7824" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{278089C4-E1D2-4006-8AC3-73B11719AC54}"/>
+  <xr:revisionPtr revIDLastSave="7878" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F0B10DA-3B70-4CD0-B231-714BF0403FF6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="646">
   <si>
     <t>ROUND</t>
   </si>
@@ -1965,6 +1965,30 @@
   </si>
   <si>
     <t>Anhelina Kalinina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Ekaterina Alexandrova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Nefisa Berberović (BOZNIA)</t>
+  </si>
+  <si>
+    <t>Jule Niemeier (GERMANY)</t>
+  </si>
+  <si>
+    <t>3-6 6-2 6-0</t>
+  </si>
+  <si>
+    <t>Diane Parry (FRANCE)</t>
+  </si>
+  <si>
+    <t>Jil Teichmann (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>BAD HOMBURG OPEN</t>
+  </si>
+  <si>
+    <t>Katie Swan (GREAT BRITAIN)</t>
   </si>
 </sst>
 </file>
@@ -6903,8 +6927,8 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7666,8 +7690,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7989,7 +8013,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
@@ -8663,15 +8687,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" activeCellId="1" sqref="E4:E8 E12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
@@ -8887,6 +8911,156 @@
       </c>
       <c r="F17" t="s">
         <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>638</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>380</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>639</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>640</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>410</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>642</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>643</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>645</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -8902,7 +9076,7 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -9256,20 +9430,20 @@
         <v>2022</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>0.16666666666666666</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9278,7 +9452,7 @@
       </c>
       <c r="B18" s="3">
         <f>SUM(B2:B17)</f>
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C18" s="3">
         <f>SUM(C2:C17)</f>
@@ -9286,15 +9460,15 @@
       </c>
       <c r="D18" s="3">
         <f>SUM(D2:D17)</f>
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="F18" s="4">
         <f>(D18-E18)/D18</f>
-        <v>0.29629629629629628</v>
+        <v>0.29268292682926828</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9303,7 +9477,7 @@
       </c>
       <c r="B19" s="3">
         <f>AVERAGE(B2:B17)</f>
-        <v>14.8125</v>
+        <v>15.0625</v>
       </c>
       <c r="C19" s="3">
         <f>AVERAGE(C2:C17)</f>
@@ -9311,15 +9485,15 @@
       </c>
       <c r="D19" s="3">
         <f>AVERAGE(D2:D17)</f>
-        <v>20.25</v>
+        <v>20.5</v>
       </c>
       <c r="E19" s="3">
         <f>AVERAGE(E2:E17)</f>
-        <v>14.25</v>
+        <v>14.5</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.29629629629629628</v>
+        <v>0.29268292682926828</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7878" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3F0B10DA-3B70-4CD0-B231-714BF0403FF6}"/>
+  <xr:revisionPtr revIDLastSave="7926" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48ECE3BD-C868-4D1D-B885-D292DD8E0C37}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="15" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2830" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="655">
   <si>
     <t>ROUND</t>
   </si>
@@ -1989,6 +1989,33 @@
   </si>
   <si>
     <t>Katie Swan (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>7-6(1) 7-5</t>
+  </si>
+  <si>
+    <t>CANADIAN OPEN</t>
+  </si>
+  <si>
+    <t>Sonya Kenin (USA)</t>
+  </si>
+  <si>
+    <t>Maria Sakkari (GREECE)</t>
+  </si>
+  <si>
+    <t>6-2 6-7(5) 7-5</t>
+  </si>
+  <si>
+    <t>6-2 4-6 6-2</t>
+  </si>
+  <si>
+    <t>Alizé Cornet (FRANCE)</t>
+  </si>
+  <si>
+    <t>Iga Świątek (POLAND)</t>
+  </si>
+  <si>
+    <t>7-5 2-6 7-5</t>
   </si>
 </sst>
 </file>
@@ -2083,7 +2110,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
@@ -8014,7 +8041,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8687,10 +8714,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E42" activeCellId="13" sqref="E2 E10 E13 E15 E17 E19 E21 E27 E29 E31 E33 E36 E39 E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9062,6 +9089,134 @@
       <c r="D31" t="s">
         <v>635</v>
       </c>
+      <c r="E31" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" t="s">
+        <v>163</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>647</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" t="s">
+        <v>648</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>649</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>652</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>653</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>604</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>176</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>150</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>654</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -9076,8 +9231,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9430,20 +9585,20 @@
         <v>2022</v>
       </c>
       <c r="B17">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>-7.6923076923076927E-2</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9452,7 +9607,7 @@
       </c>
       <c r="B18" s="3">
         <f>SUM(B2:B17)</f>
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="C18" s="3">
         <f>SUM(C2:C17)</f>
@@ -9460,15 +9615,15 @@
       </c>
       <c r="D18" s="3">
         <f>SUM(D2:D17)</f>
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="F18" s="4">
         <f>(D18-E18)/D18</f>
-        <v>0.29268292682926828</v>
+        <v>0.28398791540785501</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9477,7 +9632,7 @@
       </c>
       <c r="B19" s="3">
         <f>AVERAGE(B2:B17)</f>
-        <v>15.0625</v>
+        <v>15.375</v>
       </c>
       <c r="C19" s="3">
         <f>AVERAGE(C2:C17)</f>
@@ -9485,15 +9640,15 @@
       </c>
       <c r="D19" s="3">
         <f>AVERAGE(D2:D17)</f>
-        <v>20.5</v>
+        <v>20.6875</v>
       </c>
       <c r="E19" s="3">
         <f>AVERAGE(E2:E17)</f>
-        <v>14.5</v>
+        <v>14.8125</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.29268292682926828</v>
+        <v>0.28398791540785501</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7926" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48ECE3BD-C868-4D1D-B885-D292DD8E0C37}"/>
+  <xr:revisionPtr revIDLastSave="7976" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46924160-FD61-45CF-AF6B-26992C472097}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -30,8 +30,8 @@
     <sheet name="2021" sheetId="28" r:id="rId15"/>
     <sheet name="2022" sheetId="31" r:id="rId16"/>
     <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId18"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId19"/>
+    <sheet name="Wins-Losses" sheetId="32" r:id="rId18"/>
+    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="663">
   <si>
     <t>ROUND</t>
   </si>
@@ -2016,6 +2016,30 @@
   </si>
   <si>
     <t>7-5 2-6 7-5</t>
+  </si>
+  <si>
+    <t>SAN DIEGO OPEN</t>
+  </si>
+  <si>
+    <t>Aryna Sabalenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>1-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Linda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Belinda Bencic (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Caroline Garcia (FRANCE)</t>
+  </si>
+  <si>
+    <t>7-6(8) 7-5</t>
   </si>
 </sst>
 </file>
@@ -2200,11 +2224,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sloane Stephens (USA):</a:t>
+              <a:t>Sloane Stephens</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> YTD Wins-Losses</a:t>
+              <a:t> (USA): Wins-Losses</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2272,10 +2296,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -2321,15 +2345,18 @@
                 <c:pt idx="14">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$16</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2375,12 +2402,15 @@
                 <c:pt idx="14">
                   <c:v>21</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A2B4-4AF7-897F-EE52E461F5EA}"/>
+              <c16:uniqueId val="{00000000-5B34-45A2-8D40-59452B6983FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2410,10 +2440,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -2459,15 +2489,18 @@
                 <c:pt idx="14">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$16</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2513,12 +2546,15 @@
                 <c:pt idx="14">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A2B4-4AF7-897F-EE52E461F5EA}"/>
+              <c16:uniqueId val="{00000001-5B34-45A2-8D40-59452B6983FA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2532,11 +2568,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1783950367"/>
-        <c:axId val="1783952031"/>
+        <c:axId val="78199904"/>
+        <c:axId val="78200736"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1783950367"/>
+        <c:axId val="78199904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,7 +2670,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783952031"/>
+        <c:crossAx val="78200736"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2642,7 +2678,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783952031"/>
+        <c:axId val="78200736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2784,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783950367"/>
+        <c:crossAx val="78199904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2858,11 +2894,11 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sloane Stephens (USA):</a:t>
+              <a:t>Sloane Stephens</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Winning Percentile Range</a:t>
+              <a:t> (USA): Winning Percentile Range</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
@@ -2901,7 +2937,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2941,27 +2977,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
-          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -3007,15 +3028,18 @@
                 <c:pt idx="14">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$16</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3061,13 +3085,16 @@
                 <c:pt idx="14">
                   <c:v>0.19047619047619047</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C74B-400F-BBE3-904E2E0C5FD5}"/>
+              <c16:uniqueId val="{00000000-6DE4-4429-8C97-2651841B4FD6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3081,11 +3108,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1859439743"/>
-        <c:axId val="1859437663"/>
+        <c:axId val="34656560"/>
+        <c:axId val="34656976"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1859439743"/>
+        <c:axId val="34656560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,7 +3210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859437663"/>
+        <c:crossAx val="34656976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3191,7 +3218,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1859437663"/>
+        <c:axId val="34656976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3297,7 +3324,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859439743"/>
+        <c:crossAx val="34656560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3309,46 +3336,8 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
+    <c:dispBlanksAs val="zero"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4466,26 +4455,24 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AF41A070-0C3E-4AE5-989A-41B10E99DE03}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4D956C4A-3EE8-40F0-9562-61EEA67E888D}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3916A6FA-B41D-4E88-A6EF-EBB3C4B8AD1D}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E2B312F4-82A1-4E0F-ABAC-0EFABB1A25B1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -4493,13 +4480,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8680040" cy="6298790"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF9DE10-CBB3-4D69-84B4-23F22E83A498}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF92232-6945-9788-52DB-443A9271226A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4526,13 +4513,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8680040" cy="6298790"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FB00A1-8C7A-4C81-B85C-AB5F6C74753C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01E3FE7-B350-2865-6B7C-C9C8FA69F2A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4553,6 +4540,10 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8714,10 +8705,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" activeCellId="13" sqref="E2 E10 E13 E15 E17 E19 E21 E27 E29 E31 E33 E36 E39 E42"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E50" activeCellId="14" sqref="E2 E10 E13 E15 E17 E19 E21 E27 E29 E31 E36 E39 E42 E45 E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9218,6 +9209,102 @@
         <v>654</v>
       </c>
     </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>655</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>643</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>656</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>658</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>659</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>660</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>661</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>618</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9231,8 +9318,8 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A17 F1:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9585,20 +9672,20 @@
         <v>2022</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>-7.6923076923076927E-2</v>
+        <v>0.11764705882352941</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -9607,7 +9694,7 @@
       </c>
       <c r="B18" s="3">
         <f>SUM(B2:B17)</f>
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C18" s="3">
         <f>SUM(C2:C17)</f>
@@ -9615,15 +9702,15 @@
       </c>
       <c r="D18" s="3">
         <f>SUM(D2:D17)</f>
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E18" s="3">
         <f>SUM(E2:E17)</f>
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F18" s="4">
         <f>(D18-E18)/D18</f>
-        <v>0.28398791540785501</v>
+        <v>0.28955223880597014</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -9632,7 +9719,7 @@
       </c>
       <c r="B19" s="3">
         <f>AVERAGE(B2:B17)</f>
-        <v>15.375</v>
+        <v>15.5</v>
       </c>
       <c r="C19" s="3">
         <f>AVERAGE(C2:C17)</f>
@@ -9640,15 +9727,15 @@
       </c>
       <c r="D19" s="3">
         <f>AVERAGE(D2:D17)</f>
-        <v>20.6875</v>
+        <v>20.9375</v>
       </c>
       <c r="E19" s="3">
         <f>AVERAGE(E2:E17)</f>
-        <v>14.8125</v>
+        <v>14.875</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28398791540785501</v>
+        <v>0.28955223880597014</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7976" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{46924160-FD61-45CF-AF6B-26992C472097}"/>
+  <xr:revisionPtr revIDLastSave="8037" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63F645A-E156-4472-AEAB-29B88E4B7347}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="2020" sheetId="27" r:id="rId14"/>
     <sheet name="2021" sheetId="28" r:id="rId15"/>
     <sheet name="2022" sheetId="31" r:id="rId16"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
-    <sheet name="Wins-Losses" sheetId="32" r:id="rId18"/>
-    <sheet name="Winning Percentile Range" sheetId="33" r:id="rId19"/>
+    <sheet name="2023" sheetId="34" r:id="rId17"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId18"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId19"/>
+    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2896" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="668">
   <si>
     <t>ROUND</t>
   </si>
@@ -2040,6 +2041,21 @@
   </si>
   <si>
     <t>7-6(8) 7-5</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-4</t>
+  </si>
+  <si>
+    <t>6-3 7-6(5)</t>
+  </si>
+  <si>
+    <t>Rebeka Masarova (SPAIN)</t>
+  </si>
+  <si>
+    <t>Lauren Davis (USA)</t>
+  </si>
+  <si>
+    <t>Anastasia Potapova (RUSSIA)</t>
   </si>
 </sst>
 </file>
@@ -2128,7 +2144,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2138,6 +2154,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2224,13 +2241,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sloane Stephens</a:t>
+              <a:t>Sloane Stephens (USA): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> (USA): Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2296,10 +2308,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -2348,15 +2360,18 @@
                 <c:pt idx="15">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$17</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2405,12 +2420,15 @@
                 <c:pt idx="15">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5B34-45A2-8D40-59452B6983FA}"/>
+              <c16:uniqueId val="{00000000-93C4-43E9-A865-8C9886314845}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2440,10 +2458,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -2492,15 +2510,18 @@
                 <c:pt idx="15">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$17</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2549,12 +2570,15 @@
                 <c:pt idx="15">
                   <c:v>15</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-5B34-45A2-8D40-59452B6983FA}"/>
+              <c16:uniqueId val="{00000001-93C4-43E9-A865-8C9886314845}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2568,11 +2592,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="78199904"/>
-        <c:axId val="78200736"/>
+        <c:axId val="1142950752"/>
+        <c:axId val="1142959072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="78199904"/>
+        <c:axId val="1142950752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2670,7 +2694,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78200736"/>
+        <c:crossAx val="1142959072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2678,7 +2702,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="78200736"/>
+        <c:axId val="1142959072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2784,7 +2808,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="78199904"/>
+        <c:crossAx val="1142950752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2894,13 +2918,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sloane Stephens</a:t>
+              <a:t>Sloane Stephens (USA): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> (USA): Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2937,7 +2956,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="stacked"/>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -2977,12 +2996,26 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$17</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -3031,15 +3064,18 @@
                 <c:pt idx="15">
                   <c:v>2022</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$17</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3088,13 +3124,16 @@
                 <c:pt idx="15">
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6DE4-4429-8C97-2651841B4FD6}"/>
+              <c16:uniqueId val="{00000000-5ACF-4E98-9D87-97EDBF13D56E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3108,11 +3147,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="34656560"/>
-        <c:axId val="34656976"/>
+        <c:axId val="837707504"/>
+        <c:axId val="837704176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="34656560"/>
+        <c:axId val="837707504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3210,7 +3249,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34656976"/>
+        <c:crossAx val="837704176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3218,7 +3257,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="34656976"/>
+        <c:axId val="837704176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,7 +3363,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="34656560"/>
+        <c:crossAx val="837707504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3336,8 +3375,39 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
+    <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4455,24 +4525,26 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{4D956C4A-3EE8-40F0-9562-61EEA67E888D}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B6B17B0E-5A3B-4095-8C5C-2CD92820ABBD}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{E2B312F4-82A1-4E0F-ABAC-0EFABB1A25B1}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9E581842-E1DA-4169-9A35-6C9AB1C1BC16}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </chartsheet>
 </file>
 
@@ -4480,13 +4552,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680040" cy="6298790"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7DF92232-6945-9788-52DB-443A9271226A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C018416F-9503-DF28-0D67-5A7CD5440733}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4513,13 +4585,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8680040" cy="6298790"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A01E3FE7-B350-2865-6B7C-C9C8FA69F2A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92BF16D-7116-8E9A-07E1-468751799B25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4540,10 +4612,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4852,17 +4920,17 @@
       <selection activeCell="A8" sqref="A8:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4882,7 +4950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -4902,7 +4970,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4916,7 +4984,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -4936,7 +5004,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -4950,10 +5018,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4971,17 +5039,17 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5001,7 +5069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -5021,7 +5089,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5035,7 +5103,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -5049,7 +5117,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5063,7 +5131,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -5077,7 +5145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5097,7 +5165,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -5114,7 +5182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>463</v>
       </c>
@@ -5134,7 +5202,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -5148,7 +5216,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5162,7 +5230,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -5176,7 +5244,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -5190,7 +5258,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>619</v>
       </c>
@@ -5210,7 +5278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -5230,7 +5298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>634</v>
       </c>
@@ -5250,7 +5318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -5264,7 +5332,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -5278,7 +5346,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>22</v>
       </c>
@@ -5292,7 +5360,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -5306,7 +5374,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -5326,7 +5394,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -5340,7 +5408,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>380</v>
       </c>
@@ -5360,7 +5428,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -5374,7 +5442,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5394,7 +5462,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -5408,7 +5476,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -5422,7 +5490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -5442,7 +5510,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -5456,7 +5524,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5470,7 +5538,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -5490,7 +5558,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>179</v>
       </c>
@@ -5510,7 +5578,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>513</v>
       </c>
@@ -5547,17 +5615,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5577,7 +5645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -5597,7 +5665,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -5617,7 +5685,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -5637,7 +5705,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -5651,7 +5719,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5665,7 +5733,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -5679,7 +5747,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -5693,7 +5761,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>181</v>
       </c>
@@ -5713,7 +5781,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5727,7 +5795,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -5741,7 +5809,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -5755,7 +5823,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -5769,7 +5837,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5789,7 +5857,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -5803,7 +5871,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -5817,7 +5885,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5831,7 +5899,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -5845,7 +5913,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -5859,7 +5927,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -5873,7 +5941,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -5893,7 +5961,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -5913,7 +5981,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>528</v>
       </c>
@@ -5933,7 +6001,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>125</v>
       </c>
@@ -5947,7 +6015,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -5964,7 +6032,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>531</v>
       </c>
@@ -5998,17 +6066,17 @@
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6028,7 +6096,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -6048,7 +6116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6068,7 +6136,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>463</v>
       </c>
@@ -6088,7 +6156,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6102,7 +6170,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -6116,7 +6184,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>619</v>
       </c>
@@ -6136,7 +6204,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -6150,7 +6218,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -6170,7 +6238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -6184,7 +6252,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6198,7 +6266,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -6212,7 +6280,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -6226,7 +6294,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -6240,7 +6308,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -6257,7 +6325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>364</v>
       </c>
@@ -6268,7 +6336,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -6288,7 +6356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -6308,7 +6376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -6322,7 +6390,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6336,7 +6404,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -6356,7 +6424,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6370,7 +6438,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6384,7 +6452,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>541</v>
       </c>
@@ -6404,7 +6472,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -6424,7 +6492,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -6438,7 +6506,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6452,7 +6520,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -6466,7 +6534,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -6480,7 +6548,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -6494,7 +6562,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -6508,7 +6576,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -6528,7 +6596,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -6548,7 +6616,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -6562,7 +6630,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -6582,7 +6650,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -6596,7 +6664,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -6610,7 +6678,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -6624,7 +6692,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>23</v>
       </c>
@@ -6638,7 +6706,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -6658,7 +6726,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -6672,7 +6740,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -6692,7 +6760,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>42</v>
       </c>
@@ -6706,7 +6774,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6720,7 +6788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -6734,7 +6802,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -6748,7 +6816,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -6768,7 +6836,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -6788,7 +6856,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -6808,7 +6876,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6822,7 +6890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>14</v>
       </c>
@@ -6836,7 +6904,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>551</v>
       </c>
@@ -6856,7 +6924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -6876,7 +6944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>125</v>
       </c>
@@ -6890,7 +6958,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>125</v>
       </c>
@@ -6904,7 +6972,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -6918,7 +6986,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>23</v>
       </c>
@@ -6949,17 +7017,17 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6979,7 +7047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -6999,7 +7067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -7019,7 +7087,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7033,7 +7101,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -7053,7 +7121,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7067,7 +7135,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7081,7 +7149,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -7095,7 +7163,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>463</v>
       </c>
@@ -7115,7 +7183,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7129,7 +7197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>619</v>
       </c>
@@ -7149,7 +7217,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -7169,7 +7237,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7183,7 +7251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -7203,7 +7271,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7217,7 +7285,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -7231,7 +7299,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -7248,7 +7316,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>437</v>
       </c>
@@ -7259,7 +7327,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -7279,7 +7347,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7293,7 +7361,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -7307,7 +7375,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -7321,7 +7389,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>22</v>
       </c>
@@ -7335,7 +7403,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -7355,7 +7423,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -7375,7 +7443,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7389,7 +7457,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -7403,7 +7471,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -7417,7 +7485,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -7431,7 +7499,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>155</v>
       </c>
@@ -7451,7 +7519,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -7471,7 +7539,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -7485,7 +7553,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -7499,7 +7567,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -7519,7 +7587,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -7539,7 +7607,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -7559,7 +7627,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -7573,7 +7641,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -7593,7 +7661,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -7613,7 +7681,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -7633,7 +7701,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7647,7 +7715,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7661,7 +7729,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -7681,7 +7749,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7712,17 +7780,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7742,7 +7810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -7762,7 +7830,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -7782,7 +7850,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -7802,7 +7870,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>463</v>
       </c>
@@ -7822,7 +7890,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>581</v>
       </c>
@@ -7842,7 +7910,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -7856,7 +7924,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>586</v>
       </c>
@@ -7876,7 +7944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -7896,7 +7964,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -7916,7 +7984,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -7930,7 +7998,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7944,7 +8012,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -7964,7 +8032,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>380</v>
       </c>
@@ -7984,7 +8052,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8004,7 +8072,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>42</v>
       </c>
@@ -8035,17 +8103,17 @@
       <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8065,7 +8133,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>592</v>
       </c>
@@ -8085,7 +8153,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -8105,7 +8173,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>593</v>
       </c>
@@ -8125,7 +8193,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>581</v>
       </c>
@@ -8145,7 +8213,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -8165,7 +8233,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -8179,7 +8247,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>310</v>
       </c>
@@ -8199,7 +8267,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8213,7 +8281,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -8227,7 +8295,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -8241,7 +8309,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -8261,7 +8329,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8275,7 +8343,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -8295,7 +8363,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -8309,7 +8377,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -8323,7 +8391,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>604</v>
       </c>
@@ -8343,7 +8411,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -8357,7 +8425,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -8371,7 +8439,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>22</v>
       </c>
@@ -8385,7 +8453,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -8405,7 +8473,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -8419,7 +8487,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8433,7 +8501,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8447,7 +8515,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -8467,7 +8535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -8481,7 +8549,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8495,7 +8563,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>607</v>
       </c>
@@ -8515,7 +8583,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -8529,7 +8597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>179</v>
       </c>
@@ -8549,7 +8617,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8563,7 +8631,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>612</v>
       </c>
@@ -8583,7 +8651,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -8603,7 +8671,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -8617,7 +8685,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -8631,7 +8699,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>619</v>
       </c>
@@ -8651,7 +8719,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -8665,7 +8733,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>620</v>
       </c>
@@ -8682,7 +8750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>577</v>
       </c>
@@ -8707,21 +8775,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E50" activeCellId="14" sqref="E2 E10 E13 E15 E17 E19 E21 E27 E29 E31 E36 E39 E42 E45 E50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8741,7 +8809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8761,7 +8829,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>625</v>
       </c>
@@ -8781,7 +8849,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -8795,7 +8863,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -8809,7 +8877,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>630</v>
       </c>
@@ -8823,7 +8891,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -8837,7 +8905,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>619</v>
       </c>
@@ -8857,7 +8925,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -8877,7 +8945,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -8891,7 +8959,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>634</v>
       </c>
@@ -8911,7 +8979,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -8931,7 +8999,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -8951,7 +9019,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>380</v>
       </c>
@@ -8971,7 +9039,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -8991,7 +9059,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -9005,7 +9073,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9019,7 +9087,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -9033,7 +9101,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -9047,7 +9115,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>644</v>
       </c>
@@ -9067,7 +9135,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -9087,7 +9155,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -9107,7 +9175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>647</v>
       </c>
@@ -9127,7 +9195,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -9141,7 +9209,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>181</v>
       </c>
@@ -9161,7 +9229,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9175,7 +9243,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>604</v>
       </c>
@@ -9195,7 +9263,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -9209,7 +9277,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>655</v>
       </c>
@@ -9229,7 +9297,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -9243,7 +9311,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>658</v>
       </c>
@@ -9263,7 +9331,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -9277,7 +9345,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -9291,7 +9359,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9312,27 +9380,134 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F38E3E-41FB-4066-8C0A-F4C286F74CD0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>666</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>667</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A17 F1:F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9352,7 +9527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -9369,11 +9544,11 @@
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F18" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -9394,7 +9569,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -9415,7 +9590,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -9436,7 +9611,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -9457,7 +9632,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -9478,7 +9653,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -9499,7 +9674,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -9520,7 +9695,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -9541,7 +9716,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -9562,7 +9737,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -9583,7 +9758,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -9604,7 +9779,7 @@
         <v>0.48648648648648651</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -9625,7 +9800,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -9646,7 +9821,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -9667,7 +9842,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -9688,58 +9863,79 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2023</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3">
-        <f>SUM(B2:B17)</f>
-        <v>248</v>
-      </c>
-      <c r="C18" s="3">
-        <f>SUM(C2:C17)</f>
+      <c r="B19" s="3">
+        <f>SUM(B2:B18)</f>
+        <v>251</v>
+      </c>
+      <c r="C19" s="3">
+        <f>SUM(C2:C18)</f>
         <v>7</v>
       </c>
-      <c r="D18" s="3">
-        <f>SUM(D2:D17)</f>
+      <c r="D19" s="3">
+        <f>SUM(D2:D18)</f>
         <v>335</v>
       </c>
-      <c r="E18" s="3">
-        <f>SUM(E2:E17)</f>
-        <v>238</v>
-      </c>
-      <c r="F18" s="4">
-        <f>(D18-E18)/D18</f>
-        <v>0.28955223880597014</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="3">
-        <f>AVERAGE(B2:B17)</f>
-        <v>15.5</v>
-      </c>
-      <c r="C19" s="3">
-        <f>AVERAGE(C2:C17)</f>
-        <v>0.4375</v>
-      </c>
-      <c r="D19" s="3">
-        <f>AVERAGE(D2:D17)</f>
-        <v>20.9375</v>
-      </c>
       <c r="E19" s="3">
-        <f>AVERAGE(E2:E17)</f>
-        <v>14.875</v>
+        <f>SUM(E2:E18)</f>
+        <v>241</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28955223880597014</v>
+        <v>0.28059701492537314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="3">
+        <f>AVERAGE(B2:B18)</f>
+        <v>14.764705882352942</v>
+      </c>
+      <c r="C20" s="3">
+        <f>AVERAGE(C2:C18)</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="D20" s="3">
+        <f>AVERAGE(D2:D18)</f>
+        <v>19.705882352941178</v>
+      </c>
+      <c r="E20" s="3">
+        <f>AVERAGE(E2:E18)</f>
+        <v>14.176470588235293</v>
+      </c>
+      <c r="F20" s="4">
+        <f>(D20-E20)/D20</f>
+        <v>0.2805970149253732</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F17">
+  <conditionalFormatting sqref="F2:F18">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -9764,17 +9960,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9794,7 +9990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -9814,7 +10010,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -9828,7 +10024,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9842,7 +10038,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -9856,8 +10052,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -9877,7 +10073,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -9891,7 +10087,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -9911,7 +10107,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -9931,7 +10127,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -9951,7 +10147,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -9965,7 +10161,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -9979,7 +10175,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -9999,7 +10195,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -10013,7 +10209,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -10027,7 +10223,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -10041,7 +10237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>212</v>
       </c>
@@ -10061,7 +10257,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -10075,7 +10271,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -10089,7 +10285,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>216</v>
       </c>
@@ -10109,7 +10305,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -10123,7 +10319,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -10137,7 +10333,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -10157,7 +10353,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -10171,7 +10367,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -10191,7 +10387,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -10205,7 +10401,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>228</v>
       </c>
@@ -10243,17 +10439,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10273,7 +10469,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>231</v>
       </c>
@@ -10293,7 +10489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -10313,7 +10509,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -10327,7 +10523,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -10347,7 +10543,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>237</v>
       </c>
@@ -10367,7 +10563,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>32</v>
       </c>
@@ -10381,7 +10577,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -10419,17 +10615,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10449,7 +10645,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>241</v>
       </c>
@@ -10469,7 +10665,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>244</v>
       </c>
@@ -10489,7 +10685,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -10503,7 +10699,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -10517,7 +10713,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -10537,7 +10733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -10551,7 +10747,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>253</v>
       </c>
@@ -10571,7 +10767,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -10585,7 +10781,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -10599,7 +10795,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>231</v>
       </c>
@@ -10619,7 +10815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>619</v>
       </c>
@@ -10639,7 +10835,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -10653,7 +10849,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -10667,7 +10863,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -10681,7 +10877,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -10701,7 +10897,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>263</v>
       </c>
@@ -10721,7 +10917,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>265</v>
       </c>
@@ -10741,7 +10937,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -10755,7 +10951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -10769,7 +10965,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -10783,7 +10979,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -10797,7 +10993,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>271</v>
       </c>
@@ -10817,7 +11013,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -10831,7 +11027,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -10845,7 +11041,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -10859,7 +11055,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -10879,7 +11075,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -10893,7 +11089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>276</v>
       </c>
@@ -10913,7 +11109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -10927,7 +11123,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -10941,7 +11137,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -10961,7 +11157,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -10975,7 +11171,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>281</v>
       </c>
@@ -10995,7 +11191,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -11009,7 +11205,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>19</v>
       </c>
@@ -11023,7 +11219,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>284</v>
       </c>
@@ -11043,7 +11239,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -11057,7 +11253,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -11071,7 +11267,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>288</v>
       </c>
@@ -11091,7 +11287,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -11105,7 +11301,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -11119,7 +11315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -11133,7 +11329,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>295</v>
       </c>
@@ -11171,17 +11367,17 @@
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11201,7 +11397,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -11221,7 +11417,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -11241,7 +11437,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -11255,7 +11451,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -11275,8 +11471,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -11296,7 +11492,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>619</v>
       </c>
@@ -11316,7 +11512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -11330,7 +11526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -11350,7 +11546,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -11364,7 +11560,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -11378,7 +11574,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -11398,7 +11594,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -11412,7 +11608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -11426,7 +11622,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -11446,7 +11642,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -11460,7 +11656,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -11474,7 +11670,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -11494,7 +11690,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -11508,7 +11704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -11522,7 +11718,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -11536,7 +11732,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -11550,7 +11746,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -11570,7 +11766,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>325</v>
       </c>
@@ -11590,7 +11786,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -11604,7 +11800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -11618,7 +11814,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -11632,7 +11828,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -11646,7 +11842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -11666,7 +11862,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -11680,7 +11876,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -11694,7 +11890,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -11708,7 +11904,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>333</v>
       </c>
@@ -11728,7 +11924,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -11742,7 +11938,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -11756,7 +11952,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -11776,7 +11972,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -11796,7 +11992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>33</v>
       </c>
@@ -11810,7 +12006,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>221</v>
       </c>
@@ -11830,7 +12026,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -11850,7 +12046,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>276</v>
       </c>
@@ -11870,7 +12066,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -11884,7 +12080,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -11898,7 +12094,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -11912,7 +12108,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>181</v>
       </c>
@@ -11932,7 +12128,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -11952,7 +12148,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>33</v>
       </c>
@@ -11966,7 +12162,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -11980,7 +12176,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -12000,7 +12196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>42</v>
       </c>
@@ -12014,7 +12210,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -12046,17 +12242,17 @@
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12076,7 +12272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -12096,7 +12292,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -12116,7 +12312,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -12136,7 +12332,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -12150,8 +12346,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -12171,7 +12367,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>619</v>
       </c>
@@ -12191,7 +12387,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -12205,7 +12401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -12225,7 +12421,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -12239,7 +12435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -12253,7 +12449,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>42</v>
       </c>
@@ -12267,7 +12463,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -12281,7 +12477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -12301,7 +12497,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>369</v>
       </c>
@@ -12321,7 +12517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -12341,7 +12537,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -12355,7 +12551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>48</v>
       </c>
@@ -12369,7 +12565,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -12383,7 +12579,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -12403,7 +12599,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -12423,7 +12619,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -12437,7 +12633,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>42</v>
       </c>
@@ -12451,7 +12647,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -12465,7 +12661,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>380</v>
       </c>
@@ -12485,7 +12681,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -12499,7 +12695,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -12513,7 +12709,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -12527,7 +12723,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -12547,7 +12743,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>42</v>
       </c>
@@ -12561,7 +12757,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12575,7 +12771,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -12589,7 +12785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -12609,7 +12805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -12623,7 +12819,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -12637,7 +12833,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>391</v>
       </c>
@@ -12657,7 +12853,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>276</v>
       </c>
@@ -12677,7 +12873,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -12697,7 +12893,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -12711,7 +12907,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -12725,7 +12921,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -12739,7 +12935,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -12759,7 +12955,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -12773,7 +12969,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -12787,7 +12983,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -12807,7 +13003,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -12821,7 +13017,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -12841,7 +13037,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>42</v>
       </c>
@@ -12855,7 +13051,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -12887,17 +13083,17 @@
       <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12917,7 +13113,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -12937,7 +13133,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -12951,7 +13147,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -12965,7 +13161,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -12985,7 +13181,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -12999,7 +13195,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -13013,7 +13209,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -13027,8 +13223,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -13048,7 +13244,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -13062,7 +13258,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -13076,7 +13272,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -13090,7 +13286,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -13104,7 +13300,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -13118,7 +13314,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -13138,7 +13334,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -13152,7 +13348,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -13172,7 +13368,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>619</v>
       </c>
@@ -13192,7 +13388,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -13212,7 +13408,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -13226,7 +13422,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -13240,7 +13436,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>310</v>
       </c>
@@ -13260,7 +13456,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -13277,7 +13473,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -13297,7 +13493,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -13317,7 +13513,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -13331,7 +13527,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -13345,7 +13541,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>416</v>
       </c>
@@ -13365,7 +13561,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -13379,7 +13575,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -13393,7 +13589,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -13413,7 +13609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -13427,7 +13623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -13441,7 +13637,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -13455,7 +13651,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -13475,7 +13671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>42</v>
       </c>
@@ -13489,7 +13685,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -13503,7 +13699,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -13517,7 +13713,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -13531,7 +13727,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -13551,7 +13747,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -13571,7 +13767,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -13585,7 +13781,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -13599,7 +13795,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -13619,7 +13815,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -13633,7 +13829,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -13647,7 +13843,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -13667,7 +13863,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>14</v>
       </c>
@@ -13681,7 +13877,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -13695,7 +13891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -13715,7 +13911,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>42</v>
       </c>
@@ -13729,7 +13925,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -13743,7 +13939,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>14</v>
       </c>
@@ -13757,7 +13953,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -13777,7 +13973,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -13791,7 +13987,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -13811,7 +14007,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -13825,7 +14021,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>14</v>
       </c>
@@ -13839,7 +14035,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>433</v>
       </c>
@@ -13859,7 +14055,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -13873,7 +14069,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -13887,7 +14083,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>436</v>
       </c>
@@ -13907,7 +14103,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>14</v>
       </c>
@@ -13921,7 +14117,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>19</v>
       </c>
@@ -13953,17 +14149,17 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13983,7 +14179,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -14003,7 +14199,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -14017,7 +14213,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -14031,7 +14227,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -14045,7 +14241,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -14065,7 +14261,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>619</v>
       </c>
@@ -14085,7 +14281,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -14099,7 +14295,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -14113,7 +14309,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -14127,7 +14323,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -14147,7 +14343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -14161,7 +14357,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -14181,7 +14377,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>444</v>
       </c>
@@ -14201,7 +14397,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -14218,7 +14414,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>446</v>
       </c>
@@ -14229,7 +14425,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -14249,7 +14445,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -14263,7 +14459,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -14277,7 +14473,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -14297,7 +14493,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -14311,7 +14507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>380</v>
       </c>
@@ -14331,7 +14527,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>450</v>
       </c>
@@ -14351,7 +14547,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -14365,7 +14561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -14379,7 +14575,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -14393,7 +14589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -14413,7 +14609,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -14427,7 +14623,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -14441,7 +14637,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -14461,7 +14657,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -14475,7 +14671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -14495,7 +14691,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -14515,7 +14711,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -14535,7 +14731,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -14549,7 +14745,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -14569,7 +14765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -14583,7 +14779,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -14597,7 +14793,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -14617,7 +14813,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>42</v>
       </c>
@@ -14631,7 +14827,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>461</v>
       </c>
@@ -14668,17 +14864,17 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14698,7 +14894,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -14718,7 +14914,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -14732,7 +14928,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -14752,7 +14948,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -14766,7 +14962,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -14786,7 +14982,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>463</v>
       </c>
@@ -14806,7 +15002,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>619</v>
       </c>
@@ -14826,7 +15022,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -14840,7 +15036,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -14854,7 +15050,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -14868,7 +15064,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -14888,7 +15084,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -14902,7 +15098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -14916,7 +15112,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -14930,7 +15126,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -14944,7 +15140,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>310</v>
       </c>
@@ -14964,7 +15160,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -14978,7 +15174,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -14998,7 +15194,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -15012,7 +15208,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -15032,7 +15228,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>380</v>
       </c>
@@ -15052,7 +15248,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -15066,7 +15262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -15080,7 +15276,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -15094,7 +15290,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -15114,7 +15310,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -15128,7 +15324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -15142,7 +15338,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -15156,7 +15352,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>155</v>
       </c>
@@ -15176,7 +15372,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -15190,7 +15386,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -15204,7 +15400,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -15218,7 +15414,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -15232,7 +15428,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -15252,7 +15448,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -15266,7 +15462,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -15280,7 +15476,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -15300,7 +15496,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -15314,7 +15510,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -15328,7 +15524,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -15342,7 +15538,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -15356,7 +15552,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -15376,7 +15572,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -15396,7 +15592,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -15410,7 +15606,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -15424,7 +15620,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -15444,7 +15640,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>485</v>
       </c>
@@ -15464,7 +15660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>14</v>
       </c>
@@ -15478,7 +15674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>19</v>
       </c>
@@ -15492,7 +15688,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -15512,7 +15708,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -15526,7 +15722,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -15546,7 +15742,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -15560,7 +15756,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>436</v>
       </c>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8037" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F63F645A-E156-4472-AEAB-29B88E4B7347}"/>
+  <xr:revisionPtr revIDLastSave="8056" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD75ABDA-164D-45B6-A0D0-AEC09198FDB2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="674">
   <si>
     <t>ROUND</t>
   </si>
@@ -2056,6 +2056,24 @@
   </si>
   <si>
     <t>Anastasia Potapova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>MERIDA OPEN AKRON</t>
+  </si>
+  <si>
+    <t>Leolia Jeanjean (FRANCE)</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Camila Giorgi (ITALY)</t>
+  </si>
+  <si>
+    <t>5-7 6-2 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-0 6-0</t>
   </si>
 </sst>
 </file>
@@ -2421,7 +2439,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2571,7 +2589,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3125,7 +3143,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4614,6 +4632,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9384,10 +9406,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9397,7 +9419,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9478,6 +9500,54 @@
       </c>
       <c r="F6" t="s">
         <v>663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>668</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>669</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>670</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>671</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>673</v>
       </c>
     </row>
   </sheetData>
@@ -9494,7 +9564,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9868,20 +9938,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18" s="5" t="e">
+        <v>4</v>
+      </c>
+      <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9890,7 +9960,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -9898,15 +9968,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28059701492537314</v>
+        <v>0.28189910979228489</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -9915,7 +9985,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>14.764705882352942</v>
+        <v>14.823529411764707</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -9923,15 +9993,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>19.705882352941178</v>
+        <v>19.823529411764707</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.176470588235293</v>
+        <v>14.235294117647058</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.2805970149253732</v>
+        <v>0.28189910979228494</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8056" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CD75ABDA-164D-45B6-A0D0-AEC09198FDB2}"/>
+  <xr:revisionPtr revIDLastSave="8076" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E883AAF-9298-4D43-8B87-A0CD05F62A44}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2934" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="676">
   <si>
     <t>ROUND</t>
   </si>
@@ -2074,6 +2074,12 @@
   </si>
   <si>
     <t>6-0 6-0</t>
+  </si>
+  <si>
+    <t>ATX OPEN</t>
+  </si>
+  <si>
+    <t>Taylor Townsend (USA)</t>
   </si>
 </sst>
 </file>
@@ -2439,7 +2445,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2589,7 +2595,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3143,7 +3149,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-1</c:v>
+                  <c:v>-0.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9406,10 +9412,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E12" activeCellId="1" sqref="E8:E9 E12:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9417,7 +9423,7 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -9548,6 +9554,54 @@
       </c>
       <c r="F10" t="s">
         <v>673</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>674</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>675</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>616</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>670</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>
@@ -9938,20 +9992,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -9960,7 +10014,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -9968,15 +10022,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28189910979228489</v>
+        <v>0.2831858407079646</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -9985,7 +10039,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>14.823529411764707</v>
+        <v>14.882352941176471</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -9993,15 +10047,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>19.823529411764707</v>
+        <v>19.941176470588236</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.235294117647058</v>
+        <v>14.294117647058824</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28189910979228494</v>
+        <v>0.2831858407079646</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8076" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E883AAF-9298-4D43-8B87-A0CD05F62A44}"/>
+  <xr:revisionPtr revIDLastSave="8091" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE83B2F-CB9F-46A4-ADD1-285675873ABB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2948" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="677">
   <si>
     <t>ROUND</t>
   </si>
@@ -2080,6 +2080,9 @@
   </si>
   <si>
     <t>Taylor Townsend (USA)</t>
+  </si>
+  <si>
+    <t>Shelby Rogers (USA)</t>
   </si>
 </sst>
 </file>
@@ -2595,7 +2598,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3149,7 +3152,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.25</c:v>
+                  <c:v>-0.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4638,10 +4641,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9412,10 +9411,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" activeCellId="1" sqref="E8:E9 E12:E13"/>
+      <selection activeCell="E10" activeCellId="3" sqref="E2 E4 E6 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9602,6 +9601,46 @@
       </c>
       <c r="F14" t="s">
         <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>648</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>676</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -9992,7 +10031,7 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10001,11 +10040,11 @@
         <v>4</v>
       </c>
       <c r="E18">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10014,7 +10053,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10026,11 +10065,11 @@
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.2831858407079646</v>
+        <v>0.27728613569321536</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10039,7 +10078,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>14.882352941176471</v>
+        <v>15</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10051,11 +10090,11 @@
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.294117647058824</v>
+        <v>14.411764705882353</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.2831858407079646</v>
+        <v>0.27728613569321531</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8091" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBE83B2F-CB9F-46A4-ADD1-285675873ABB}"/>
+  <xr:revisionPtr revIDLastSave="8101" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63A7F82A-87B8-4967-9B3A-54DAD9CE79FB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="12" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2960" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="678">
   <si>
     <t>ROUND</t>
   </si>
@@ -2083,6 +2083,9 @@
   </si>
   <si>
     <t>Shelby Rogers (USA)</t>
+  </si>
+  <si>
+    <t>Louisa Chirico (USA)</t>
   </si>
 </sst>
 </file>
@@ -2448,7 +2451,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2598,7 +2601,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3152,7 +3155,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.75</c:v>
+                  <c:v>-0.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4641,6 +4644,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5063,7 +5070,7 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6090,7 +6097,7 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8803,7 +8810,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C24" sqref="C24:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9411,10 +9418,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" activeCellId="3" sqref="E2 E4 E6 E10"/>
+      <selection activeCell="A20" activeCellId="7" sqref="A2 A4 A6 A8 A12 A16 A18 A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9643,6 +9650,40 @@
         <v>354</v>
       </c>
     </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>634</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>677</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9657,7 +9698,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10031,20 +10072,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>-0.75</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10053,7 +10094,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10061,15 +10102,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.27728613569321536</v>
+        <v>0.27647058823529413</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10078,7 +10119,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15</v>
+        <v>15.058823529411764</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10086,15 +10127,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>19.941176470588236</v>
+        <v>20</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.411764705882353</v>
+        <v>14.470588235294118</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.27728613569321531</v>
+        <v>0.27647058823529413</v>
       </c>
     </row>
   </sheetData>
@@ -15023,7 +15064,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8101" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63A7F82A-87B8-4967-9B3A-54DAD9CE79FB}"/>
+  <xr:revisionPtr revIDLastSave="8110" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98A9A944-7C32-4FF6-BFFF-269C956A4BC3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2970" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="680">
   <si>
     <t>ROUND</t>
   </si>
@@ -2086,6 +2086,12 @@
   </si>
   <si>
     <t>Louisa Chirico (USA)</t>
+  </si>
+  <si>
+    <t>Jaqueline Cristian (ROMANIA)</t>
+  </si>
+  <si>
+    <t>5-7 6-4 6-4</t>
   </si>
 </sst>
 </file>
@@ -2601,7 +2607,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3155,7 +3161,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.6</c:v>
+                  <c:v>-0.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4644,10 +4650,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9418,10 +9420,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" activeCellId="7" sqref="A2 A4 A6 A8 A12 A16 A18 A20"/>
+      <selection activeCell="E23" activeCellId="8" sqref="E2 E4 E6 E10 E14 E16 E18 E21 E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9684,6 +9686,26 @@
         <v>157</v>
       </c>
     </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>678</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>679</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9698,7 +9720,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10072,7 +10094,7 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10081,11 +10103,11 @@
         <v>5</v>
       </c>
       <c r="E18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>-0.6</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10094,7 +10116,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10106,11 +10128,11 @@
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.27647058823529413</v>
+        <v>0.27352941176470591</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10119,7 +10141,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.058823529411764</v>
+        <v>15.117647058823529</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10131,11 +10153,11 @@
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.470588235294118</v>
+        <v>14.529411764705882</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.27647058823529413</v>
+        <v>0.27352941176470591</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8110" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98A9A944-7C32-4FF6-BFFF-269C956A4BC3}"/>
+  <xr:revisionPtr revIDLastSave="8134" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C14D49-07E4-4449-BE8E-914C77B3788E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="687">
   <si>
     <t>ROUND</t>
   </si>
@@ -1944,9 +1944,6 @@
     <t>4-6 6-3 6-2</t>
   </si>
   <si>
-    <t>Semifinals</t>
-  </si>
-  <si>
     <t>Naomi Osaka (JAPAN)</t>
   </si>
   <si>
@@ -2092,6 +2089,30 @@
   </si>
   <si>
     <t>5-7 6-4 6-4</t>
+  </si>
+  <si>
+    <t>7-5 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-2 2-6 6-1</t>
+  </si>
+  <si>
+    <t>SAINT MALO 125K SERIES</t>
+  </si>
+  <si>
+    <t>Emeline Dartron (FRANCE)</t>
+  </si>
+  <si>
+    <t>Freya Christie (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Jessika Ponchet (FRANCE)</t>
+  </si>
+  <si>
+    <t>Elina Svitolina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Greet Minnen (BELGIUM)</t>
   </si>
 </sst>
 </file>
@@ -2457,7 +2478,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3161,7 +3182,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.8</c:v>
+                  <c:v>0.1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4650,6 +4671,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5336,7 +5361,7 @@
     </row>
     <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -8812,7 +8837,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C25"/>
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8915,7 +8940,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>630</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>576</v>
@@ -8952,13 +8977,13 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>631</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -8972,7 +8997,7 @@
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8997,7 +9022,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -9006,13 +9031,13 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
+        <v>634</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>635</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
@@ -9026,7 +9051,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -9046,7 +9071,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
@@ -9066,7 +9091,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -9086,7 +9111,7 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>16</v>
@@ -9106,7 +9131,7 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
@@ -9114,7 +9139,7 @@
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -9128,7 +9153,7 @@
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -9153,7 +9178,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B29" t="s">
         <v>80</v>
@@ -9162,7 +9187,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -9182,13 +9207,13 @@
         <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
@@ -9213,7 +9238,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -9222,13 +9247,13 @@
         <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E35" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F35" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
@@ -9236,13 +9261,13 @@
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F36" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
@@ -9256,7 +9281,7 @@
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>16</v>
@@ -9270,7 +9295,7 @@
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>17</v>
@@ -9310,12 +9335,12 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B44" t="s">
         <v>31</v>
@@ -9324,7 +9349,7 @@
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E44" s="6" t="s">
         <v>16</v>
@@ -9338,18 +9363,18 @@
         <v>14</v>
       </c>
       <c r="D45" t="s">
+        <v>655</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
         <v>656</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" t="s">
-        <v>657</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B47" t="s">
         <v>31</v>
@@ -9358,7 +9383,7 @@
         <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>16</v>
@@ -9372,7 +9397,7 @@
         <v>15</v>
       </c>
       <c r="D48" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>16</v>
@@ -9386,13 +9411,13 @@
         <v>14</v>
       </c>
       <c r="D49" t="s">
+        <v>660</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
         <v>661</v>
-      </c>
-      <c r="E49" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F49" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="50" spans="3:6" x14ac:dyDescent="0.3">
@@ -9420,10 +9445,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E23" activeCellId="8" sqref="E2 E4 E6 E10 E14 E16 E18 E21 E23"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" activeCellId="3" sqref="E8:E9 E12:E13 E20 E25:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9467,13 +9492,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -9487,7 +9512,7 @@
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>17</v>
@@ -9507,27 +9532,27 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F6" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>668</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>669</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -9541,13 +9566,13 @@
         <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -9555,27 +9580,27 @@
         <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>673</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
         <v>674</v>
-      </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" t="s">
-        <v>675</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -9603,7 +9628,7 @@
         <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>17</v>
@@ -9623,7 +9648,7 @@
         <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>17</v>
@@ -9643,7 +9668,7 @@
         <v>58</v>
       </c>
       <c r="D18" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>17</v>
@@ -9654,7 +9679,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B20" t="s">
         <v>13</v>
@@ -9663,13 +9688,13 @@
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F20" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -9697,13 +9722,93 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
+        <v>677</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
         <v>678</v>
       </c>
-      <c r="E23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" t="s">
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>682</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>683</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>684</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>685</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
         <v>679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>686</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -9720,7 +9825,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10094,20 +10199,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>9</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>-0.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10116,7 +10221,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10124,7 +10229,7 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
@@ -10132,7 +10237,7 @@
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.27352941176470591</v>
+        <v>0.28405797101449276</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10141,7 +10246,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.117647058823529</v>
+        <v>15.176470588235293</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10149,7 +10254,7 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>20</v>
+        <v>20.294117647058822</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
@@ -10157,7 +10262,7 @@
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.27352941176470591</v>
+        <v>0.28405797101449271</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8134" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53C14D49-07E4-4449-BE8E-914C77B3788E}"/>
+  <xr:revisionPtr revIDLastSave="8148" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E13B3AA6-D26E-4992-9859-BC9C978582DC}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2998" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="688">
   <si>
     <t>ROUND</t>
   </si>
@@ -2113,6 +2113,9 @@
   </si>
   <si>
     <t>Greet Minnen (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Nadia Podoroska (ARGENTINA)</t>
   </si>
 </sst>
 </file>
@@ -2478,7 +2481,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2628,7 +2631,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,7 +3185,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.1</c:v>
+                  <c:v>9.0909090909090912E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9445,10 +9448,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" activeCellId="3" sqref="E8:E9 E12:E13 E20 E25:E29"/>
+      <selection activeCell="A31" activeCellId="10" sqref="A2 A4 A6 A8 A12 A16 A18 A20 A23 A25 A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9811,6 +9814,40 @@
         <v>20</v>
       </c>
     </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>687</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -9825,7 +9862,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10199,20 +10236,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18">
         <v>10</v>
-      </c>
-      <c r="E18">
-        <v>9</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>9.0909090909090912E-2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10221,7 +10258,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10229,15 +10266,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28405797101449276</v>
+        <v>0.2832369942196532</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10246,7 +10283,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.176470588235293</v>
+        <v>15.235294117647058</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10254,15 +10291,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>20.294117647058822</v>
+        <v>20.352941176470587</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.529411764705882</v>
+        <v>14.588235294117647</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28405797101449271</v>
+        <v>0.28323699421965315</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8148" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E13B3AA6-D26E-4992-9859-BC9C978582DC}"/>
+  <xr:revisionPtr revIDLastSave="8167" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62CA2CB5-C1D9-4615-B276-8FCF4B4E74A2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="688">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="693">
   <si>
     <t>ROUND</t>
   </si>
@@ -2116,6 +2116,21 @@
   </si>
   <si>
     <t>Nadia Podoroska (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>RABAT OPEN</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti</t>
+  </si>
+  <si>
+    <t>Vera Zvonareva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Peyton Stearns (USA)</t>
+  </si>
+  <si>
+    <t>6-7(4) 6-3 7-6(6)</t>
   </si>
 </sst>
 </file>
@@ -2481,7 +2496,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2631,7 +2646,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3185,7 +3200,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>9.0909090909090912E-2</c:v>
+                  <c:v>0.21428571428571427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9448,10 +9463,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" activeCellId="10" sqref="A2 A4 A6 A8 A12 A16 A18 A20 A23 A25 A31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" activeCellId="5" sqref="E8:E9 E12:E13 E20 E25:E29 E31 E34:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9461,7 +9476,7 @@
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -9846,6 +9861,68 @@
       </c>
       <c r="F32" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>688</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>690</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>691</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>689</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -10236,20 +10313,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
         <v>11</v>
-      </c>
-      <c r="E18">
-        <v>10</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>9.0909090909090912E-2</v>
+        <v>0.21428571428571427</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10258,7 +10335,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10266,15 +10343,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.2832369942196532</v>
+        <v>0.28653295128939826</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10283,7 +10360,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.235294117647058</v>
+        <v>15.294117647058824</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10291,15 +10368,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>20.352941176470587</v>
+        <v>20.529411764705884</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.588235294117647</v>
+        <v>14.647058823529411</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28323699421965315</v>
+        <v>0.28653295128939837</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8167" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{62CA2CB5-C1D9-4615-B276-8FCF4B4E74A2}"/>
+  <xr:revisionPtr revIDLastSave="8186" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FFEFF6-3C1D-4164-9C9A-E4D0980C1CA3}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3026" uniqueCount="693">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="696">
   <si>
     <t>ROUND</t>
   </si>
@@ -2121,9 +2121,6 @@
     <t>RABAT OPEN</t>
   </si>
   <si>
-    <t>Lucia Bronzetti</t>
-  </si>
-  <si>
     <t>Vera Zvonareva (RUSSIA)</t>
   </si>
   <si>
@@ -2131,6 +2128,18 @@
   </si>
   <si>
     <t>6-7(4) 6-3 7-6(6)</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLAND GARROS </t>
+  </si>
+  <si>
+    <t>Yulia Putintseva (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>6-0 6-4</t>
   </si>
 </sst>
 </file>
@@ -2496,7 +2505,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2646,7 +2655,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3200,7 +3209,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>0.29411764705882354</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8178,8 +8187,8 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9463,10 +9472,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" activeCellId="5" sqref="E8:E9 E12:E13 E20 E25:E29 E31 E34:E36"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E42" activeCellId="11" sqref="E2 E4 E6 E10 E14 E16 E18 E21 E23 E32 E37 E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9474,7 +9483,7 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -9874,7 +9883,7 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -9902,13 +9911,13 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
+        <v>690</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
         <v>691</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -9916,13 +9925,75 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F37" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>693</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>669</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>694</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>655</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -10313,20 +10384,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.29411764705882354</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10335,7 +10406,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10343,15 +10414,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28653295128939826</v>
+        <v>0.28977272727272729</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10360,7 +10431,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.294117647058824</v>
+        <v>15.352941176470589</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10368,15 +10439,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>20.529411764705884</v>
+        <v>20.705882352941178</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.647058823529411</v>
+        <v>14.705882352941176</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28653295128939837</v>
+        <v>0.28977272727272735</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Soumya-Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7926" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48ECE3BD-C868-4D1D-B885-D292DD8E0C37}"/>
+  <xr:revisionPtr revIDLastSave="8189" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68EA65D1-569F-451C-9CB5-DB2524BC1896}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="12" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -29,9 +29,10 @@
     <sheet name="2020" sheetId="27" r:id="rId14"/>
     <sheet name="2021" sheetId="28" r:id="rId15"/>
     <sheet name="2022" sheetId="31" r:id="rId16"/>
-    <sheet name="YTD Stats" sheetId="1" r:id="rId17"/>
-    <sheet name="YTD Wins-Losses" sheetId="29" r:id="rId18"/>
-    <sheet name="Winning Percentile Range" sheetId="30" r:id="rId19"/>
+    <sheet name="2023" sheetId="34" r:id="rId17"/>
+    <sheet name="YTD Stats" sheetId="1" r:id="rId18"/>
+    <sheet name="Wins-Losses" sheetId="35" r:id="rId19"/>
+    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2868" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="695">
   <si>
     <t>ROUND</t>
   </si>
@@ -1943,9 +1944,6 @@
     <t>4-6 6-3 6-2</t>
   </si>
   <si>
-    <t>Semifinals</t>
-  </si>
-  <si>
     <t>Naomi Osaka (JAPAN)</t>
   </si>
   <si>
@@ -2016,6 +2014,129 @@
   </si>
   <si>
     <t>7-5 2-6 7-5</t>
+  </si>
+  <si>
+    <t>SAN DIEGO OPEN</t>
+  </si>
+  <si>
+    <t>Aryna Sabalenka (BELARUS)</t>
+  </si>
+  <si>
+    <t>1-6 6-3 6-2</t>
+  </si>
+  <si>
+    <t>GUADALAJARA OPEN</t>
+  </si>
+  <si>
+    <t>Linda Fruhvirtová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Belinda Bencic (SWITZERLAND)</t>
+  </si>
+  <si>
+    <t>Caroline Garcia (FRANCE)</t>
+  </si>
+  <si>
+    <t>7-6(8) 7-5</t>
+  </si>
+  <si>
+    <t>7-6(2) 6-4</t>
+  </si>
+  <si>
+    <t>6-3 7-6(5)</t>
+  </si>
+  <si>
+    <t>Rebeka Masarova (SPAIN)</t>
+  </si>
+  <si>
+    <t>Lauren Davis (USA)</t>
+  </si>
+  <si>
+    <t>Anastasia Potapova (RUSSIA)</t>
+  </si>
+  <si>
+    <t>MERIDA OPEN AKRON</t>
+  </si>
+  <si>
+    <t>Leolia Jeanjean (FRANCE)</t>
+  </si>
+  <si>
+    <t>Varvara Gracheva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Camila Giorgi (ITALY)</t>
+  </si>
+  <si>
+    <t>5-7 6-2 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-0 6-0</t>
+  </si>
+  <si>
+    <t>ATX OPEN</t>
+  </si>
+  <si>
+    <t>Taylor Townsend (USA)</t>
+  </si>
+  <si>
+    <t>Shelby Rogers (USA)</t>
+  </si>
+  <si>
+    <t>Louisa Chirico (USA)</t>
+  </si>
+  <si>
+    <t>Jaqueline Cristian (ROMANIA)</t>
+  </si>
+  <si>
+    <t>5-7 6-4 6-4</t>
+  </si>
+  <si>
+    <t>7-5 7-6(5)</t>
+  </si>
+  <si>
+    <t>6-2 2-6 6-1</t>
+  </si>
+  <si>
+    <t>SAINT MALO 125K SERIES</t>
+  </si>
+  <si>
+    <t>Emeline Dartron (FRANCE)</t>
+  </si>
+  <si>
+    <t>Freya Christie (GREAT BRITAIN)</t>
+  </si>
+  <si>
+    <t>Jessika Ponchet (FRANCE)</t>
+  </si>
+  <si>
+    <t>Elina Svitolina (UKRAINE)</t>
+  </si>
+  <si>
+    <t>Greet Minnen (BELGIUM)</t>
+  </si>
+  <si>
+    <t>Nadia Podoroska (ARGENTINA)</t>
+  </si>
+  <si>
+    <t>RABAT OPEN</t>
+  </si>
+  <si>
+    <t>Lucia Bronzetti</t>
+  </si>
+  <si>
+    <t>Vera Zvonareva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Peyton Stearns (USA)</t>
+  </si>
+  <si>
+    <t>6-7(4) 6-3 7-6(6)</t>
+  </si>
+  <si>
+    <t>6-0 6-4</t>
+  </si>
+  <si>
+    <t>Yulia Putintseva (KAZAKHSTAN)</t>
   </si>
 </sst>
 </file>
@@ -2104,7 +2225,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2114,6 +2235,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2200,13 +2322,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sloane Stephens (USA):</a:t>
+              <a:t>Sloane Stephens (USA): Wins-Losses</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> YTD Wins-Losses</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2272,10 +2389,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -2321,15 +2438,21 @@
                 <c:pt idx="14">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$D$2:$D$16</c:f>
+              <c:f>'YTD Stats'!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2375,12 +2498,18 @@
                 <c:pt idx="14">
                   <c:v>21</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A2B4-4AF7-897F-EE52E461F5EA}"/>
+              <c16:uniqueId val="{00000000-93C4-43E9-A865-8C9886314845}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2410,10 +2539,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -2459,15 +2588,21 @@
                 <c:pt idx="14">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$E$2:$E$16</c:f>
+              <c:f>'YTD Stats'!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2513,12 +2648,18 @@
                 <c:pt idx="14">
                   <c:v>17</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A2B4-4AF7-897F-EE52E461F5EA}"/>
+              <c16:uniqueId val="{00000001-93C4-43E9-A865-8C9886314845}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2532,11 +2673,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1783950367"/>
-        <c:axId val="1783952031"/>
+        <c:axId val="1142950752"/>
+        <c:axId val="1142959072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1783950367"/>
+        <c:axId val="1142950752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2634,7 +2775,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783952031"/>
+        <c:crossAx val="1142959072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2642,7 +2783,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1783952031"/>
+        <c:axId val="1142959072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2748,7 +2889,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1783950367"/>
+        <c:crossAx val="1142950752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2858,13 +2999,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US" b="1"/>
-              <a:t>Sloane Stephens (USA):</a:t>
+              <a:t>Sloane Stephens (USA): Winning Percentile Range</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> Winning Percentile Range</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2952,16 +3088,15 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:forward val="1"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="0"/>
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>'YTD Stats'!$A$2:$A$16</c:f>
+              <c:f>'YTD Stats'!$A$2:$A$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -3007,15 +3142,21 @@
                 <c:pt idx="14">
                   <c:v>2021</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2023</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'YTD Stats'!$F$2:$F$16</c:f>
+              <c:f>'YTD Stats'!$F$2:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3061,13 +3202,19 @@
                 <c:pt idx="14">
                   <c:v>0.19047619047619047</c:v>
                 </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.21428571428571427</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C74B-400F-BBE3-904E2E0C5FD5}"/>
+              <c16:uniqueId val="{00000000-5ACF-4E98-9D87-97EDBF13D56E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3081,11 +3228,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1859439743"/>
-        <c:axId val="1859437663"/>
+        <c:axId val="837707504"/>
+        <c:axId val="837704176"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1859439743"/>
+        <c:axId val="837707504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,7 +3330,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859437663"/>
+        <c:crossAx val="837704176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3191,7 +3338,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1859437663"/>
+        <c:axId val="837704176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3297,7 +3444,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1859439743"/>
+        <c:crossAx val="837707504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3342,13 +3489,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -4466,7 +4606,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{AF41A070-0C3E-4AE5-989A-41B10E99DE03}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B6B17B0E-5A3B-4095-8C5C-2CD92820ABBD}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4478,7 +4618,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3916A6FA-B41D-4E88-A6EF-EBB3C4B8AD1D}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9E581842-E1DA-4169-9A35-6C9AB1C1BC16}">
   <sheetPr/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -4493,13 +4633,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EF9DE10-CBB3-4D69-84B4-23F22E83A498}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C018416F-9503-DF28-0D67-5A7CD5440733}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4526,13 +4666,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8582025" cy="5838825"/>
+    <xdr:ext cx="8564880" cy="5821680"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2FB00A1-8C7A-4C81-B85C-AB5F6C74753C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92BF16D-7116-8E9A-07E1-468751799B25}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4861,17 +5001,17 @@
       <selection activeCell="A8" sqref="A8:F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -4891,7 +5031,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>184</v>
       </c>
@@ -4911,7 +5051,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -4925,7 +5065,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>188</v>
       </c>
@@ -4945,7 +5085,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -4959,10 +5099,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -4977,20 +5117,20 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B22" sqref="A22:B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5010,7 +5150,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -5030,7 +5170,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5044,7 +5184,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -5058,7 +5198,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5072,7 +5212,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -5086,7 +5226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5106,7 +5246,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>136</v>
       </c>
@@ -5123,7 +5263,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>463</v>
       </c>
@@ -5143,7 +5283,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -5157,7 +5297,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5171,7 +5311,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -5185,7 +5325,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -5199,7 +5339,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>619</v>
       </c>
@@ -5219,7 +5359,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>96</v>
       </c>
@@ -5239,9 +5379,9 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -5259,7 +5399,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -5273,7 +5413,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -5287,7 +5427,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>22</v>
       </c>
@@ -5301,7 +5441,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -5315,7 +5455,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>76</v>
       </c>
@@ -5335,7 +5475,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -5349,7 +5489,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>380</v>
       </c>
@@ -5369,7 +5509,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -5383,7 +5523,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5403,7 +5543,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -5417,7 +5557,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -5431,7 +5571,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>79</v>
       </c>
@@ -5451,7 +5591,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -5465,7 +5605,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5479,7 +5619,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>156</v>
       </c>
@@ -5499,7 +5639,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>179</v>
       </c>
@@ -5519,7 +5659,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>513</v>
       </c>
@@ -5556,17 +5696,17 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5586,7 +5726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>79</v>
       </c>
@@ -5606,7 +5746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -5626,7 +5766,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -5646,7 +5786,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -5660,7 +5800,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5674,7 +5814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -5688,7 +5828,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -5702,7 +5842,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>181</v>
       </c>
@@ -5722,7 +5862,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5736,7 +5876,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -5750,7 +5890,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -5764,7 +5904,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -5778,7 +5918,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>85</v>
       </c>
@@ -5798,7 +5938,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -5812,7 +5952,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -5826,7 +5966,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -5840,7 +5980,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -5854,7 +5994,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -5868,7 +6008,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -5882,7 +6022,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>133</v>
       </c>
@@ -5902,7 +6042,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>115</v>
       </c>
@@ -5922,7 +6062,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>528</v>
       </c>
@@ -5942,7 +6082,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>125</v>
       </c>
@@ -5956,7 +6096,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>136</v>
       </c>
@@ -5973,7 +6113,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>531</v>
       </c>
@@ -6004,20 +6144,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6037,7 +6177,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>116</v>
       </c>
@@ -6057,7 +6197,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6077,7 +6217,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>463</v>
       </c>
@@ -6097,7 +6237,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6111,7 +6251,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -6125,7 +6265,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>619</v>
       </c>
@@ -6145,7 +6285,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -6159,7 +6299,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>96</v>
       </c>
@@ -6179,7 +6319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -6193,7 +6333,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6207,7 +6347,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -6221,7 +6361,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -6235,7 +6375,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -6249,7 +6389,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>136</v>
       </c>
@@ -6266,7 +6406,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>364</v>
       </c>
@@ -6277,7 +6417,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>127</v>
       </c>
@@ -6297,7 +6437,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>76</v>
       </c>
@@ -6317,7 +6457,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -6331,7 +6471,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6345,7 +6485,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -6365,7 +6505,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6379,7 +6519,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6393,7 +6533,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>541</v>
       </c>
@@ -6413,7 +6553,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -6433,7 +6573,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -6447,7 +6587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6461,7 +6601,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -6475,7 +6615,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -6489,7 +6629,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -6503,7 +6643,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -6517,7 +6657,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -6537,7 +6677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -6557,7 +6697,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -6571,7 +6711,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>179</v>
       </c>
@@ -6591,7 +6731,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -6605,7 +6745,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -6619,7 +6759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -6633,7 +6773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>23</v>
       </c>
@@ -6647,7 +6787,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>181</v>
       </c>
@@ -6667,7 +6807,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -6681,7 +6821,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>85</v>
       </c>
@@ -6701,7 +6841,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>42</v>
       </c>
@@ -6715,7 +6855,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6729,7 +6869,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -6743,7 +6883,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -6757,7 +6897,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>88</v>
       </c>
@@ -6777,7 +6917,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>133</v>
       </c>
@@ -6797,7 +6937,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>115</v>
       </c>
@@ -6817,7 +6957,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -6831,7 +6971,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>14</v>
       </c>
@@ -6845,7 +6985,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>551</v>
       </c>
@@ -6865,7 +7005,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>134</v>
       </c>
@@ -6885,7 +7025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>125</v>
       </c>
@@ -6899,7 +7039,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>125</v>
       </c>
@@ -6913,7 +7053,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -6927,7 +7067,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>23</v>
       </c>
@@ -6958,17 +7098,17 @@
       <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6988,7 +7128,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -7008,7 +7148,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>116</v>
       </c>
@@ -7028,7 +7168,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7042,7 +7182,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -7062,7 +7202,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7076,7 +7216,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7090,7 +7230,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -7104,7 +7244,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>463</v>
       </c>
@@ -7124,7 +7264,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7138,7 +7278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>619</v>
       </c>
@@ -7158,7 +7298,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -7178,7 +7318,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7192,7 +7332,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -7212,7 +7352,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7226,7 +7366,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -7240,7 +7380,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>136</v>
       </c>
@@ -7257,7 +7397,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>437</v>
       </c>
@@ -7268,7 +7408,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>76</v>
       </c>
@@ -7288,7 +7428,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7302,7 +7442,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -7316,7 +7456,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -7330,7 +7470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>22</v>
       </c>
@@ -7344,7 +7484,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -7364,7 +7504,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -7384,7 +7524,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7398,7 +7538,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -7412,7 +7552,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -7426,7 +7566,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -7440,7 +7580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>155</v>
       </c>
@@ -7460,7 +7600,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -7480,7 +7620,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -7494,7 +7634,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -7508,7 +7648,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -7528,7 +7668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -7548,7 +7688,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>181</v>
       </c>
@@ -7568,7 +7708,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -7582,7 +7722,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>85</v>
       </c>
@@ -7602,7 +7742,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>88</v>
       </c>
@@ -7622,7 +7762,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>133</v>
       </c>
@@ -7642,7 +7782,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7656,7 +7796,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7670,7 +7810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>115</v>
       </c>
@@ -7690,7 +7830,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7721,17 +7861,17 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7751,7 +7891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -7771,7 +7911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>175</v>
       </c>
@@ -7791,7 +7931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -7811,7 +7951,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>463</v>
       </c>
@@ -7831,7 +7971,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>581</v>
       </c>
@@ -7851,7 +7991,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -7865,7 +8005,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>586</v>
       </c>
@@ -7885,7 +8025,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -7905,7 +8045,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>85</v>
       </c>
@@ -7925,7 +8065,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -7939,7 +8079,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -7953,7 +8093,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -7973,7 +8113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>380</v>
       </c>
@@ -7993,7 +8133,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8013,7 +8153,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>42</v>
       </c>
@@ -8040,21 +8180,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8074,7 +8214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>592</v>
       </c>
@@ -8094,7 +8234,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -8114,7 +8254,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>593</v>
       </c>
@@ -8134,7 +8274,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>581</v>
       </c>
@@ -8154,7 +8294,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -8174,7 +8314,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -8188,7 +8328,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>310</v>
       </c>
@@ -8208,7 +8348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8222,7 +8362,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -8236,7 +8376,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -8250,7 +8390,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>76</v>
       </c>
@@ -8270,7 +8410,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8284,7 +8424,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>100</v>
       </c>
@@ -8304,7 +8444,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -8318,7 +8458,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -8332,7 +8472,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>604</v>
       </c>
@@ -8352,7 +8492,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -8366,7 +8506,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -8380,7 +8520,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>22</v>
       </c>
@@ -8394,7 +8534,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -8414,7 +8554,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -8428,7 +8568,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8442,7 +8582,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8456,7 +8596,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>79</v>
       </c>
@@ -8476,7 +8616,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -8490,7 +8630,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8504,7 +8644,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>607</v>
       </c>
@@ -8524,7 +8664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -8538,7 +8678,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>179</v>
       </c>
@@ -8558,7 +8698,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8572,7 +8712,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>612</v>
       </c>
@@ -8592,7 +8732,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>85</v>
       </c>
@@ -8612,7 +8752,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -8626,7 +8766,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -8640,7 +8780,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>619</v>
       </c>
@@ -8660,7 +8800,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -8674,7 +8814,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>620</v>
       </c>
@@ -8691,7 +8831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>577</v>
       </c>
@@ -8714,23 +8854,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E42" activeCellId="13" sqref="E2 E10 E13 E15 E17 E19 E21 E27 E29 E31 E33 E36 E39 E42"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8750,7 +8890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8770,7 +8910,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>625</v>
       </c>
@@ -8790,7 +8930,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -8804,7 +8944,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -8818,9 +8958,9 @@
         <v>629</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>630</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
         <v>576</v>
@@ -8832,7 +8972,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -8846,7 +8986,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>619</v>
       </c>
@@ -8857,16 +8997,16 @@
         <v>58</v>
       </c>
       <c r="D10" t="s">
+        <v>630</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
         <v>631</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>96</v>
       </c>
@@ -8877,7 +9017,7 @@
         <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>16</v>
@@ -8886,7 +9026,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -8900,9 +9040,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B15" t="s">
         <v>13</v>
@@ -8911,16 +9051,16 @@
         <v>42</v>
       </c>
       <c r="D15" t="s">
+        <v>634</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>635</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F15" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>76</v>
       </c>
@@ -8931,7 +9071,7 @@
         <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>17</v>
@@ -8940,7 +9080,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>100</v>
       </c>
@@ -8951,7 +9091,7 @@
         <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>17</v>
@@ -8960,7 +9100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>380</v>
       </c>
@@ -8971,7 +9111,7 @@
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>17</v>
@@ -8980,7 +9120,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -8991,7 +9131,7 @@
         <v>58</v>
       </c>
       <c r="D23" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>16</v>
@@ -9000,7 +9140,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -9011,15 +9151,15 @@
         <v>16</v>
       </c>
       <c r="F24" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
         <v>641</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" t="s">
-        <v>642</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>16</v>
@@ -9028,12 +9168,12 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E26" s="6" t="s">
         <v>16</v>
@@ -9042,7 +9182,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -9056,9 +9196,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B29" t="s">
         <v>80</v>
@@ -9067,7 +9207,7 @@
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E29" s="7" t="s">
         <v>17</v>
@@ -9076,7 +9216,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>79</v>
       </c>
@@ -9087,16 +9227,16 @@
         <v>58</v>
       </c>
       <c r="D31" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F31" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>156</v>
       </c>
@@ -9116,9 +9256,9 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B35" t="s">
         <v>31</v>
@@ -9127,30 +9267,30 @@
         <v>42</v>
       </c>
       <c r="D35" t="s">
+        <v>647</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
         <v>648</v>
       </c>
-      <c r="E35" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35" t="s">
+      <c r="E36" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" t="s">
-        <v>649</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F36" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>181</v>
       </c>
@@ -9161,7 +9301,7 @@
         <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E38" s="6" t="s">
         <v>16</v>
@@ -9170,12 +9310,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>17</v>
@@ -9184,7 +9324,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>604</v>
       </c>
@@ -9204,7 +9344,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -9215,7 +9355,103 @@
         <v>17</v>
       </c>
       <c r="F42" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>654</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" t="s">
+        <v>642</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>655</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>657</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>658</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" t="s">
+        <v>659</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D49" t="s">
+        <v>660</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50" t="s">
+        <v>618</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F50" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -9225,27 +9461,562 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F38E3E-41FB-4066-8C0A-F4C286F74CD0}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>665</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" t="s">
+        <v>666</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>667</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>668</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" t="s">
+        <v>669</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>670</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>673</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" t="s">
+        <v>674</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>616</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>669</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>619</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>647</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>675</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>633</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>676</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" t="s">
+        <v>677</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>681</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>682</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="9"/>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>683</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9"/>
+      <c r="C27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" t="s">
+        <v>684</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="9"/>
+      <c r="C28" t="s">
+        <v>22</v>
+      </c>
+      <c r="D28" t="s">
+        <v>685</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="9"/>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>686</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>687</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>688</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>690</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>691</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>689</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" t="s">
+        <v>138</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" t="s">
+        <v>669</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" t="s">
+        <v>694</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D42" t="s">
+        <v>655</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -9265,7 +10036,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -9282,11 +10053,11 @@
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F17" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F18" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -9307,7 +10078,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -9328,7 +10099,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -9349,7 +10120,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -9370,7 +10141,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -9391,7 +10162,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -9412,7 +10183,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -9433,7 +10204,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -9454,7 +10225,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -9475,7 +10246,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -9496,7 +10267,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -9517,7 +10288,7 @@
         <v>0.48648648648648651</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -9538,7 +10309,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -9559,7 +10330,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -9580,79 +10351,100 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2022</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E17">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="5">
         <f t="shared" si="0"/>
-        <v>-7.6923076923076927E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
+        <v>0.11764705882352941</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2023</v>
+      </c>
+      <c r="B18">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>14</v>
+      </c>
+      <c r="E18">
+        <v>11</v>
+      </c>
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="3">
-        <f>SUM(B2:B17)</f>
-        <v>246</v>
-      </c>
-      <c r="C18" s="3">
-        <f>SUM(C2:C17)</f>
+      <c r="B19" s="3">
+        <f>SUM(B2:B18)</f>
+        <v>260</v>
+      </c>
+      <c r="C19" s="3">
+        <f>SUM(C2:C18)</f>
         <v>7</v>
       </c>
-      <c r="D18" s="3">
-        <f>SUM(D2:D17)</f>
-        <v>331</v>
-      </c>
-      <c r="E18" s="3">
-        <f>SUM(E2:E17)</f>
-        <v>237</v>
-      </c>
-      <c r="F18" s="4">
-        <f>(D18-E18)/D18</f>
-        <v>0.28398791540785501</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B19" s="3">
-        <f>AVERAGE(B2:B17)</f>
-        <v>15.375</v>
-      </c>
-      <c r="C19" s="3">
-        <f>AVERAGE(C2:C17)</f>
-        <v>0.4375</v>
-      </c>
       <c r="D19" s="3">
-        <f>AVERAGE(D2:D17)</f>
-        <v>20.6875</v>
+        <f>SUM(D2:D18)</f>
+        <v>349</v>
       </c>
       <c r="E19" s="3">
-        <f>AVERAGE(E2:E17)</f>
-        <v>14.8125</v>
+        <f>SUM(E2:E18)</f>
+        <v>249</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28398791540785501</v>
+        <v>0.28653295128939826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B20" s="3">
+        <f>AVERAGE(B2:B18)</f>
+        <v>15.294117647058824</v>
+      </c>
+      <c r="C20" s="3">
+        <f>AVERAGE(C2:C18)</f>
+        <v>0.41176470588235292</v>
+      </c>
+      <c r="D20" s="3">
+        <f>AVERAGE(D2:D18)</f>
+        <v>20.529411764705884</v>
+      </c>
+      <c r="E20" s="3">
+        <f>AVERAGE(E2:E18)</f>
+        <v>14.647058823529411</v>
+      </c>
+      <c r="F20" s="4">
+        <f>(D20-E20)/D20</f>
+        <v>0.28653295128939837</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F17">
+  <conditionalFormatting sqref="F2:F18">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -9677,17 +10469,17 @@
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9707,7 +10499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>191</v>
       </c>
@@ -9727,7 +10519,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -9741,7 +10533,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -9755,7 +10547,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -9769,8 +10561,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>197</v>
       </c>
@@ -9790,7 +10582,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -9804,7 +10596,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>96</v>
       </c>
@@ -9824,7 +10616,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>201</v>
       </c>
@@ -9844,7 +10636,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>203</v>
       </c>
@@ -9864,7 +10656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -9878,7 +10670,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -9892,7 +10684,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>207</v>
       </c>
@@ -9912,7 +10704,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -9926,7 +10718,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -9940,7 +10732,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -9954,7 +10746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>212</v>
       </c>
@@ -9974,7 +10766,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -9988,7 +10780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -10002,7 +10794,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>216</v>
       </c>
@@ -10022,7 +10814,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -10036,7 +10828,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -10050,7 +10842,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>221</v>
       </c>
@@ -10070,7 +10862,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -10084,7 +10876,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>85</v>
       </c>
@@ -10104,7 +10896,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -10118,7 +10910,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>228</v>
       </c>
@@ -10156,17 +10948,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10186,7 +10978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>231</v>
       </c>
@@ -10206,7 +10998,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>232</v>
       </c>
@@ -10226,7 +11018,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -10240,7 +11032,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>96</v>
       </c>
@@ -10260,7 +11052,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>237</v>
       </c>
@@ -10280,7 +11072,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>32</v>
       </c>
@@ -10294,7 +11086,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>85</v>
       </c>
@@ -10332,17 +11124,17 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10362,7 +11154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>241</v>
       </c>
@@ -10382,7 +11174,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>244</v>
       </c>
@@ -10402,7 +11194,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -10416,7 +11208,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -10430,7 +11222,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>249</v>
       </c>
@@ -10450,7 +11242,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -10464,7 +11256,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>253</v>
       </c>
@@ -10484,7 +11276,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -10498,7 +11290,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -10512,7 +11304,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>231</v>
       </c>
@@ -10532,7 +11324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>619</v>
       </c>
@@ -10552,7 +11344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -10566,7 +11358,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -10580,7 +11372,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -10594,7 +11386,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -10614,7 +11406,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>263</v>
       </c>
@@ -10634,7 +11426,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>265</v>
       </c>
@@ -10654,7 +11446,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -10668,7 +11460,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -10682,7 +11474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -10696,7 +11488,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -10710,7 +11502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>271</v>
       </c>
@@ -10730,7 +11522,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -10744,7 +11536,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -10758,7 +11550,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -10772,7 +11564,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>120</v>
       </c>
@@ -10792,7 +11584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -10806,7 +11598,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>276</v>
       </c>
@@ -10826,7 +11618,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -10840,7 +11632,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -10854,7 +11646,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>85</v>
       </c>
@@ -10874,7 +11666,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -10888,7 +11680,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>281</v>
       </c>
@@ -10908,7 +11700,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -10922,7 +11714,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>19</v>
       </c>
@@ -10936,7 +11728,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>284</v>
       </c>
@@ -10956,7 +11748,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -10970,7 +11762,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -10984,7 +11776,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>288</v>
       </c>
@@ -11004,7 +11796,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -11018,7 +11810,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -11032,7 +11824,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -11046,7 +11838,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>295</v>
       </c>
@@ -11084,17 +11876,17 @@
       <selection activeCell="D71" sqref="D71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11114,7 +11906,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -11134,7 +11926,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -11154,7 +11946,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -11168,7 +11960,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>249</v>
       </c>
@@ -11188,8 +11980,8 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>304</v>
       </c>
@@ -11209,7 +12001,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>619</v>
       </c>
@@ -11229,7 +12021,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -11243,7 +12035,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -11263,7 +12055,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -11277,7 +12069,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -11291,7 +12083,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>310</v>
       </c>
@@ -11311,7 +12103,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -11325,7 +12117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -11339,7 +12131,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -11359,7 +12151,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -11373,7 +12165,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -11387,7 +12179,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>99</v>
       </c>
@@ -11407,7 +12199,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -11421,7 +12213,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -11435,7 +12227,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -11449,7 +12241,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -11463,7 +12255,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>76</v>
       </c>
@@ -11483,7 +12275,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>325</v>
       </c>
@@ -11503,7 +12295,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -11517,7 +12309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -11531,7 +12323,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -11545,7 +12337,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -11559,7 +12351,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -11579,7 +12371,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -11593,7 +12385,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -11607,7 +12399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -11621,7 +12413,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>333</v>
       </c>
@@ -11641,7 +12433,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -11655,7 +12447,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -11669,7 +12461,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>142</v>
       </c>
@@ -11689,7 +12481,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>79</v>
       </c>
@@ -11709,7 +12501,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>33</v>
       </c>
@@ -11723,7 +12515,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>221</v>
       </c>
@@ -11743,7 +12535,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>156</v>
       </c>
@@ -11763,7 +12555,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>276</v>
       </c>
@@ -11783,7 +12575,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -11797,7 +12589,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -11811,7 +12603,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -11825,7 +12617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>181</v>
       </c>
@@ -11845,7 +12637,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>84</v>
       </c>
@@ -11865,7 +12657,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>33</v>
       </c>
@@ -11879,7 +12671,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -11893,7 +12685,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>85</v>
       </c>
@@ -11913,7 +12705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>42</v>
       </c>
@@ -11927,7 +12719,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -11959,17 +12751,17 @@
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11989,7 +12781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -12009,7 +12801,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>92</v>
       </c>
@@ -12029,7 +12821,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -12049,7 +12841,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -12063,8 +12855,8 @@
         <v>357</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>358</v>
       </c>
@@ -12084,7 +12876,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>619</v>
       </c>
@@ -12104,7 +12896,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -12118,7 +12910,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -12138,7 +12930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -12152,7 +12944,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -12166,7 +12958,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>42</v>
       </c>
@@ -12180,7 +12972,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -12194,7 +12986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>310</v>
       </c>
@@ -12214,7 +13006,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>369</v>
       </c>
@@ -12234,7 +13026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>99</v>
       </c>
@@ -12254,7 +13046,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -12268,7 +13060,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>48</v>
       </c>
@@ -12282,7 +13074,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -12296,7 +13088,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>76</v>
       </c>
@@ -12316,7 +13108,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>100</v>
       </c>
@@ -12336,7 +13128,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -12350,7 +13142,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>42</v>
       </c>
@@ -12364,7 +13156,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -12378,7 +13170,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>380</v>
       </c>
@@ -12398,7 +13190,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -12412,7 +13204,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -12426,7 +13218,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -12440,7 +13232,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -12460,7 +13252,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>42</v>
       </c>
@@ -12474,7 +13266,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -12488,7 +13280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -12502,7 +13294,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>79</v>
       </c>
@@ -12522,7 +13314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -12536,7 +13328,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -12550,7 +13342,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>391</v>
       </c>
@@ -12570,7 +13362,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>276</v>
       </c>
@@ -12590,7 +13382,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -12610,7 +13402,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -12624,7 +13416,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -12638,7 +13430,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -12652,7 +13444,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -12672,7 +13464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -12686,7 +13478,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -12700,7 +13492,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -12720,7 +13512,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -12734,7 +13526,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>85</v>
       </c>
@@ -12754,7 +13546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>42</v>
       </c>
@@ -12768,7 +13560,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -12800,17 +13592,17 @@
       <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12830,7 +13622,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -12850,7 +13642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -12864,7 +13656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -12878,7 +13670,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>92</v>
       </c>
@@ -12898,7 +13690,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -12912,7 +13704,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -12926,7 +13718,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -12940,8 +13732,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -12961,7 +13753,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -12975,7 +13767,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -12989,7 +13781,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -13003,7 +13795,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -13017,7 +13809,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -13031,7 +13823,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>109</v>
       </c>
@@ -13051,7 +13843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -13065,7 +13857,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>112</v>
       </c>
@@ -13085,7 +13877,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>619</v>
       </c>
@@ -13105,7 +13897,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>96</v>
       </c>
@@ -13125,7 +13917,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -13139,7 +13931,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -13153,7 +13945,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>310</v>
       </c>
@@ -13173,7 +13965,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>136</v>
       </c>
@@ -13190,7 +13982,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>76</v>
       </c>
@@ -13210,7 +14002,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>100</v>
       </c>
@@ -13230,7 +14022,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -13244,7 +14036,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -13258,7 +14050,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>416</v>
       </c>
@@ -13278,7 +14070,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -13292,7 +14084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -13306,7 +14098,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -13326,7 +14118,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -13340,7 +14132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -13354,7 +14146,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -13368,7 +14160,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>79</v>
       </c>
@@ -13388,7 +14180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>42</v>
       </c>
@@ -13402,7 +14194,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -13416,7 +14208,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -13430,7 +14222,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -13444,7 +14236,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>156</v>
       </c>
@@ -13464,7 +14256,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>179</v>
       </c>
@@ -13484,7 +14276,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -13498,7 +14290,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -13512,7 +14304,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>181</v>
       </c>
@@ -13532,7 +14324,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -13546,7 +14338,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -13560,7 +14352,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>84</v>
       </c>
@@ -13580,7 +14372,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>14</v>
       </c>
@@ -13594,7 +14386,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -13608,7 +14400,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>85</v>
       </c>
@@ -13628,7 +14420,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>42</v>
       </c>
@@ -13642,7 +14434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -13656,7 +14448,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>14</v>
       </c>
@@ -13670,7 +14462,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>88</v>
       </c>
@@ -13690,7 +14482,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -13704,7 +14496,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>115</v>
       </c>
@@ -13724,7 +14516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -13738,7 +14530,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>14</v>
       </c>
@@ -13752,7 +14544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>433</v>
       </c>
@@ -13772,7 +14564,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -13786,7 +14578,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -13800,7 +14592,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>436</v>
       </c>
@@ -13820,7 +14612,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>14</v>
       </c>
@@ -13834,7 +14626,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>19</v>
       </c>
@@ -13866,17 +14658,17 @@
       <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13896,7 +14688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -13916,7 +14708,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -13930,7 +14722,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -13944,7 +14736,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -13958,7 +14750,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>109</v>
       </c>
@@ -13978,7 +14770,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>619</v>
       </c>
@@ -13998,7 +14790,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -14012,7 +14804,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -14026,7 +14818,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -14040,7 +14832,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>96</v>
       </c>
@@ -14060,7 +14852,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -14074,7 +14866,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>310</v>
       </c>
@@ -14094,7 +14886,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>444</v>
       </c>
@@ -14114,7 +14906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>136</v>
       </c>
@@ -14131,7 +14923,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>446</v>
       </c>
@@ -14142,7 +14934,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>76</v>
       </c>
@@ -14162,7 +14954,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -14176,7 +14968,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -14190,7 +14982,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>100</v>
       </c>
@@ -14210,7 +15002,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -14224,7 +15016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>380</v>
       </c>
@@ -14244,7 +15036,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>450</v>
       </c>
@@ -14264,7 +15056,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -14278,7 +15070,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -14292,7 +15084,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -14306,7 +15098,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>142</v>
       </c>
@@ -14326,7 +15118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -14340,7 +15132,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -14354,7 +15146,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -14374,7 +15166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -14388,7 +15180,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -14408,7 +15200,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>156</v>
       </c>
@@ -14428,7 +15220,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>179</v>
       </c>
@@ -14448,7 +15240,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -14462,7 +15254,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>181</v>
       </c>
@@ -14482,7 +15274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -14496,7 +15288,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -14510,7 +15302,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>85</v>
       </c>
@@ -14530,7 +15322,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>42</v>
       </c>
@@ -14544,7 +15336,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>461</v>
       </c>
@@ -14577,21 +15369,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A40" workbookViewId="0">
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14611,7 +15403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>90</v>
       </c>
@@ -14631,7 +15423,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -14645,7 +15437,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>92</v>
       </c>
@@ -14665,7 +15457,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -14679,7 +15471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -14699,7 +15491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>463</v>
       </c>
@@ -14719,7 +15511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>619</v>
       </c>
@@ -14739,7 +15531,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -14753,7 +15545,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -14767,7 +15559,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -14781,7 +15573,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>96</v>
       </c>
@@ -14801,7 +15593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -14815,7 +15607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -14829,7 +15621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -14843,7 +15635,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -14857,7 +15649,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>310</v>
       </c>
@@ -14877,7 +15669,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -14891,7 +15683,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -14911,7 +15703,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -14925,7 +15717,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
@@ -14945,7 +15737,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>380</v>
       </c>
@@ -14965,7 +15757,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -14979,7 +15771,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -14993,7 +15785,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -15007,7 +15799,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -15027,7 +15819,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -15041,7 +15833,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -15055,7 +15847,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -15069,7 +15861,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>155</v>
       </c>
@@ -15089,7 +15881,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -15103,7 +15895,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -15117,7 +15909,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -15131,7 +15923,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -15145,7 +15937,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -15165,7 +15957,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -15179,7 +15971,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -15193,7 +15985,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>156</v>
       </c>
@@ -15213,7 +16005,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -15227,7 +16019,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -15241,7 +16033,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -15255,7 +16047,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -15269,7 +16061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>179</v>
       </c>
@@ -15289,7 +16081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>181</v>
       </c>
@@ -15309,7 +16101,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -15323,7 +16115,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -15337,7 +16129,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>85</v>
       </c>
@@ -15357,7 +16149,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>485</v>
       </c>
@@ -15377,7 +16169,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>14</v>
       </c>
@@ -15391,7 +16183,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>19</v>
       </c>
@@ -15405,7 +16197,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>133</v>
       </c>
@@ -15425,7 +16217,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -15439,7 +16231,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>115</v>
       </c>
@@ -15459,7 +16251,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -15473,7 +16265,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>436</v>
       </c>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8186" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4FFEFF6-3C1D-4164-9C9A-E4D0980C1CA3}"/>
+  <xr:revisionPtr revIDLastSave="8197" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68840A00-2803-44F7-BA10-DDE51AB79E41}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="697">
   <si>
     <t>ROUND</t>
   </si>
@@ -2140,6 +2140,9 @@
   </si>
   <si>
     <t>6-0 6-4</t>
+  </si>
+  <si>
+    <t>Rebecca Peterson (SWEDEN)</t>
   </si>
 </sst>
 </file>
@@ -2505,7 +2508,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2655,7 +2658,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>12</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3209,7 +3212,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.29411764705882354</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4698,10 +4701,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9472,10 +9471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E42" activeCellId="11" sqref="E2 E4 E6 E10 E14 E16 E18 E21 E23 E32 E37 E42"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" activeCellId="13" sqref="A2 A4 A6 A8 A12 A16 A18 A20 A23 A25 A31 A34 A39 A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9994,6 +9993,40 @@
       </c>
       <c r="F42" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>696</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -10384,20 +10417,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.29411764705882354</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10406,7 +10439,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10414,15 +10447,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28977272727272729</v>
+        <v>0.28895184135977336</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10431,7 +10464,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.352941176470589</v>
+        <v>15.411764705882353</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10439,15 +10472,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>20.705882352941178</v>
+        <v>20.764705882352942</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.705882352941176</v>
+        <v>14.764705882352942</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28977272727272735</v>
+        <v>0.28895184135977336</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Soumya-Website/Tennis/WTA Tour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8189" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68EA65D1-569F-451C-9CB5-DB2524BC1896}"/>
+  <xr:revisionPtr revIDLastSave="8197" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68840A00-2803-44F7-BA10-DDE51AB79E41}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3044" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="697">
   <si>
     <t>ROUND</t>
   </si>
@@ -2121,9 +2121,6 @@
     <t>RABAT OPEN</t>
   </si>
   <si>
-    <t>Lucia Bronzetti</t>
-  </si>
-  <si>
     <t>Vera Zvonareva (RUSSIA)</t>
   </si>
   <si>
@@ -2133,10 +2130,19 @@
     <t>6-7(4) 6-3 7-6(6)</t>
   </si>
   <si>
+    <t>Lucia Bronzetti (ITALY)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ROLAND GARROS </t>
+  </si>
+  <si>
+    <t>Yulia Putintseva (KAZAKHSTAN)</t>
+  </si>
+  <si>
     <t>6-0 6-4</t>
   </si>
   <si>
-    <t>Yulia Putintseva (KAZAKHSTAN)</t>
+    <t>Rebecca Peterson (SWEDEN)</t>
   </si>
 </sst>
 </file>
@@ -2502,7 +2508,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2652,7 +2658,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3206,7 +3212,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21428571428571427</c:v>
+                  <c:v>0.27777777777777779</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8180,7 +8186,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -9465,10 +9471,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A44" activeCellId="13" sqref="A2 A4 A6 A8 A12 A16 A18 A20 A23 A25 A31 A34 A39 A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9876,7 +9882,7 @@
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E34" s="6" t="s">
         <v>16</v>
@@ -9904,13 +9910,13 @@
         <v>19</v>
       </c>
       <c r="D36" t="s">
+        <v>690</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
         <v>691</v>
-      </c>
-      <c r="E36" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
@@ -9918,7 +9924,7 @@
         <v>22</v>
       </c>
       <c r="D37" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>17</v>
@@ -9929,7 +9935,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>62</v>
+        <v>693</v>
       </c>
       <c r="B39" t="s">
         <v>13</v>
@@ -9944,7 +9950,7 @@
         <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
@@ -9987,6 +9993,40 @@
       </c>
       <c r="F42" t="s">
         <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" t="s">
+        <v>696</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>123</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" t="s">
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -10002,7 +10042,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
@@ -10377,20 +10417,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="E18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.21428571428571427</v>
+        <v>0.27777777777777779</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10399,7 +10439,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10407,15 +10447,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28653295128939826</v>
+        <v>0.28895184135977336</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10424,7 +10464,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.294117647058824</v>
+        <v>15.411764705882353</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10432,15 +10472,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>20.529411764705884</v>
+        <v>20.764705882352942</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.647058823529411</v>
+        <v>14.764705882352942</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28653295128939837</v>
+        <v>0.28895184135977336</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8197" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68840A00-2803-44F7-BA10-DDE51AB79E41}"/>
+  <xr:revisionPtr revIDLastSave="8206" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DE17BE-4FD8-4B5C-BC30-3B58E273A8F4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3054" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="698">
   <si>
     <t>ROUND</t>
   </si>
@@ -2143,6 +2143,9 @@
   </si>
   <si>
     <t>Rebecca Peterson (SWEDEN)</t>
+  </si>
+  <si>
+    <t>7-6(6) 3-6 6-1</t>
   </si>
 </sst>
 </file>
@@ -2658,7 +2661,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>13</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3212,7 +3215,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.27777777777777779</c:v>
+                  <c:v>0.22222222222222221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4701,6 +4704,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9471,10 +9478,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A44" activeCellId="13" sqref="A2 A4 A6 A8 A12 A16 A18 A20 A23 A25 A31 A34 A39 A44"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A47" activeCellId="14" sqref="A2 A4 A6 A8 A12 A16 A18 A20 A23 A25 A31 A34 A39 A44 A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10027,6 +10034,26 @@
       </c>
       <c r="F45" t="s">
         <v>549</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>665</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>697</v>
       </c>
     </row>
   </sheetData>
@@ -10417,7 +10444,7 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10426,11 +10453,11 @@
         <v>18</v>
       </c>
       <c r="E18">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.27777777777777779</v>
+        <v>0.22222222222222221</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10439,7 +10466,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10451,11 +10478,11 @@
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28895184135977336</v>
+        <v>0.28611898016997167</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10464,7 +10491,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.411764705882353</v>
+        <v>15.470588235294118</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10476,11 +10503,11 @@
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.764705882352942</v>
+        <v>14.823529411764707</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28895184135977336</v>
+        <v>0.28611898016997167</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8206" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1DE17BE-4FD8-4B5C-BC30-3B58E273A8F4}"/>
+  <xr:revisionPtr revIDLastSave="8220" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD42FB1-1B42-4565-850D-45CB6820CCE4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3060" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="700">
   <si>
     <t>ROUND</t>
   </si>
@@ -2146,6 +2146,12 @@
   </si>
   <si>
     <t>7-6(6) 3-6 6-1</t>
+  </si>
+  <si>
+    <t>Elena Rybakina (KAZAKHSTAN)</t>
+  </si>
+  <si>
+    <t>6-4 7-6(2)</t>
   </si>
 </sst>
 </file>
@@ -2511,7 +2517,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2661,7 +2667,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3215,7 +3221,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.22222222222222221</c:v>
+                  <c:v>0.21052631578947367</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8870,7 +8876,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9478,10 +9484,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A47" activeCellId="14" sqref="A2 A4 A6 A8 A12 A16 A18 A20 A23 A25 A31 A34 A39 A44 A47"/>
+      <selection activeCell="E49" activeCellId="8" sqref="E8:E9 E12:E13 E20 E25:E29 E31 E34:E36 E39:E41 E44 E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10054,6 +10060,54 @@
       </c>
       <c r="F47" t="s">
         <v>697</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>646</v>
+      </c>
+      <c r="B49" t="s">
+        <v>31</v>
+      </c>
+      <c r="C49" t="s">
+        <v>42</v>
+      </c>
+      <c r="D49" t="s">
+        <v>636</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C51" t="s">
+        <v>14</v>
+      </c>
+      <c r="D51" t="s">
+        <v>698</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F51" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -10444,20 +10498,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.22222222222222221</v>
+        <v>0.21052631578947367</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10466,7 +10520,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10474,15 +10528,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28611898016997167</v>
+        <v>0.28531073446327682</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10491,7 +10545,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.470588235294118</v>
+        <v>15.529411764705882</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10499,15 +10553,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>20.764705882352942</v>
+        <v>20.823529411764707</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.823529411764707</v>
+        <v>14.882352941176471</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28611898016997167</v>
+        <v>0.28531073446327682</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8220" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD42FB1-1B42-4565-850D-45CB6820CCE4}"/>
+  <xr:revisionPtr revIDLastSave="8237" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0811032D-A1AA-477F-85F6-65A7CA4C908E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3074" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="702">
   <si>
     <t>ROUND</t>
   </si>
@@ -2152,6 +2152,12 @@
   </si>
   <si>
     <t>6-4 7-6(2)</t>
+  </si>
+  <si>
+    <t>Elisabetta Cocciaretto (ITALY)</t>
+  </si>
+  <si>
+    <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -2517,7 +2523,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2667,7 +2673,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3221,7 +3227,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.21052631578947367</c:v>
+                  <c:v>0.23809523809523808</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9484,10 +9490,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E49" activeCellId="8" sqref="E8:E9 E12:E13 E20 E25:E29 E31 E34:E36 E39:E41 E44 E49"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A53" activeCellId="16" sqref="A2 A4 A6 A8 A12 A16 A18 A20 A23 A25 A31 A34 A39 A44 A47 A49 A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9495,7 +9501,7 @@
     <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
@@ -10108,6 +10114,54 @@
       </c>
       <c r="F51" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" t="s">
+        <v>700</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>660</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="D55" t="s">
+        <v>701</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F55" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -10498,20 +10552,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.21052631578947367</v>
+        <v>0.23809523809523808</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10520,7 +10574,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10528,15 +10582,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28531073446327682</v>
+        <v>0.28651685393258425</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10545,7 +10599,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.529411764705882</v>
+        <v>15.588235294117647</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10553,15 +10607,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>20.823529411764707</v>
+        <v>20.941176470588236</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.882352941176471</v>
+        <v>14.941176470588236</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28531073446327682</v>
+        <v>0.28651685393258425</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8237" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0811032D-A1AA-477F-85F6-65A7CA4C908E}"/>
+  <xr:revisionPtr revIDLastSave="8251" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B991E8A-938D-405D-A3ED-5FFED70098DE}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3088" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="706">
   <si>
     <t>ROUND</t>
   </si>
@@ -2158,6 +2158,18 @@
   </si>
   <si>
     <t>Markéta Vondroušová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>TENNIS IN THE LAND</t>
+  </si>
+  <si>
+    <t>Sara Sorribes Tormo</t>
+  </si>
+  <si>
+    <t>Mirra Andreeva (RUSSIA)</t>
+  </si>
+  <si>
+    <t>1-6 6-3 6-1</t>
   </si>
 </sst>
 </file>
@@ -2523,7 +2535,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>21</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2673,7 +2685,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3227,7 +3239,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.23809523809523808</c:v>
+                  <c:v>0.2608695652173913</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9490,10 +9502,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A53" activeCellId="16" sqref="A2 A4 A6 A8 A12 A16 A18 A20 A23 A25 A31 A34 A39 A44 A47 A49 A53"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E57" activeCellId="10" sqref="E8:E9 E12:E13 E20 E25:E29 E31 E34:E36 E39:E41 E44 E49 E53:E54 E57:E58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10162,6 +10174,54 @@
       </c>
       <c r="F55" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>702</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>15</v>
+      </c>
+      <c r="D57" t="s">
+        <v>665</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>704</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>19</v>
+      </c>
+      <c r="D59" t="s">
+        <v>703</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -10552,20 +10612,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.23809523809523808</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10574,7 +10634,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10582,15 +10642,15 @@
       </c>
       <c r="D19" s="3">
         <f>SUM(D2:D18)</f>
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28651685393258425</v>
+        <v>0.28770949720670391</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10599,7 +10659,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.588235294117647</v>
+        <v>15.647058823529411</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10607,15 +10667,15 @@
       </c>
       <c r="D20" s="3">
         <f>AVERAGE(D2:D18)</f>
-        <v>20.941176470588236</v>
+        <v>21.058823529411764</v>
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>14.941176470588236</v>
+        <v>15</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28651685393258425</v>
+        <v>0.28770949720670391</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8251" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B991E8A-938D-405D-A3ED-5FFED70098DE}"/>
+  <xr:revisionPtr revIDLastSave="8259" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9FA42C4-40C1-4D53-99E7-FA64CD100344}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="8" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3102" uniqueCount="706">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3108" uniqueCount="708">
   <si>
     <t>ROUND</t>
   </si>
@@ -2170,6 +2170,12 @@
   </si>
   <si>
     <t>1-6 6-3 6-1</t>
+  </si>
+  <si>
+    <t>Beatriz Haddad Maia (BRAZIL)</t>
+  </si>
+  <si>
+    <t>6-2 5-7 6-4</t>
   </si>
 </sst>
 </file>
@@ -2685,7 +2691,7 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3239,7 +3245,7 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.2608695652173913</c:v>
+                  <c:v>0.21739130434782608</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9502,10 +9508,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E57" activeCellId="10" sqref="E8:E9 E12:E13 E20 E25:E29 E31 E34:E36 E39:E41 E44 E49 E53:E54 E57:E58"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E61" activeCellId="17" sqref="E2 E4 E6 E10 E14 E16 E18 E21 E23 E32 E37 E42 E45 E47 E51 E55 E59 E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10222,6 +10228,26 @@
       </c>
       <c r="F59" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>58</v>
+      </c>
+      <c r="D61" t="s">
+        <v>706</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
@@ -10612,7 +10638,7 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>0</v>
@@ -10621,11 +10647,11 @@
         <v>23</v>
       </c>
       <c r="E18">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.2608695652173913</v>
+        <v>0.21739130434782608</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
@@ -10634,7 +10660,7 @@
       </c>
       <c r="B19" s="3">
         <f>SUM(B2:B18)</f>
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C19" s="3">
         <f>SUM(C2:C18)</f>
@@ -10646,11 +10672,11 @@
       </c>
       <c r="E19" s="3">
         <f>SUM(E2:E18)</f>
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F19" s="4">
         <f>(D19-E19)/D19</f>
-        <v>0.28770949720670391</v>
+        <v>0.28491620111731841</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -10659,7 +10685,7 @@
       </c>
       <c r="B20" s="3">
         <f>AVERAGE(B2:B18)</f>
-        <v>15.647058823529411</v>
+        <v>15.705882352941176</v>
       </c>
       <c r="C20" s="3">
         <f>AVERAGE(C2:C18)</f>
@@ -10671,11 +10697,11 @@
       </c>
       <c r="E20" s="3">
         <f>AVERAGE(E2:E18)</f>
-        <v>15</v>
+        <v>15.058823529411764</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28770949720670391</v>
+        <v>0.28491620111731841</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8274" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBEA02F7-99D0-4E3D-B01F-79B4922E7122}"/>
+  <xr:revisionPtr revIDLastSave="8275" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E9BFAD4-FCC4-402D-B614-97F5F5DDD216}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="17" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -4651,7 +4651,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B6B17B0E-5A3B-4095-8C5C-2CD92820ABBD}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4663,7 +4663,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9E581842-E1DA-4169-9A35-6C9AB1C1BC16}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4735,10 +4735,6 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5043,21 +5039,21 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5077,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -5097,7 +5093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5111,7 +5107,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -5131,7 +5127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -5145,10 +5141,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5162,21 +5158,21 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5196,7 +5192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5216,7 +5212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5230,7 +5226,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -5244,7 +5240,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5258,7 +5254,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -5272,7 +5268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5292,7 +5288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -5309,7 +5305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5329,7 +5325,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -5343,7 +5339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5357,7 +5353,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -5371,7 +5367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -5385,7 +5381,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -5405,7 +5401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -5425,7 +5421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>632</v>
       </c>
@@ -5445,7 +5441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -5473,7 +5469,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>22</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -5501,7 +5497,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>708</v>
       </c>
@@ -5521,7 +5517,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -5535,7 +5531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -5555,7 +5551,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5565,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5589,7 +5585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -5603,7 +5599,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -5617,7 +5613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -5637,7 +5633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -5651,7 +5647,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5661,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -5685,7 +5681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -5705,7 +5701,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>512</v>
       </c>
@@ -5738,21 +5734,21 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5772,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5792,7 +5788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -5812,7 +5808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -5832,7 +5828,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -5846,7 +5842,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5860,7 +5856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -5874,7 +5870,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -5888,7 +5884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -5908,7 +5904,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5922,7 +5918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -5936,7 +5932,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -5950,7 +5946,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -5964,7 +5960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -5984,7 +5980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -5998,7 +5994,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -6012,7 +6008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6026,7 +6022,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -6040,7 +6036,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -6054,7 +6050,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -6068,7 +6064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -6088,7 +6084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -6108,7 +6104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>527</v>
       </c>
@@ -6128,7 +6124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>124</v>
       </c>
@@ -6142,7 +6138,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -6159,7 +6155,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>530</v>
       </c>
@@ -6189,21 +6185,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6223,7 +6219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6243,7 +6239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6263,7 +6259,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -6283,7 +6279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6297,7 +6293,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -6311,7 +6307,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -6331,7 +6327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -6345,7 +6341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -6365,7 +6361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -6379,7 +6375,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6393,7 +6389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -6407,7 +6403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -6421,7 +6417,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -6435,7 +6431,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6452,7 +6448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>363</v>
       </c>
@@ -6463,7 +6459,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -6483,7 +6479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>708</v>
       </c>
@@ -6503,7 +6499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -6517,7 +6513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6531,7 +6527,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -6551,7 +6547,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6565,7 +6561,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6579,7 +6575,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>540</v>
       </c>
@@ -6599,7 +6595,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -6619,7 +6615,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -6633,7 +6629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6647,7 +6643,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -6661,7 +6657,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -6675,7 +6671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -6689,7 +6685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -6703,7 +6699,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -6723,7 +6719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -6743,7 +6739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -6757,7 +6753,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -6777,7 +6773,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -6791,7 +6787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -6805,7 +6801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -6819,7 +6815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>23</v>
       </c>
@@ -6833,7 +6829,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -6853,7 +6849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -6867,7 +6863,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -6887,7 +6883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>42</v>
       </c>
@@ -6901,7 +6897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6915,7 +6911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -6929,7 +6925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -6943,7 +6939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -6963,7 +6959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -6983,7 +6979,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -7003,7 +6999,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -7017,7 +7013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>14</v>
       </c>
@@ -7031,7 +7027,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -7051,7 +7047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -7071,7 +7067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>124</v>
       </c>
@@ -7085,7 +7081,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>124</v>
       </c>
@@ -7099,7 +7095,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -7113,7 +7109,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>23</v>
       </c>
@@ -7140,21 +7136,21 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7174,7 +7170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7194,7 +7190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -7214,7 +7210,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7228,7 +7224,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -7248,7 +7244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7262,7 +7258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7276,7 +7272,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -7290,7 +7286,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -7310,7 +7306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7324,7 +7320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>618</v>
       </c>
@@ -7344,7 +7340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7364,7 +7360,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7378,7 +7374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -7398,7 +7394,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7412,7 +7408,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -7426,7 +7422,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -7443,7 +7439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>436</v>
       </c>
@@ -7454,7 +7450,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>708</v>
       </c>
@@ -7474,7 +7470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7488,7 +7484,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -7502,7 +7498,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -7516,7 +7512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>22</v>
       </c>
@@ -7530,7 +7526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -7550,7 +7546,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -7570,7 +7566,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7584,7 +7580,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -7598,7 +7594,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -7612,7 +7608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -7626,7 +7622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -7646,7 +7642,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -7666,7 +7662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -7680,7 +7676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -7694,7 +7690,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -7714,7 +7710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7734,7 +7730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -7754,7 +7750,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -7768,7 +7764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -7788,7 +7784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7808,7 +7804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -7828,7 +7824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7842,7 +7838,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7856,7 +7852,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -7876,7 +7872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7903,21 +7899,21 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7937,7 +7933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7957,7 +7953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -7977,7 +7973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -7997,7 +7993,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>462</v>
       </c>
@@ -8017,7 +8013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>580</v>
       </c>
@@ -8037,7 +8033,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -8051,7 +8047,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>585</v>
       </c>
@@ -8071,7 +8067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -8091,7 +8087,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -8111,7 +8107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -8125,7 +8121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8139,7 +8135,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8159,7 +8155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -8179,7 +8175,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8199,7 +8195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>42</v>
       </c>
@@ -8226,21 +8222,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8260,7 +8256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>591</v>
       </c>
@@ -8280,7 +8276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -8300,7 +8296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>592</v>
       </c>
@@ -8320,7 +8316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -8340,7 +8336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -8360,7 +8356,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -8374,7 +8370,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>309</v>
       </c>
@@ -8394,7 +8390,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8408,7 +8404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>708</v>
       </c>
@@ -8456,7 +8452,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8470,7 +8466,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8490,7 +8486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -8504,7 +8500,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -8518,7 +8514,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>603</v>
       </c>
@@ -8538,7 +8534,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -8552,7 +8548,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -8566,7 +8562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>22</v>
       </c>
@@ -8580,7 +8576,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -8600,7 +8596,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -8614,7 +8610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8628,7 +8624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8642,7 +8638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -8662,7 +8658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -8676,7 +8672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8690,7 +8686,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>606</v>
       </c>
@@ -8710,7 +8706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -8724,7 +8720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -8744,7 +8740,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8758,7 +8754,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>611</v>
       </c>
@@ -8778,7 +8774,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -8798,7 +8794,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -8812,7 +8808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -8826,7 +8822,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>618</v>
       </c>
@@ -8846,7 +8842,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -8860,7 +8856,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>619</v>
       </c>
@@ -8877,7 +8873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>576</v>
       </c>
@@ -8902,21 +8898,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8936,7 +8932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8956,7 +8952,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>624</v>
       </c>
@@ -8976,7 +8972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -8990,7 +8986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -9004,7 +9000,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -9018,7 +9014,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -9032,7 +9028,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -9052,7 +9048,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -9072,7 +9068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -9086,7 +9082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>632</v>
       </c>
@@ -9106,7 +9102,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>708</v>
       </c>
@@ -9126,7 +9122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -9146,7 +9142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -9166,7 +9162,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -9186,7 +9182,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -9200,7 +9196,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9214,7 +9210,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -9228,7 +9224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -9242,7 +9238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>642</v>
       </c>
@@ -9262,7 +9258,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -9282,7 +9278,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -9302,7 +9298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>645</v>
       </c>
@@ -9322,7 +9318,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -9336,7 +9332,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -9356,7 +9352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9370,7 +9366,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>603</v>
       </c>
@@ -9390,7 +9386,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -9404,7 +9400,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>653</v>
       </c>
@@ -9424,7 +9420,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -9438,7 +9434,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>656</v>
       </c>
@@ -9458,7 +9454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -9472,7 +9468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -9486,7 +9482,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9513,21 +9509,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" activeCellId="6" sqref="A2 A4 A6 A8 A12 A16 A19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9547,7 +9543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -9567,7 +9563,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>91</v>
       </c>
@@ -9587,7 +9583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
@@ -9607,7 +9603,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>666</v>
       </c>
@@ -9627,7 +9623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -9641,7 +9637,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -9655,7 +9651,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -9675,7 +9671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -9689,7 +9685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -9703,7 +9699,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>618</v>
       </c>
@@ -9723,7 +9719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -9743,7 +9739,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>632</v>
       </c>
@@ -9763,7 +9759,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -9777,7 +9773,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>708</v>
       </c>
@@ -9797,7 +9793,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>680</v>
       </c>
@@ -9817,7 +9813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="C26" t="s">
         <v>14</v>
@@ -9832,7 +9828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="C27" t="s">
         <v>19</v>
@@ -9847,7 +9843,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="C28" t="s">
         <v>22</v>
@@ -9862,7 +9858,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="C29" t="s">
         <v>23</v>
@@ -9877,7 +9873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -9897,7 +9893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>42</v>
       </c>
@@ -9911,7 +9907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>687</v>
       </c>
@@ -9931,7 +9927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -9945,7 +9941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -9959,7 +9955,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -9973,7 +9969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>692</v>
       </c>
@@ -9993,7 +9989,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>42</v>
       </c>
@@ -10007,7 +10003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10021,7 +10017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10035,7 +10031,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -10055,7 +10051,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>42</v>
       </c>
@@ -10069,7 +10065,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -10089,7 +10085,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>645</v>
       </c>
@@ -10109,7 +10105,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10123,7 +10119,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -10137,7 +10133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -10157,7 +10153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +10167,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -10185,7 +10181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -10205,7 +10201,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10219,7 +10215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -10233,7 +10229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -10253,7 +10249,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>653</v>
       </c>
@@ -10273,7 +10269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -10301,20 +10297,20 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10334,7 +10330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -10355,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -10376,7 +10372,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -10397,7 +10393,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -10418,7 +10414,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -10439,7 +10435,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -10460,7 +10456,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -10481,7 +10477,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -10502,7 +10498,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -10523,7 +10519,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -10544,7 +10540,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -10565,7 +10561,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -10586,7 +10582,7 @@
         <v>0.48648648648648651</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -10607,7 +10603,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -10628,7 +10624,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -10649,7 +10645,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -10670,7 +10666,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -10691,7 +10687,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -10716,7 +10712,7 @@
         <v>0.28412256267409469</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -10763,21 +10759,21 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10797,7 +10793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -10817,7 +10813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -10831,7 +10827,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10845,7 +10841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -10859,8 +10855,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -10880,7 +10876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -10894,7 +10890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -10914,7 +10910,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -10934,7 +10930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -10954,7 +10950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10968,7 +10964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -10982,7 +10978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -11002,7 +10998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -11016,7 +11012,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -11030,7 +11026,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -11044,7 +11040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -11064,7 +11060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -11078,7 +11074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -11092,7 +11088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -11112,7 +11108,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -11126,7 +11122,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -11140,7 +11136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -11160,7 +11156,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -11174,7 +11170,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -11194,7 +11190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11208,7 +11204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>227</v>
       </c>
@@ -11242,21 +11238,21 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11276,7 +11272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -11296,7 +11292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -11316,7 +11312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -11330,7 +11326,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -11350,7 +11346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -11370,7 +11366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>32</v>
       </c>
@@ -11384,7 +11380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -11418,21 +11414,21 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11452,7 +11448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -11472,7 +11468,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -11492,7 +11488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -11506,7 +11502,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -11520,7 +11516,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -11540,7 +11536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -11554,7 +11550,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -11574,7 +11570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -11588,7 +11584,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -11602,7 +11598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -11622,7 +11618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -11642,7 +11638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -11656,7 +11652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -11670,7 +11666,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -11684,7 +11680,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -11704,7 +11700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -11724,7 +11720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>264</v>
       </c>
@@ -11744,7 +11740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -11758,7 +11754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11772,7 +11768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -11786,7 +11782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -11800,7 +11796,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>270</v>
       </c>
@@ -11820,7 +11816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -11834,7 +11830,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -11848,7 +11844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -11862,7 +11858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -11882,7 +11878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -11896,7 +11892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -11916,7 +11912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -11930,7 +11926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -11944,7 +11940,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -11964,7 +11960,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -11978,7 +11974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>280</v>
       </c>
@@ -11998,7 +11994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -12012,7 +12008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>19</v>
       </c>
@@ -12026,7 +12022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>283</v>
       </c>
@@ -12046,7 +12042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -12060,7 +12056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -12074,7 +12070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>287</v>
       </c>
@@ -12094,7 +12090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -12108,7 +12104,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12122,7 +12118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -12136,7 +12132,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>294</v>
       </c>
@@ -12170,21 +12166,21 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12204,7 +12200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -12224,7 +12220,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -12244,7 +12240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -12258,7 +12254,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -12278,8 +12274,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -12299,7 +12295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -12319,7 +12315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -12333,7 +12329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -12353,7 +12349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -12367,7 +12363,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -12381,7 +12377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -12401,7 +12397,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -12415,7 +12411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -12429,7 +12425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -12449,7 +12445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -12463,7 +12459,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -12477,7 +12473,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -12497,7 +12493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -12511,7 +12507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -12525,7 +12521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -12539,7 +12535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -12553,7 +12549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>708</v>
       </c>
@@ -12573,7 +12569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -12593,7 +12589,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -12607,7 +12603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -12621,7 +12617,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -12635,7 +12631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -12649,7 +12645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -12669,7 +12665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -12683,7 +12679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -12697,7 +12693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -12711,7 +12707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>332</v>
       </c>
@@ -12731,7 +12727,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -12745,7 +12741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -12759,7 +12755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -12779,7 +12775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -12799,7 +12795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>33</v>
       </c>
@@ -12813,7 +12809,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -12833,7 +12829,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -12853,7 +12849,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>275</v>
       </c>
@@ -12873,7 +12869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12887,7 +12883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -12901,7 +12897,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -12915,7 +12911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -12935,7 +12931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -12955,7 +12951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>33</v>
       </c>
@@ -12969,7 +12965,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -12983,7 +12979,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -13003,7 +12999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>42</v>
       </c>
@@ -13017,7 +13013,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -13045,21 +13041,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13079,7 +13075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13099,7 +13095,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -13119,7 +13115,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -13139,7 +13135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -13153,8 +13149,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -13174,7 +13170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -13194,7 +13190,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -13208,7 +13204,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -13228,7 +13224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -13242,7 +13238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -13256,7 +13252,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>42</v>
       </c>
@@ -13270,7 +13266,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -13284,7 +13280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -13304,7 +13300,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>368</v>
       </c>
@@ -13324,7 +13320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -13344,7 +13340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -13358,7 +13354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>48</v>
       </c>
@@ -13372,7 +13368,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -13386,7 +13382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>708</v>
       </c>
@@ -13406,7 +13402,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -13426,7 +13422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -13440,7 +13436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>42</v>
       </c>
@@ -13454,7 +13450,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -13468,7 +13464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>379</v>
       </c>
@@ -13488,7 +13484,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -13502,7 +13498,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -13516,7 +13512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -13530,7 +13526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -13550,7 +13546,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>42</v>
       </c>
@@ -13564,7 +13560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -13578,7 +13574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -13592,7 +13588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -13612,7 +13608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -13626,7 +13622,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -13640,7 +13636,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>390</v>
       </c>
@@ -13660,7 +13656,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>275</v>
       </c>
@@ -13680,7 +13676,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -13700,7 +13696,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -13714,7 +13710,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -13728,7 +13724,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -13742,7 +13738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -13762,7 +13758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -13776,7 +13772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -13790,7 +13786,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -13810,7 +13806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -13824,7 +13820,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -13844,7 +13840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>42</v>
       </c>
@@ -13858,7 +13854,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -13886,21 +13882,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13920,7 +13916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13940,7 +13936,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -13954,7 +13950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -13968,7 +13964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -13988,7 +13984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -14002,7 +13998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -14016,7 +14012,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -14030,8 +14026,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -14051,7 +14047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -14065,7 +14061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -14079,7 +14075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -14093,7 +14089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -14107,7 +14103,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -14121,7 +14117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -14141,7 +14137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -14155,7 +14151,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -14175,7 +14171,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>618</v>
       </c>
@@ -14195,7 +14191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -14215,7 +14211,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -14229,7 +14225,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -14243,7 +14239,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>309</v>
       </c>
@@ -14263,7 +14259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -14280,7 +14276,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>708</v>
       </c>
@@ -14300,7 +14296,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -14320,7 +14316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -14334,7 +14330,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -14348,7 +14344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>415</v>
       </c>
@@ -14368,7 +14364,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -14382,7 +14378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -14396,7 +14392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -14416,7 +14412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -14430,7 +14426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -14444,7 +14440,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -14458,7 +14454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -14478,7 +14474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>42</v>
       </c>
@@ -14492,7 +14488,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -14506,7 +14502,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -14520,7 +14516,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -14534,7 +14530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -14554,7 +14550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -14574,7 +14570,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -14588,7 +14584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -14602,7 +14598,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -14622,7 +14618,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14636,7 +14632,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -14650,7 +14646,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -14670,7 +14666,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>14</v>
       </c>
@@ -14684,7 +14680,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -14698,7 +14694,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -14718,7 +14714,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>42</v>
       </c>
@@ -14732,7 +14728,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -14746,7 +14742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>14</v>
       </c>
@@ -14760,7 +14756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -14780,7 +14776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -14794,7 +14790,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -14814,7 +14810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -14828,7 +14824,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>14</v>
       </c>
@@ -14842,7 +14838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>432</v>
       </c>
@@ -14862,7 +14858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -14876,7 +14872,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -14890,7 +14886,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>435</v>
       </c>
@@ -14910,7 +14906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>14</v>
       </c>
@@ -14924,7 +14920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>19</v>
       </c>
@@ -14952,21 +14948,21 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14986,7 +14982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -15006,7 +15002,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -15020,7 +15016,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -15034,7 +15030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -15048,7 +15044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -15068,7 +15064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>618</v>
       </c>
@@ -15088,7 +15084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -15102,7 +15098,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -15116,7 +15112,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -15130,7 +15126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -15150,7 +15146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -15164,7 +15160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -15184,7 +15180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>443</v>
       </c>
@@ -15204,7 +15200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -15221,7 +15217,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>445</v>
       </c>
@@ -15232,7 +15228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>708</v>
       </c>
@@ -15252,7 +15248,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -15266,7 +15262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -15280,7 +15276,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -15300,7 +15296,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -15314,7 +15310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -15334,7 +15330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>449</v>
       </c>
@@ -15354,7 +15350,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -15368,7 +15364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -15382,7 +15378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -15396,7 +15392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -15416,7 +15412,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -15430,7 +15426,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -15444,7 +15440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -15464,7 +15460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -15478,7 +15474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -15498,7 +15494,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -15518,7 +15514,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -15538,7 +15534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -15552,7 +15548,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -15572,7 +15568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -15586,7 +15582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -15600,7 +15596,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -15620,7 +15616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>42</v>
       </c>
@@ -15634,7 +15630,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -15667,21 +15663,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15701,7 +15697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -15721,7 +15717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -15735,7 +15731,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -15755,7 +15751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -15769,7 +15765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -15789,7 +15785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>462</v>
       </c>
@@ -15809,7 +15805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>618</v>
       </c>
@@ -15829,7 +15825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -15843,7 +15839,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -15857,7 +15853,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -15871,7 +15867,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -15891,7 +15887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -15905,7 +15901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -15919,7 +15915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -15933,7 +15929,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -15947,7 +15943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>309</v>
       </c>
@@ -15967,7 +15963,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -15981,7 +15977,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>708</v>
       </c>
@@ -16001,7 +15997,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16015,7 +16011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -16035,7 +16031,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -16055,7 +16051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -16069,7 +16065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -16083,7 +16079,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -16097,7 +16093,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -16117,7 +16113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -16131,7 +16127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -16145,7 +16141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -16159,7 +16155,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -16179,7 +16175,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -16193,7 +16189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -16207,7 +16203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -16221,7 +16217,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -16235,7 +16231,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -16255,7 +16251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -16269,7 +16265,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -16283,7 +16279,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -16303,7 +16299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -16317,7 +16313,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -16331,7 +16327,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -16345,7 +16341,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -16359,7 +16355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -16379,7 +16375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -16399,7 +16395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -16413,7 +16409,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -16427,7 +16423,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -16447,7 +16443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>484</v>
       </c>
@@ -16467,7 +16463,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>14</v>
       </c>
@@ -16481,7 +16477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>19</v>
       </c>
@@ -16495,7 +16491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -16515,7 +16511,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -16529,7 +16525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -16549,7 +16545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -16563,7 +16559,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>435</v>
       </c>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8275" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E9BFAD4-FCC4-402D-B614-97F5F5DDD216}"/>
+  <xr:revisionPtr revIDLastSave="8276" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEBD67C7-82AE-436A-9033-B438E8B60B19}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -5040,20 +5040,20 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5073,7 +5073,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -5141,10 +5141,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5159,20 +5159,20 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5254,7 +5254,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -5268,7 +5268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -5339,7 +5339,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5353,7 +5353,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -5401,7 +5401,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -5421,7 +5421,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>632</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -5469,7 +5469,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>22</v>
       </c>
@@ -5483,7 +5483,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -5497,7 +5497,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>708</v>
       </c>
@@ -5517,7 +5517,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -5531,7 +5531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -5565,7 +5565,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5585,7 +5585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -5633,7 +5633,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5661,7 +5661,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -5681,7 +5681,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>512</v>
       </c>
@@ -5735,20 +5735,20 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -5828,7 +5828,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -5842,7 +5842,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5856,7 +5856,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -5870,7 +5870,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -5904,7 +5904,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5918,7 +5918,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -5946,7 +5946,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -5994,7 +5994,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6022,7 +6022,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -6050,7 +6050,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>527</v>
       </c>
@@ -6124,7 +6124,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>124</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -6155,7 +6155,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>530</v>
       </c>
@@ -6186,20 +6186,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6293,7 +6293,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -6341,7 +6341,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -6361,7 +6361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6389,7 +6389,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -6417,7 +6417,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>363</v>
       </c>
@@ -6459,7 +6459,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>708</v>
       </c>
@@ -6499,7 +6499,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -6513,7 +6513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6575,7 +6575,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>540</v>
       </c>
@@ -6595,7 +6595,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -6615,7 +6615,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6643,7 +6643,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -6671,7 +6671,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -6685,7 +6685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -6699,7 +6699,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -6719,7 +6719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -6739,7 +6739,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -6753,7 +6753,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -6773,7 +6773,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -6787,7 +6787,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -6801,7 +6801,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -6815,7 +6815,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>23</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -6849,7 +6849,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -6863,7 +6863,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>42</v>
       </c>
@@ -6897,7 +6897,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6911,7 +6911,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -6959,7 +6959,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -6999,7 +6999,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -7013,7 +7013,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>14</v>
       </c>
@@ -7027,7 +7027,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -7047,7 +7047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>124</v>
       </c>
@@ -7081,7 +7081,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>124</v>
       </c>
@@ -7095,7 +7095,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -7109,7 +7109,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>23</v>
       </c>
@@ -7137,20 +7137,20 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7170,7 +7170,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7190,7 +7190,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7258,7 +7258,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7272,7 +7272,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -7286,7 +7286,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>618</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7374,7 +7374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -7394,7 +7394,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7408,7 +7408,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -7422,7 +7422,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -7439,7 +7439,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>436</v>
       </c>
@@ -7450,7 +7450,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>708</v>
       </c>
@@ -7470,7 +7470,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7484,7 +7484,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -7498,7 +7498,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -7512,7 +7512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>22</v>
       </c>
@@ -7526,7 +7526,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -7566,7 +7566,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -7594,7 +7594,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -7608,7 +7608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -7622,7 +7622,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -7642,7 +7642,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -7662,7 +7662,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -7676,7 +7676,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -7690,7 +7690,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -7710,7 +7710,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -7750,7 +7750,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -7784,7 +7784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7804,7 +7804,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7852,7 +7852,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -7872,7 +7872,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7900,20 +7900,20 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7933,7 +7933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -7973,7 +7973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -7993,7 +7993,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>462</v>
       </c>
@@ -8013,7 +8013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>580</v>
       </c>
@@ -8033,7 +8033,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -8047,7 +8047,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>585</v>
       </c>
@@ -8067,7 +8067,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -8087,7 +8087,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -8107,7 +8107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -8121,7 +8121,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8135,7 +8135,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -8175,7 +8175,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8195,7 +8195,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>42</v>
       </c>
@@ -8223,20 +8223,20 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>591</v>
       </c>
@@ -8276,7 +8276,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -8296,7 +8296,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>592</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -8336,7 +8336,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -8356,7 +8356,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>309</v>
       </c>
@@ -8390,7 +8390,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -8418,7 +8418,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -8432,7 +8432,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>708</v>
       </c>
@@ -8452,7 +8452,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8466,7 +8466,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8486,7 +8486,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -8514,7 +8514,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>603</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -8548,7 +8548,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>22</v>
       </c>
@@ -8576,7 +8576,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -8596,7 +8596,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -8610,7 +8610,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8624,7 +8624,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8638,7 +8638,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -8658,7 +8658,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -8672,7 +8672,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8686,7 +8686,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>606</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8754,7 +8754,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>611</v>
       </c>
@@ -8774,7 +8774,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -8808,7 +8808,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -8822,7 +8822,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>618</v>
       </c>
@@ -8842,7 +8842,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -8856,7 +8856,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>619</v>
       </c>
@@ -8873,7 +8873,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>576</v>
       </c>
@@ -8899,20 +8899,20 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8932,7 +8932,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8952,7 +8952,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>624</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -8986,7 +8986,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -9014,7 +9014,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -9068,7 +9068,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -9082,7 +9082,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>632</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>708</v>
       </c>
@@ -9122,7 +9122,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -9142,7 +9142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -9182,7 +9182,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -9196,7 +9196,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9210,7 +9210,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -9224,7 +9224,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>642</v>
       </c>
@@ -9258,7 +9258,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -9278,7 +9278,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>645</v>
       </c>
@@ -9318,7 +9318,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -9332,7 +9332,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9366,7 +9366,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>603</v>
       </c>
@@ -9386,7 +9386,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>653</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -9434,7 +9434,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>656</v>
       </c>
@@ -9454,7 +9454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -9468,7 +9468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -9482,7 +9482,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9510,20 +9510,20 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9543,7 +9543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -9563,7 +9563,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>91</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
@@ -9603,7 +9603,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>666</v>
       </c>
@@ -9623,7 +9623,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -9651,7 +9651,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -9671,7 +9671,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -9685,7 +9685,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>618</v>
       </c>
@@ -9719,7 +9719,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -9739,7 +9739,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>632</v>
       </c>
@@ -9759,7 +9759,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -9773,7 +9773,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>708</v>
       </c>
@@ -9793,7 +9793,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>680</v>
       </c>
@@ -9813,7 +9813,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="C26" t="s">
         <v>14</v>
@@ -9828,7 +9828,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="C27" t="s">
         <v>19</v>
@@ -9843,7 +9843,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="C28" t="s">
         <v>22</v>
@@ -9858,7 +9858,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="C29" t="s">
         <v>23</v>
@@ -9873,7 +9873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>42</v>
       </c>
@@ -9907,7 +9907,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>687</v>
       </c>
@@ -9927,7 +9927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -9941,7 +9941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -9955,7 +9955,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -9969,7 +9969,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>692</v>
       </c>
@@ -9989,7 +9989,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>42</v>
       </c>
@@ -10003,7 +10003,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10017,7 +10017,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10031,7 +10031,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -10051,7 +10051,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>42</v>
       </c>
@@ -10065,7 +10065,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -10085,7 +10085,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>645</v>
       </c>
@@ -10105,7 +10105,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10119,7 +10119,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -10133,7 +10133,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -10153,7 +10153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -10167,7 +10167,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -10181,7 +10181,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -10201,7 +10201,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10215,7 +10215,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -10229,7 +10229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -10249,7 +10249,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>653</v>
       </c>
@@ -10269,7 +10269,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -10297,20 +10297,20 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -10372,7 +10372,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -10393,7 +10393,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -10414,7 +10414,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -10435,7 +10435,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -10456,7 +10456,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -10477,7 +10477,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -10498,7 +10498,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -10519,7 +10519,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -10561,7 +10561,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -10582,7 +10582,7 @@
         <v>0.48648648648648651</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -10603,7 +10603,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -10624,7 +10624,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -10645,7 +10645,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -10666,7 +10666,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>0.28412256267409469</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -10760,20 +10760,20 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -10813,7 +10813,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -10827,7 +10827,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -10855,8 +10855,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -10876,7 +10876,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -10890,7 +10890,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -10930,7 +10930,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -10950,7 +10950,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10964,7 +10964,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -10998,7 +10998,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -11012,7 +11012,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -11074,7 +11074,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -11088,7 +11088,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -11108,7 +11108,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -11136,7 +11136,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11190,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11204,7 +11204,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>227</v>
       </c>
@@ -11239,20 +11239,20 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11272,7 +11272,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -11312,7 +11312,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -11326,7 +11326,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -11346,7 +11346,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -11366,7 +11366,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>32</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -11415,20 +11415,20 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11448,7 +11448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -11488,7 +11488,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -11502,7 +11502,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -11536,7 +11536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -11550,7 +11550,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -11570,7 +11570,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -11584,7 +11584,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -11618,7 +11618,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -11638,7 +11638,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -11666,7 +11666,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>264</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11768,7 +11768,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -11796,7 +11796,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>270</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -11830,7 +11830,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -11844,7 +11844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -11858,7 +11858,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -11892,7 +11892,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -11912,7 +11912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -11926,7 +11926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -11974,7 +11974,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>280</v>
       </c>
@@ -11994,7 +11994,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>19</v>
       </c>
@@ -12022,7 +12022,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>283</v>
       </c>
@@ -12042,7 +12042,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -12056,7 +12056,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>287</v>
       </c>
@@ -12090,7 +12090,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12118,7 +12118,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>294</v>
       </c>
@@ -12167,20 +12167,20 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -12254,7 +12254,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -12274,8 +12274,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -12295,7 +12295,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -12315,7 +12315,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -12329,7 +12329,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -12363,7 +12363,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -12377,7 +12377,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -12397,7 +12397,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -12411,7 +12411,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -12425,7 +12425,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -12445,7 +12445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -12473,7 +12473,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -12493,7 +12493,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -12507,7 +12507,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -12521,7 +12521,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -12535,7 +12535,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -12549,7 +12549,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>708</v>
       </c>
@@ -12569,7 +12569,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -12589,7 +12589,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -12603,7 +12603,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -12617,7 +12617,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -12631,7 +12631,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -12645,7 +12645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -12665,7 +12665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -12693,7 +12693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -12707,7 +12707,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>332</v>
       </c>
@@ -12727,7 +12727,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -12741,7 +12741,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -12755,7 +12755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -12775,7 +12775,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -12795,7 +12795,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>33</v>
       </c>
@@ -12809,7 +12809,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -12829,7 +12829,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -12849,7 +12849,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>275</v>
       </c>
@@ -12869,7 +12869,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12883,7 +12883,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -12897,7 +12897,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -12911,7 +12911,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -12931,7 +12931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -12951,7 +12951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>33</v>
       </c>
@@ -12965,7 +12965,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -12979,7 +12979,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -12999,7 +12999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>42</v>
       </c>
@@ -13013,7 +13013,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -13042,20 +13042,20 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13075,7 +13075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13095,7 +13095,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -13115,7 +13115,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -13135,7 +13135,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -13149,8 +13149,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -13190,7 +13190,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -13204,7 +13204,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -13224,7 +13224,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -13238,7 +13238,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -13252,7 +13252,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>42</v>
       </c>
@@ -13266,7 +13266,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>368</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>48</v>
       </c>
@@ -13368,7 +13368,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -13382,7 +13382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>708</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -13422,7 +13422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -13436,7 +13436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>42</v>
       </c>
@@ -13450,7 +13450,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -13464,7 +13464,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>379</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -13498,7 +13498,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -13512,7 +13512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -13526,7 +13526,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>42</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -13574,7 +13574,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -13588,7 +13588,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -13608,7 +13608,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>390</v>
       </c>
@@ -13656,7 +13656,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>275</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -13696,7 +13696,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -13710,7 +13710,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -13738,7 +13738,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -13758,7 +13758,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -13772,7 +13772,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -13786,7 +13786,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>42</v>
       </c>
@@ -13854,7 +13854,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -13883,20 +13883,20 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13916,7 +13916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13936,7 +13936,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -13950,7 +13950,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -13964,7 +13964,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -13984,7 +13984,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -13998,7 +13998,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -14012,7 +14012,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -14026,8 +14026,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -14047,7 +14047,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -14061,7 +14061,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -14075,7 +14075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -14089,7 +14089,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -14103,7 +14103,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -14117,7 +14117,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -14137,7 +14137,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -14171,7 +14171,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>618</v>
       </c>
@@ -14191,7 +14191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -14211,7 +14211,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -14225,7 +14225,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -14239,7 +14239,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>309</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -14276,7 +14276,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>708</v>
       </c>
@@ -14296,7 +14296,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -14316,7 +14316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -14344,7 +14344,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>415</v>
       </c>
@@ -14364,7 +14364,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -14378,7 +14378,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -14412,7 +14412,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -14426,7 +14426,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -14454,7 +14454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -14474,7 +14474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>42</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -14502,7 +14502,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -14516,7 +14516,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -14550,7 +14550,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -14570,7 +14570,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -14598,7 +14598,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -14618,7 +14618,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -14646,7 +14646,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -14666,7 +14666,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>14</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -14694,7 +14694,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -14714,7 +14714,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>42</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -14742,7 +14742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>14</v>
       </c>
@@ -14756,7 +14756,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -14776,7 +14776,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -14790,7 +14790,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -14810,7 +14810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -14824,7 +14824,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>14</v>
       </c>
@@ -14838,7 +14838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>432</v>
       </c>
@@ -14858,7 +14858,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -14886,7 +14886,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>435</v>
       </c>
@@ -14906,7 +14906,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>14</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>19</v>
       </c>
@@ -14949,20 +14949,20 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14982,7 +14982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -15016,7 +15016,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -15044,7 +15044,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>618</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -15098,7 +15098,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -15112,7 +15112,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -15126,7 +15126,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -15146,7 +15146,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>443</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -15217,7 +15217,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>445</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>708</v>
       </c>
@@ -15248,7 +15248,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -15262,7 +15262,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -15276,7 +15276,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -15296,7 +15296,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -15310,7 +15310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -15330,7 +15330,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>449</v>
       </c>
@@ -15350,7 +15350,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -15364,7 +15364,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -15378,7 +15378,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -15412,7 +15412,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -15474,7 +15474,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -15494,7 +15494,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -15548,7 +15548,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -15568,7 +15568,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -15582,7 +15582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -15596,7 +15596,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -15616,7 +15616,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>42</v>
       </c>
@@ -15630,7 +15630,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -15664,20 +15664,20 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15697,7 +15697,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -15717,7 +15717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -15731,7 +15731,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -15751,7 +15751,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -15765,7 +15765,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -15785,7 +15785,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>462</v>
       </c>
@@ -15805,7 +15805,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>618</v>
       </c>
@@ -15825,7 +15825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -15839,7 +15839,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -15853,7 +15853,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -15867,7 +15867,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -15887,7 +15887,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -15901,7 +15901,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -15915,7 +15915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -15929,7 +15929,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -15943,7 +15943,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>309</v>
       </c>
@@ -15963,7 +15963,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -15977,7 +15977,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>708</v>
       </c>
@@ -15997,7 +15997,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16011,7 +16011,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -16031,7 +16031,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -16051,7 +16051,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -16065,7 +16065,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -16079,7 +16079,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -16093,7 +16093,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -16127,7 +16127,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -16141,7 +16141,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -16155,7 +16155,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -16175,7 +16175,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -16189,7 +16189,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -16203,7 +16203,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -16217,7 +16217,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -16231,7 +16231,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -16251,7 +16251,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -16265,7 +16265,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -16279,7 +16279,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -16299,7 +16299,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -16327,7 +16327,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -16341,7 +16341,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -16355,7 +16355,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -16375,7 +16375,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -16395,7 +16395,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -16409,7 +16409,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -16423,7 +16423,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -16443,7 +16443,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>484</v>
       </c>
@@ -16463,7 +16463,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>14</v>
       </c>
@@ -16477,7 +16477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>19</v>
       </c>
@@ -16491,7 +16491,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -16511,7 +16511,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -16525,7 +16525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -16545,7 +16545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -16559,7 +16559,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>435</v>
       </c>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8276" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AEBD67C7-82AE-436A-9033-B438E8B60B19}"/>
+  <xr:revisionPtr revIDLastSave="8278" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F13BA6-E6F7-4219-A568-73B0039B3926}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -9509,7 +9509,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8278" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1F13BA6-E6F7-4219-A568-73B0039B3926}"/>
+  <xr:revisionPtr revIDLastSave="8279" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A4BDA52-FA5D-4CDC-8D4C-FAD66DF71C87}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="7" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -4737,6 +4737,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5043,17 +5047,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5073,7 +5077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -5093,7 +5097,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5107,7 +5111,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -5127,7 +5131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -5141,10 +5145,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5162,17 +5166,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5192,7 +5196,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5212,7 +5216,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5226,7 +5230,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -5240,7 +5244,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5254,7 +5258,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -5268,7 +5272,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5288,7 +5292,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -5305,7 +5309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5325,7 +5329,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -5339,7 +5343,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5353,7 +5357,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -5367,7 +5371,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -5381,7 +5385,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -5401,7 +5405,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -5421,7 +5425,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>632</v>
       </c>
@@ -5441,7 +5445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -5455,7 +5459,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -5469,7 +5473,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>22</v>
       </c>
@@ -5483,7 +5487,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -5497,7 +5501,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>708</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -5531,7 +5535,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -5551,7 +5555,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -5565,7 +5569,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5585,7 +5589,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -5599,7 +5603,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -5613,7 +5617,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -5633,7 +5637,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -5647,7 +5651,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5661,7 +5665,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -5681,7 +5685,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -5701,7 +5705,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>512</v>
       </c>
@@ -5738,17 +5742,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5788,7 +5792,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -5808,7 +5812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -5828,7 +5832,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -5842,7 +5846,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5856,7 +5860,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -5870,7 +5874,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -5884,7 +5888,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -5904,7 +5908,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5918,7 +5922,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -5932,7 +5936,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -5946,7 +5950,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -5960,7 +5964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -5980,7 +5984,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -5994,7 +5998,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -6008,7 +6012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6022,7 +6026,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -6036,7 +6040,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -6050,7 +6054,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -6064,7 +6068,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -6084,7 +6088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>527</v>
       </c>
@@ -6124,7 +6128,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>124</v>
       </c>
@@ -6138,7 +6142,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -6155,7 +6159,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>530</v>
       </c>
@@ -6189,17 +6193,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6219,7 +6223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6239,7 +6243,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6259,7 +6263,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -6279,7 +6283,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6293,7 +6297,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -6307,7 +6311,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -6327,7 +6331,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -6341,7 +6345,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -6361,7 +6365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -6375,7 +6379,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6389,7 +6393,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -6403,7 +6407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -6417,7 +6421,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -6431,7 +6435,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6448,7 +6452,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>363</v>
       </c>
@@ -6459,7 +6463,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -6479,7 +6483,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>708</v>
       </c>
@@ -6499,7 +6503,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -6513,7 +6517,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6527,7 +6531,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -6547,7 +6551,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6561,7 +6565,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6575,7 +6579,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>540</v>
       </c>
@@ -6595,7 +6599,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -6615,7 +6619,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -6629,7 +6633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6643,7 +6647,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -6657,7 +6661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -6671,7 +6675,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -6685,7 +6689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -6699,7 +6703,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -6719,7 +6723,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -6739,7 +6743,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -6787,7 +6791,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -6815,7 +6819,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>23</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -6849,7 +6853,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -6863,7 +6867,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -6883,7 +6887,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>42</v>
       </c>
@@ -6897,7 +6901,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6911,7 +6915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -6925,7 +6929,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -6939,7 +6943,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -6959,7 +6963,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -6979,7 +6983,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -6999,7 +7003,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -7013,7 +7017,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>14</v>
       </c>
@@ -7027,7 +7031,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -7047,7 +7051,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>124</v>
       </c>
@@ -7081,7 +7085,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>124</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>23</v>
       </c>
@@ -7140,17 +7144,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7170,7 +7174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7190,7 +7194,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -7210,7 +7214,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7224,7 +7228,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -7244,7 +7248,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7258,7 +7262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7272,7 +7276,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -7286,7 +7290,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -7306,7 +7310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7320,7 +7324,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>618</v>
       </c>
@@ -7340,7 +7344,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7360,7 +7364,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7374,7 +7378,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -7394,7 +7398,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7408,7 +7412,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -7422,7 +7426,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -7439,7 +7443,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>436</v>
       </c>
@@ -7450,7 +7454,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>708</v>
       </c>
@@ -7470,7 +7474,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7484,7 +7488,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -7498,7 +7502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -7512,7 +7516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>22</v>
       </c>
@@ -7526,7 +7530,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -7546,7 +7550,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -7566,7 +7570,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7580,7 +7584,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -7594,7 +7598,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -7608,7 +7612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -7622,7 +7626,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -7642,7 +7646,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -7662,7 +7666,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -7676,7 +7680,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -7690,7 +7694,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -7710,7 +7714,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7730,7 +7734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -7750,7 +7754,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -7764,7 +7768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -7784,7 +7788,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7804,7 +7808,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -7824,7 +7828,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7838,7 +7842,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7852,7 +7856,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -7872,7 +7876,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7903,17 +7907,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7933,7 +7937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7953,7 +7957,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -7973,7 +7977,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -7993,7 +7997,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>462</v>
       </c>
@@ -8013,7 +8017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>580</v>
       </c>
@@ -8033,7 +8037,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -8047,7 +8051,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>585</v>
       </c>
@@ -8067,7 +8071,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -8087,7 +8091,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -8107,7 +8111,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -8121,7 +8125,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8135,7 +8139,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8155,7 +8159,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -8175,7 +8179,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8195,7 +8199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>42</v>
       </c>
@@ -8226,17 +8230,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8256,7 +8260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>591</v>
       </c>
@@ -8276,7 +8280,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -8296,7 +8300,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>592</v>
       </c>
@@ -8316,7 +8320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -8336,7 +8340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -8356,7 +8360,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -8370,7 +8374,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>309</v>
       </c>
@@ -8390,7 +8394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8404,7 +8408,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -8418,7 +8422,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -8432,7 +8436,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>708</v>
       </c>
@@ -8452,7 +8456,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8466,7 +8470,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8486,7 +8490,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -8500,7 +8504,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -8514,7 +8518,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>603</v>
       </c>
@@ -8534,7 +8538,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -8548,7 +8552,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -8562,7 +8566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>22</v>
       </c>
@@ -8576,7 +8580,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -8596,7 +8600,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -8610,7 +8614,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8624,7 +8628,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8638,7 +8642,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -8658,7 +8662,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -8672,7 +8676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8686,7 +8690,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>606</v>
       </c>
@@ -8706,7 +8710,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -8720,7 +8724,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -8740,7 +8744,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8754,7 +8758,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>611</v>
       </c>
@@ -8774,7 +8778,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -8794,7 +8798,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -8808,7 +8812,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -8822,7 +8826,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>618</v>
       </c>
@@ -8842,7 +8846,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -8856,7 +8860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>619</v>
       </c>
@@ -8873,7 +8877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>576</v>
       </c>
@@ -8902,17 +8906,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8932,7 +8936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8952,7 +8956,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>624</v>
       </c>
@@ -8972,7 +8976,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -8986,7 +8990,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -9000,7 +9004,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -9014,7 +9018,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -9028,7 +9032,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -9048,7 +9052,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -9068,7 +9072,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -9082,7 +9086,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>632</v>
       </c>
@@ -9102,7 +9106,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>708</v>
       </c>
@@ -9122,7 +9126,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -9142,7 +9146,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -9162,7 +9166,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -9182,7 +9186,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -9196,7 +9200,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9210,7 +9214,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -9224,7 +9228,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -9238,7 +9242,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>642</v>
       </c>
@@ -9258,7 +9262,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -9278,7 +9282,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -9298,7 +9302,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>645</v>
       </c>
@@ -9318,7 +9322,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -9332,7 +9336,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -9352,7 +9356,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9366,7 +9370,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>603</v>
       </c>
@@ -9386,7 +9390,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -9400,7 +9404,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>653</v>
       </c>
@@ -9420,7 +9424,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -9434,7 +9438,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>656</v>
       </c>
@@ -9454,7 +9458,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -9468,7 +9472,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -9482,7 +9486,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9509,21 +9513,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9543,7 +9547,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -9563,7 +9567,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>91</v>
       </c>
@@ -9583,7 +9587,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
@@ -9603,7 +9607,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>666</v>
       </c>
@@ -9623,7 +9627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -9637,7 +9641,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -9651,7 +9655,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -9671,7 +9675,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -9685,7 +9689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -9699,7 +9703,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>618</v>
       </c>
@@ -9719,7 +9723,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -9739,7 +9743,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>632</v>
       </c>
@@ -9759,7 +9763,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -9773,7 +9777,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>708</v>
       </c>
@@ -9793,7 +9797,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>680</v>
       </c>
@@ -9813,7 +9817,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="C26" t="s">
         <v>14</v>
@@ -9828,7 +9832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="C27" t="s">
         <v>19</v>
@@ -9843,7 +9847,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="C28" t="s">
         <v>22</v>
@@ -9858,7 +9862,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="C29" t="s">
         <v>23</v>
@@ -9873,7 +9877,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -9893,7 +9897,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>42</v>
       </c>
@@ -9907,7 +9911,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>687</v>
       </c>
@@ -9927,7 +9931,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -9941,7 +9945,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -9955,7 +9959,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -9969,7 +9973,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>692</v>
       </c>
@@ -9989,7 +9993,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>42</v>
       </c>
@@ -10003,7 +10007,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10017,7 +10021,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10031,7 +10035,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -10051,7 +10055,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>42</v>
       </c>
@@ -10065,7 +10069,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -10085,7 +10089,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>645</v>
       </c>
@@ -10105,7 +10109,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10119,7 +10123,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -10133,7 +10137,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -10153,7 +10157,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -10167,7 +10171,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -10181,7 +10185,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -10201,7 +10205,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10215,7 +10219,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -10229,7 +10233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -10249,7 +10253,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>653</v>
       </c>
@@ -10269,7 +10273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -10300,17 +10304,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10330,7 +10334,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -10351,7 +10355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -10372,7 +10376,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -10393,7 +10397,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -10414,7 +10418,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -10435,7 +10439,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -10456,7 +10460,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -10477,7 +10481,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -10498,7 +10502,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -10519,7 +10523,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -10540,7 +10544,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -10561,7 +10565,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -10582,7 +10586,7 @@
         <v>0.48648648648648651</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -10603,7 +10607,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -10624,7 +10628,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -10645,7 +10649,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -10666,7 +10670,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -10687,7 +10691,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -10712,7 +10716,7 @@
         <v>0.28412256267409469</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>179</v>
       </c>
@@ -10763,17 +10767,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10793,7 +10797,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -10813,7 +10817,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -10827,7 +10831,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10841,7 +10845,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -10855,8 +10859,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -10876,7 +10880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -10890,7 +10894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -10910,7 +10914,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -10930,7 +10934,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -10950,7 +10954,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10964,7 +10968,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -10978,7 +10982,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -10998,7 +11002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -11012,7 +11016,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -11026,7 +11030,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -11040,7 +11044,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -11060,7 +11064,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -11074,7 +11078,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -11088,7 +11092,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -11108,7 +11112,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -11122,7 +11126,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -11136,7 +11140,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -11156,7 +11160,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -11170,7 +11174,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -11190,7 +11194,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11204,7 +11208,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>227</v>
       </c>
@@ -11242,17 +11246,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11272,7 +11276,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -11292,7 +11296,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -11312,7 +11316,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -11326,7 +11330,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -11346,7 +11350,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -11366,7 +11370,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>32</v>
       </c>
@@ -11380,7 +11384,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -11418,17 +11422,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11448,7 +11452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -11468,7 +11472,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -11488,7 +11492,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -11502,7 +11506,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -11516,7 +11520,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -11536,7 +11540,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -11550,7 +11554,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -11570,7 +11574,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -11584,7 +11588,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -11598,7 +11602,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -11618,7 +11622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -11638,7 +11642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -11652,7 +11656,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -11666,7 +11670,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -11680,7 +11684,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -11700,7 +11704,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -11720,7 +11724,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>264</v>
       </c>
@@ -11740,7 +11744,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -11754,7 +11758,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11768,7 +11772,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -11782,7 +11786,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -11796,7 +11800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>270</v>
       </c>
@@ -11816,7 +11820,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -11830,7 +11834,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -11844,7 +11848,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -11858,7 +11862,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -11878,7 +11882,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -11892,7 +11896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -11912,7 +11916,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -11926,7 +11930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -11940,7 +11944,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -11960,7 +11964,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -11974,7 +11978,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>280</v>
       </c>
@@ -11994,7 +11998,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -12008,7 +12012,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>19</v>
       </c>
@@ -12022,7 +12026,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>283</v>
       </c>
@@ -12042,7 +12046,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -12056,7 +12060,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -12070,7 +12074,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>287</v>
       </c>
@@ -12090,7 +12094,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -12104,7 +12108,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12118,7 +12122,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -12132,7 +12136,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>294</v>
       </c>
@@ -12170,17 +12174,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12200,7 +12204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -12220,7 +12224,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -12240,7 +12244,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -12254,7 +12258,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -12274,8 +12278,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -12295,7 +12299,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -12315,7 +12319,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -12329,7 +12333,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -12349,7 +12353,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -12363,7 +12367,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -12377,7 +12381,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -12397,7 +12401,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -12411,7 +12415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -12425,7 +12429,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -12445,7 +12449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -12459,7 +12463,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -12473,7 +12477,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -12493,7 +12497,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -12507,7 +12511,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -12521,7 +12525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -12535,7 +12539,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -12549,7 +12553,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>708</v>
       </c>
@@ -12569,7 +12573,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -12589,7 +12593,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -12603,7 +12607,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -12617,7 +12621,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -12631,7 +12635,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -12645,7 +12649,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -12665,7 +12669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -12679,7 +12683,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -12693,7 +12697,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -12707,7 +12711,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>332</v>
       </c>
@@ -12727,7 +12731,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -12741,7 +12745,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -12755,7 +12759,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -12775,7 +12779,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -12795,7 +12799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>33</v>
       </c>
@@ -12809,7 +12813,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -12829,7 +12833,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -12849,7 +12853,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>275</v>
       </c>
@@ -12869,7 +12873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12883,7 +12887,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -12897,7 +12901,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -12911,7 +12915,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -12931,7 +12935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -12951,7 +12955,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>33</v>
       </c>
@@ -12965,7 +12969,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -12979,7 +12983,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -12999,7 +13003,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>42</v>
       </c>
@@ -13013,7 +13017,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -13045,17 +13049,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13075,7 +13079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13095,7 +13099,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -13115,7 +13119,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -13149,8 +13153,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -13170,7 +13174,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -13190,7 +13194,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -13204,7 +13208,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -13224,7 +13228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -13238,7 +13242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -13252,7 +13256,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>42</v>
       </c>
@@ -13266,7 +13270,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -13280,7 +13284,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -13300,7 +13304,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>368</v>
       </c>
@@ -13320,7 +13324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -13340,7 +13344,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -13354,7 +13358,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>48</v>
       </c>
@@ -13368,7 +13372,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -13382,7 +13386,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>708</v>
       </c>
@@ -13402,7 +13406,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -13422,7 +13426,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -13436,7 +13440,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>42</v>
       </c>
@@ -13450,7 +13454,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -13464,7 +13468,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>379</v>
       </c>
@@ -13484,7 +13488,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -13498,7 +13502,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -13512,7 +13516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -13526,7 +13530,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -13546,7 +13550,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>42</v>
       </c>
@@ -13560,7 +13564,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -13574,7 +13578,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -13588,7 +13592,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -13608,7 +13612,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -13622,7 +13626,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -13636,7 +13640,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>390</v>
       </c>
@@ -13656,7 +13660,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>275</v>
       </c>
@@ -13676,7 +13680,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -13696,7 +13700,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -13710,7 +13714,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -13724,7 +13728,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -13738,7 +13742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -13758,7 +13762,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -13772,7 +13776,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -13786,7 +13790,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -13806,7 +13810,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -13820,7 +13824,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -13840,7 +13844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>42</v>
       </c>
@@ -13854,7 +13858,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -13886,17 +13890,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13916,7 +13920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13936,7 +13940,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -13950,7 +13954,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -13964,7 +13968,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -13984,7 +13988,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -13998,7 +14002,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -14012,7 +14016,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -14026,8 +14030,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -14047,7 +14051,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -14061,7 +14065,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -14075,7 +14079,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -14089,7 +14093,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -14103,7 +14107,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -14117,7 +14121,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -14137,7 +14141,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -14151,7 +14155,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -14171,7 +14175,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>618</v>
       </c>
@@ -14191,7 +14195,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -14211,7 +14215,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -14225,7 +14229,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -14239,7 +14243,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>309</v>
       </c>
@@ -14259,7 +14263,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -14276,7 +14280,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>708</v>
       </c>
@@ -14296,7 +14300,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -14316,7 +14320,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -14330,7 +14334,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -14344,7 +14348,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>415</v>
       </c>
@@ -14364,7 +14368,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -14378,7 +14382,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -14392,7 +14396,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -14412,7 +14416,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -14426,7 +14430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -14440,7 +14444,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -14454,7 +14458,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -14474,7 +14478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>42</v>
       </c>
@@ -14488,7 +14492,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -14502,7 +14506,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -14516,7 +14520,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -14530,7 +14534,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -14550,7 +14554,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -14570,7 +14574,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -14584,7 +14588,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -14598,7 +14602,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -14618,7 +14622,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14632,7 +14636,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -14646,7 +14650,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -14666,7 +14670,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>14</v>
       </c>
@@ -14680,7 +14684,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -14694,7 +14698,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -14714,7 +14718,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>42</v>
       </c>
@@ -14728,7 +14732,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -14742,7 +14746,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>14</v>
       </c>
@@ -14756,7 +14760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -14776,7 +14780,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -14790,7 +14794,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -14810,7 +14814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -14824,7 +14828,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>14</v>
       </c>
@@ -14838,7 +14842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>432</v>
       </c>
@@ -14858,7 +14862,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -14872,7 +14876,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -14886,7 +14890,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>435</v>
       </c>
@@ -14906,7 +14910,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>14</v>
       </c>
@@ -14920,7 +14924,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>19</v>
       </c>
@@ -14952,17 +14956,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14982,7 +14986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -15002,7 +15006,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -15016,7 +15020,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -15030,7 +15034,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -15044,7 +15048,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -15064,7 +15068,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>618</v>
       </c>
@@ -15084,7 +15088,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -15098,7 +15102,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -15112,7 +15116,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -15126,7 +15130,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -15146,7 +15150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -15160,7 +15164,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -15180,7 +15184,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>443</v>
       </c>
@@ -15200,7 +15204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -15217,7 +15221,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>445</v>
       </c>
@@ -15228,7 +15232,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>708</v>
       </c>
@@ -15248,7 +15252,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -15262,7 +15266,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -15276,7 +15280,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -15296,7 +15300,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -15310,7 +15314,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -15330,7 +15334,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>449</v>
       </c>
@@ -15350,7 +15354,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -15364,7 +15368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -15378,7 +15382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -15392,7 +15396,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -15412,7 +15416,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -15426,7 +15430,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -15440,7 +15444,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -15460,7 +15464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -15474,7 +15478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -15494,7 +15498,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -15514,7 +15518,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -15534,7 +15538,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -15548,7 +15552,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -15568,7 +15572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -15582,7 +15586,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -15596,7 +15600,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -15616,7 +15620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>42</v>
       </c>
@@ -15630,7 +15634,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -15667,17 +15671,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15697,7 +15701,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -15717,7 +15721,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -15731,7 +15735,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -15751,7 +15755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -15765,7 +15769,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -15785,7 +15789,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>462</v>
       </c>
@@ -15805,7 +15809,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>618</v>
       </c>
@@ -15825,7 +15829,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -15839,7 +15843,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -15853,7 +15857,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -15867,7 +15871,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -15887,7 +15891,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -15901,7 +15905,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -15915,7 +15919,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -15929,7 +15933,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -15943,7 +15947,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>309</v>
       </c>
@@ -15963,7 +15967,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -15977,7 +15981,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>708</v>
       </c>
@@ -15997,7 +16001,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16011,7 +16015,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -16031,7 +16035,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -16051,7 +16055,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -16065,7 +16069,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -16079,7 +16083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -16093,7 +16097,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -16113,7 +16117,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -16127,7 +16131,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -16141,7 +16145,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -16155,7 +16159,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -16175,7 +16179,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -16189,7 +16193,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -16203,7 +16207,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -16217,7 +16221,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -16231,7 +16235,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -16251,7 +16255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -16265,7 +16269,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -16279,7 +16283,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -16299,7 +16303,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -16313,7 +16317,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -16327,7 +16331,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -16341,7 +16345,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -16355,7 +16359,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -16375,7 +16379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -16395,7 +16399,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -16409,7 +16413,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -16423,7 +16427,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -16443,7 +16447,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>484</v>
       </c>
@@ -16463,7 +16467,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>14</v>
       </c>
@@ -16477,7 +16481,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>19</v>
       </c>
@@ -16491,7 +16495,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -16511,7 +16515,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -16525,7 +16529,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -16545,7 +16549,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -16559,7 +16563,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>435</v>
       </c>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8279" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A4BDA52-FA5D-4CDC-8D4C-FAD66DF71C87}"/>
+  <xr:revisionPtr revIDLastSave="8331" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73D1A949-4705-4C96-A324-1C2EDB0385DE}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="7" activeTab="16" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -30,9 +30,10 @@
     <sheet name="2021" sheetId="28" r:id="rId15"/>
     <sheet name="2022" sheetId="31" r:id="rId16"/>
     <sheet name="2023" sheetId="34" r:id="rId17"/>
-    <sheet name="Stats" sheetId="1" r:id="rId18"/>
-    <sheet name="Wins-Losses" sheetId="35" r:id="rId19"/>
-    <sheet name="Winning Percentile Range" sheetId="36" r:id="rId20"/>
+    <sheet name="2024" sheetId="37" r:id="rId18"/>
+    <sheet name="Stats" sheetId="1" r:id="rId19"/>
+    <sheet name="Wins-Losses" sheetId="38" r:id="rId20"/>
+    <sheet name="Winning Percentile Range" sheetId="39" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3118" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="711">
   <si>
     <t>ROUND</t>
   </si>
@@ -2179,6 +2180,12 @@
   </si>
   <si>
     <t>MADRID OPEN</t>
+  </si>
+  <si>
+    <t>2-6 6-1 6-3</t>
+  </si>
+  <si>
+    <t>Kateřina Siniaková (CZECH REPUBLIC)</t>
   </si>
 </sst>
 </file>
@@ -2431,10 +2438,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$18</c:f>
+              <c:f>Stats!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -2486,15 +2493,18 @@
                 <c:pt idx="16">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$D$2:$D$18</c:f>
+              <c:f>Stats!$D$2:$D$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2546,12 +2556,15 @@
                 <c:pt idx="16">
                   <c:v>24</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-93C4-43E9-A865-8C9886314845}"/>
+              <c16:uniqueId val="{00000000-FF7A-4148-ABE8-23CF26B501B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2581,10 +2594,10 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$18</c:f>
+              <c:f>Stats!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -2636,15 +2649,18 @@
                 <c:pt idx="16">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$E$2:$E$18</c:f>
+              <c:f>Stats!$E$2:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -2696,12 +2712,15 @@
                 <c:pt idx="16">
                   <c:v>19</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-93C4-43E9-A865-8C9886314845}"/>
+              <c16:uniqueId val="{00000001-FF7A-4148-ABE8-23CF26B501B0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2715,11 +2734,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1142950752"/>
-        <c:axId val="1142959072"/>
+        <c:axId val="399487552"/>
+        <c:axId val="793991616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1142950752"/>
+        <c:axId val="399487552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2817,7 +2836,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1142959072"/>
+        <c:crossAx val="793991616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2825,7 +2844,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1142959072"/>
+        <c:axId val="793991616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2866,8 +2885,13 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" b="1"/>
-                  <a:t>NUMBER OF MATCHES</a:t>
+                  <a:t>NUMBER</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> OF MATCHES</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2931,7 +2955,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1142950752"/>
+        <c:crossAx val="399487552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3135,10 +3159,10 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Stats!$A$2:$A$18</c:f>
+              <c:f>Stats!$A$2:$A$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2007</c:v>
                 </c:pt>
@@ -3190,15 +3214,18 @@
                 <c:pt idx="16">
                   <c:v>2023</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>2024</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Stats!$F$2:$F$18</c:f>
+              <c:f>Stats!$F$2:$F$19</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3250,13 +3277,16 @@
                 <c:pt idx="16">
                   <c:v>0.20833333333333334</c:v>
                 </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5ACF-4E98-9D87-97EDBF13D56E}"/>
+              <c16:uniqueId val="{00000000-2046-45B3-9560-762E2316C959}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3270,11 +3300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="837707504"/>
-        <c:axId val="837704176"/>
+        <c:axId val="442935071"/>
+        <c:axId val="440264495"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="837707504"/>
+        <c:axId val="442935071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3372,7 +3402,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="837704176"/>
+        <c:crossAx val="440264495"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3380,7 +3410,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="837704176"/>
+        <c:axId val="440264495"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3486,7 +3516,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="837707504"/>
+        <c:crossAx val="442935071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4145,7 +4175,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -4253,6 +4283,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -4263,6 +4298,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -4294,6 +4334,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4648,10 +4691,10 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{B6B17B0E-5A3B-4095-8C5C-2CD92820ABBD}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0E37DA49-E187-44AB-B98E-B264F7A3FB4B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4660,14 +4703,13 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{9E581842-E1DA-4169-9A35-6C9AB1C1BC16}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{763BDCD1-F1D8-48FD-A680-2E8DB4329158}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </chartsheet>
 </file>
 
@@ -4681,7 +4723,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C018416F-9503-DF28-0D67-5A7CD5440733}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCAC28D0-F467-CCAE-0CC3-0294CEE258C1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4708,13 +4750,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8564880" cy="5821680"/>
+    <xdr:ext cx="8651488" cy="6272561"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F92BF16D-7116-8E9A-07E1-468751799B25}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{495E4836-FFE7-13F9-7060-F076F6B62083}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5043,21 +5085,21 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5077,7 +5119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -5097,7 +5139,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5111,7 +5153,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -5131,7 +5173,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -5145,10 +5187,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5162,21 +5204,21 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5196,7 +5238,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5216,7 +5258,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5230,7 +5272,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -5244,7 +5286,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5258,7 +5300,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -5272,7 +5314,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5292,7 +5334,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -5309,7 +5351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5329,7 +5371,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -5343,7 +5385,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5357,7 +5399,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -5371,7 +5413,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -5385,7 +5427,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -5405,7 +5447,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -5425,7 +5467,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>632</v>
       </c>
@@ -5445,7 +5487,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -5459,7 +5501,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -5473,7 +5515,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>22</v>
       </c>
@@ -5487,7 +5529,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -5501,7 +5543,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>708</v>
       </c>
@@ -5521,7 +5563,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -5535,7 +5577,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -5555,7 +5597,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -5569,7 +5611,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5589,7 +5631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -5603,7 +5645,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -5617,7 +5659,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -5637,7 +5679,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -5651,7 +5693,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5665,7 +5707,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -5685,7 +5727,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -5705,7 +5747,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>512</v>
       </c>
@@ -5738,21 +5780,21 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5772,7 +5814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5792,7 +5834,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -5812,7 +5854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -5832,7 +5874,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -5846,7 +5888,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5860,7 +5902,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -5874,7 +5916,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -5888,7 +5930,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -5908,7 +5950,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5922,7 +5964,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -5936,7 +5978,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -5950,7 +5992,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -5964,7 +6006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -5984,7 +6026,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -5998,7 +6040,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -6012,7 +6054,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6026,7 +6068,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -6040,7 +6082,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -6054,7 +6096,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -6068,7 +6110,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -6088,7 +6130,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -6108,7 +6150,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>527</v>
       </c>
@@ -6128,7 +6170,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>124</v>
       </c>
@@ -6142,7 +6184,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -6159,7 +6201,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>530</v>
       </c>
@@ -6189,21 +6231,21 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6223,7 +6265,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6243,7 +6285,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6263,7 +6305,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -6283,7 +6325,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6297,7 +6339,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -6311,7 +6353,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -6331,7 +6373,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -6345,7 +6387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -6365,7 +6407,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -6379,7 +6421,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6393,7 +6435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -6407,7 +6449,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -6421,7 +6463,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -6435,7 +6477,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6452,7 +6494,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>363</v>
       </c>
@@ -6463,7 +6505,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -6483,7 +6525,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>708</v>
       </c>
@@ -6503,7 +6545,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -6517,7 +6559,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6531,7 +6573,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -6551,7 +6593,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6565,7 +6607,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6579,7 +6621,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>540</v>
       </c>
@@ -6599,7 +6641,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -6619,7 +6661,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -6633,7 +6675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6647,7 +6689,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -6661,7 +6703,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -6675,7 +6717,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -6689,7 +6731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -6703,7 +6745,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -6723,7 +6765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -6743,7 +6785,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -6757,7 +6799,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -6777,7 +6819,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -6791,7 +6833,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -6805,7 +6847,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -6819,7 +6861,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>23</v>
       </c>
@@ -6833,7 +6875,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -6853,7 +6895,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -6867,7 +6909,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -6887,7 +6929,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>42</v>
       </c>
@@ -6901,7 +6943,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6915,7 +6957,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -6929,7 +6971,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -6943,7 +6985,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -6963,7 +7005,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -6983,7 +7025,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -7003,7 +7045,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -7017,7 +7059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>14</v>
       </c>
@@ -7031,7 +7073,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -7051,7 +7093,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -7071,7 +7113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>124</v>
       </c>
@@ -7085,7 +7127,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>124</v>
       </c>
@@ -7099,7 +7141,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -7113,7 +7155,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>23</v>
       </c>
@@ -7140,21 +7182,21 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7174,7 +7216,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7194,7 +7236,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -7214,7 +7256,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7228,7 +7270,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -7248,7 +7290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7262,7 +7304,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7276,7 +7318,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -7290,7 +7332,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -7310,7 +7352,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7324,7 +7366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>618</v>
       </c>
@@ -7344,7 +7386,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7364,7 +7406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7378,7 +7420,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -7398,7 +7440,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7412,7 +7454,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -7426,7 +7468,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -7443,7 +7485,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>436</v>
       </c>
@@ -7454,7 +7496,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>708</v>
       </c>
@@ -7474,7 +7516,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7488,7 +7530,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -7502,7 +7544,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -7516,7 +7558,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>22</v>
       </c>
@@ -7530,7 +7572,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -7550,7 +7592,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -7570,7 +7612,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7584,7 +7626,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -7598,7 +7640,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -7612,7 +7654,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -7626,7 +7668,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -7646,7 +7688,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -7666,7 +7708,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -7680,7 +7722,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -7694,7 +7736,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -7714,7 +7756,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7734,7 +7776,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -7754,7 +7796,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -7768,7 +7810,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -7788,7 +7830,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7808,7 +7850,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -7828,7 +7870,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7842,7 +7884,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7856,7 +7898,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -7876,7 +7918,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7903,21 +7945,21 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7937,7 +7979,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7957,7 +7999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -7977,7 +8019,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -7997,7 +8039,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>462</v>
       </c>
@@ -8017,7 +8059,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>580</v>
       </c>
@@ -8037,7 +8079,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -8051,7 +8093,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>585</v>
       </c>
@@ -8071,7 +8113,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -8091,7 +8133,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -8111,7 +8153,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -8125,7 +8167,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8139,7 +8181,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8159,7 +8201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -8179,7 +8221,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8199,7 +8241,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>42</v>
       </c>
@@ -8226,21 +8268,21 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8260,7 +8302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>591</v>
       </c>
@@ -8280,7 +8322,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -8300,7 +8342,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>592</v>
       </c>
@@ -8320,7 +8362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -8340,7 +8382,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -8360,7 +8402,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -8374,7 +8416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>309</v>
       </c>
@@ -8394,7 +8436,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8408,7 +8450,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -8422,7 +8464,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -8436,7 +8478,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>708</v>
       </c>
@@ -8456,7 +8498,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8470,7 +8512,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8490,7 +8532,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -8504,7 +8546,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -8518,7 +8560,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>603</v>
       </c>
@@ -8538,7 +8580,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -8552,7 +8594,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -8566,7 +8608,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>22</v>
       </c>
@@ -8580,7 +8622,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -8600,7 +8642,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -8614,7 +8656,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8628,7 +8670,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8642,7 +8684,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -8662,7 +8704,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -8676,7 +8718,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8690,7 +8732,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>606</v>
       </c>
@@ -8710,7 +8752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -8724,7 +8766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -8744,7 +8786,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8758,7 +8800,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>611</v>
       </c>
@@ -8778,7 +8820,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -8798,7 +8840,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -8812,7 +8854,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -8826,7 +8868,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>618</v>
       </c>
@@ -8846,7 +8888,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -8860,7 +8902,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>619</v>
       </c>
@@ -8877,7 +8919,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>576</v>
       </c>
@@ -8902,21 +8944,21 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8936,7 +8978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8956,7 +8998,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>624</v>
       </c>
@@ -8976,7 +9018,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -8990,7 +9032,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -9004,7 +9046,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -9018,7 +9060,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -9032,7 +9074,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -9052,7 +9094,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -9072,7 +9114,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -9086,7 +9128,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>632</v>
       </c>
@@ -9106,7 +9148,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>708</v>
       </c>
@@ -9126,7 +9168,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -9146,7 +9188,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -9166,7 +9208,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -9186,7 +9228,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -9200,7 +9242,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9214,7 +9256,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -9228,7 +9270,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -9242,7 +9284,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>642</v>
       </c>
@@ -9262,7 +9304,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -9282,7 +9324,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -9302,7 +9344,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>645</v>
       </c>
@@ -9322,7 +9364,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -9336,7 +9378,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -9356,7 +9398,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9370,7 +9412,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>603</v>
       </c>
@@ -9390,7 +9432,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -9404,7 +9446,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>653</v>
       </c>
@@ -9424,7 +9466,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -9438,7 +9480,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>656</v>
       </c>
@@ -9458,7 +9500,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -9472,7 +9514,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -9486,7 +9528,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9513,21 +9555,21 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9547,7 +9589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -9567,7 +9609,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>91</v>
       </c>
@@ -9587,7 +9629,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
@@ -9607,7 +9649,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>666</v>
       </c>
@@ -9627,7 +9669,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -9641,7 +9683,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -9655,7 +9697,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -9675,7 +9717,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -9689,7 +9731,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -9703,7 +9745,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>618</v>
       </c>
@@ -9723,7 +9765,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -9743,7 +9785,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>632</v>
       </c>
@@ -9763,7 +9805,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -9777,7 +9819,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>708</v>
       </c>
@@ -9797,7 +9839,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>680</v>
       </c>
@@ -9817,7 +9859,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="C26" t="s">
         <v>14</v>
@@ -9832,7 +9874,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="C27" t="s">
         <v>19</v>
@@ -9847,7 +9889,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="C28" t="s">
         <v>22</v>
@@ -9862,7 +9904,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="C29" t="s">
         <v>23</v>
@@ -9877,7 +9919,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -9897,7 +9939,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>42</v>
       </c>
@@ -9911,7 +9953,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>687</v>
       </c>
@@ -9931,7 +9973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -9945,7 +9987,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -9959,7 +10001,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -9973,7 +10015,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>692</v>
       </c>
@@ -9993,7 +10035,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>42</v>
       </c>
@@ -10007,7 +10049,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10021,7 +10063,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10035,7 +10077,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -10055,7 +10097,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>42</v>
       </c>
@@ -10069,7 +10111,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -10089,7 +10131,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>645</v>
       </c>
@@ -10109,7 +10151,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10123,7 +10165,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -10137,7 +10179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -10157,7 +10199,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -10171,7 +10213,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -10185,7 +10227,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -10205,7 +10247,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10219,7 +10261,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -10233,7 +10275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -10253,7 +10295,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>653</v>
       </c>
@@ -10273,7 +10315,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -10294,27 +10336,108 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA83BE30-2A1F-4906-8187-187C07E852D2}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" t="s">
+        <v>710</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>707</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>709</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCAE177D-2BD4-45CE-80F5-EF8578F1AF32}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10334,7 +10457,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -10351,11 +10474,11 @@
         <v>2</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" ref="F2:F18" si="0">(D2-E2)/D2</f>
+        <f t="shared" ref="F2:F19" si="0">(D2-E2)/D2</f>
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -10376,7 +10499,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -10397,7 +10520,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -10418,7 +10541,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -10439,7 +10562,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -10460,7 +10583,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -10481,7 +10604,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -10502,7 +10625,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -10523,7 +10646,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -10544,7 +10667,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -10565,7 +10688,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -10586,7 +10709,7 @@
         <v>0.48648648648648651</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -10607,7 +10730,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -10628,7 +10751,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -10649,7 +10772,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -10670,7 +10793,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -10691,58 +10814,79 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2024</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="3">
-        <f>SUM(B2:B18)</f>
-        <v>268</v>
-      </c>
-      <c r="C19" s="3">
-        <f>SUM(C2:C18)</f>
+      <c r="B20" s="3">
+        <f>SUM(B2:B19)</f>
+        <v>269</v>
+      </c>
+      <c r="C20" s="3">
+        <f>SUM(C2:C19)</f>
         <v>7</v>
       </c>
-      <c r="D19" s="3">
-        <f>SUM(D2:D18)</f>
-        <v>359</v>
-      </c>
-      <c r="E19" s="3">
-        <f>SUM(E2:E18)</f>
-        <v>257</v>
-      </c>
-      <c r="F19" s="4">
-        <f>(D19-E19)/D19</f>
-        <v>0.28412256267409469</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="3">
-        <f>AVERAGE(B2:B18)</f>
-        <v>15.764705882352942</v>
-      </c>
-      <c r="C20" s="3">
-        <f>AVERAGE(C2:C18)</f>
-        <v>0.41176470588235292</v>
-      </c>
       <c r="D20" s="3">
-        <f>AVERAGE(D2:D18)</f>
-        <v>21.117647058823529</v>
+        <f>SUM(D2:D19)</f>
+        <v>360</v>
       </c>
       <c r="E20" s="3">
-        <f>AVERAGE(E2:E18)</f>
-        <v>15.117647058823529</v>
+        <f>SUM(E2:E19)</f>
+        <v>258</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28412256267409469</v>
+        <v>0.28333333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B21" s="3">
+        <f>AVERAGE(B2:B19)</f>
+        <v>14.944444444444445</v>
+      </c>
+      <c r="C21" s="3">
+        <f>AVERAGE(C2:C19)</f>
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D21" s="3">
+        <f>AVERAGE(D2:D19)</f>
+        <v>20</v>
+      </c>
+      <c r="E21" s="3">
+        <f>AVERAGE(E2:E19)</f>
+        <v>14.333333333333334</v>
+      </c>
+      <c r="F21" s="4">
+        <f>(D21-E21)/D21</f>
+        <v>0.28333333333333333</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:F18">
+  <conditionalFormatting sqref="F2:F19">
     <cfRule type="iconSet" priority="32">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -10763,21 +10907,21 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10797,7 +10941,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -10817,7 +10961,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -10831,7 +10975,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10845,7 +10989,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -10859,8 +11003,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -10880,7 +11024,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -10894,7 +11038,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -10914,7 +11058,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -10934,7 +11078,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -10954,7 +11098,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -10968,7 +11112,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -10982,7 +11126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -11002,7 +11146,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -11016,7 +11160,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -11030,7 +11174,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -11044,7 +11188,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -11064,7 +11208,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -11078,7 +11222,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -11092,7 +11236,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -11112,7 +11256,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -11126,7 +11270,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -11140,7 +11284,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -11160,7 +11304,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -11174,7 +11318,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -11194,7 +11338,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11208,7 +11352,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>227</v>
       </c>
@@ -11242,21 +11386,21 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11276,7 +11420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -11296,7 +11440,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -11316,7 +11460,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -11330,7 +11474,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -11350,7 +11494,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -11370,7 +11514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>32</v>
       </c>
@@ -11384,7 +11528,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -11418,21 +11562,21 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11452,7 +11596,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -11472,7 +11616,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -11492,7 +11636,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -11506,7 +11650,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -11520,7 +11664,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -11540,7 +11684,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -11554,7 +11698,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -11574,7 +11718,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -11588,7 +11732,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -11602,7 +11746,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -11622,7 +11766,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -11642,7 +11786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -11656,7 +11800,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -11670,7 +11814,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -11684,7 +11828,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -11704,7 +11848,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -11724,7 +11868,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>264</v>
       </c>
@@ -11744,7 +11888,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -11758,7 +11902,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11772,7 +11916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -11786,7 +11930,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -11800,7 +11944,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>270</v>
       </c>
@@ -11820,7 +11964,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -11834,7 +11978,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -11848,7 +11992,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -11862,7 +12006,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -11882,7 +12026,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -11896,7 +12040,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -11916,7 +12060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -11930,7 +12074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -11944,7 +12088,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -11964,7 +12108,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -11978,7 +12122,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>280</v>
       </c>
@@ -11998,7 +12142,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -12012,7 +12156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>19</v>
       </c>
@@ -12026,7 +12170,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>283</v>
       </c>
@@ -12046,7 +12190,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -12060,7 +12204,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -12074,7 +12218,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>287</v>
       </c>
@@ -12094,7 +12238,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -12108,7 +12252,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12122,7 +12266,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -12136,7 +12280,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>294</v>
       </c>
@@ -12170,21 +12314,21 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12204,7 +12348,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -12224,7 +12368,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -12244,7 +12388,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -12258,7 +12402,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -12278,8 +12422,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -12299,7 +12443,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -12319,7 +12463,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -12333,7 +12477,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -12353,7 +12497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -12367,7 +12511,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -12381,7 +12525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -12401,7 +12545,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -12415,7 +12559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -12429,7 +12573,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -12449,7 +12593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -12463,7 +12607,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -12477,7 +12621,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -12497,7 +12641,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -12511,7 +12655,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -12525,7 +12669,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -12539,7 +12683,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -12553,7 +12697,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>708</v>
       </c>
@@ -12573,7 +12717,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -12593,7 +12737,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -12607,7 +12751,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -12621,7 +12765,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -12635,7 +12779,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -12649,7 +12793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -12669,7 +12813,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -12683,7 +12827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -12697,7 +12841,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -12711,7 +12855,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>332</v>
       </c>
@@ -12731,7 +12875,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -12745,7 +12889,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -12759,7 +12903,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -12779,7 +12923,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -12799,7 +12943,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>33</v>
       </c>
@@ -12813,7 +12957,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -12833,7 +12977,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -12853,7 +12997,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>275</v>
       </c>
@@ -12873,7 +13017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -12887,7 +13031,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -12901,7 +13045,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -12915,7 +13059,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -12935,7 +13079,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -12955,7 +13099,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>33</v>
       </c>
@@ -12969,7 +13113,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -12983,7 +13127,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -13003,7 +13147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>42</v>
       </c>
@@ -13017,7 +13161,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -13045,21 +13189,21 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13079,7 +13223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13099,7 +13243,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -13119,7 +13263,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -13139,7 +13283,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -13153,8 +13297,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -13174,7 +13318,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -13194,7 +13338,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -13208,7 +13352,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -13228,7 +13372,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -13242,7 +13386,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -13256,7 +13400,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>42</v>
       </c>
@@ -13270,7 +13414,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -13284,7 +13428,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -13304,7 +13448,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>368</v>
       </c>
@@ -13324,7 +13468,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -13344,7 +13488,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -13358,7 +13502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>48</v>
       </c>
@@ -13372,7 +13516,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -13386,7 +13530,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>708</v>
       </c>
@@ -13406,7 +13550,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -13426,7 +13570,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -13440,7 +13584,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>42</v>
       </c>
@@ -13454,7 +13598,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -13468,7 +13612,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>379</v>
       </c>
@@ -13488,7 +13632,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -13502,7 +13646,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -13516,7 +13660,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -13530,7 +13674,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -13550,7 +13694,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>42</v>
       </c>
@@ -13564,7 +13708,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -13578,7 +13722,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -13592,7 +13736,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -13612,7 +13756,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -13626,7 +13770,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -13640,7 +13784,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>390</v>
       </c>
@@ -13660,7 +13804,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>275</v>
       </c>
@@ -13680,7 +13824,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -13700,7 +13844,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -13714,7 +13858,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -13728,7 +13872,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -13742,7 +13886,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -13762,7 +13906,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -13776,7 +13920,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -13790,7 +13934,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -13810,7 +13954,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -13824,7 +13968,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -13844,7 +13988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>42</v>
       </c>
@@ -13858,7 +14002,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -13886,21 +14030,21 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13920,7 +14064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13940,7 +14084,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -13954,7 +14098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -13968,7 +14112,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -13988,7 +14132,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -14002,7 +14146,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -14016,7 +14160,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -14030,8 +14174,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -14051,7 +14195,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -14065,7 +14209,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -14079,7 +14223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -14093,7 +14237,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -14107,7 +14251,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -14121,7 +14265,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -14141,7 +14285,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -14155,7 +14299,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -14175,7 +14319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>618</v>
       </c>
@@ -14195,7 +14339,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -14215,7 +14359,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -14229,7 +14373,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -14243,7 +14387,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>309</v>
       </c>
@@ -14263,7 +14407,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -14280,7 +14424,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>708</v>
       </c>
@@ -14300,7 +14444,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -14320,7 +14464,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -14334,7 +14478,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -14348,7 +14492,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>415</v>
       </c>
@@ -14368,7 +14512,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -14382,7 +14526,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -14396,7 +14540,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -14416,7 +14560,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -14430,7 +14574,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -14444,7 +14588,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -14458,7 +14602,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -14478,7 +14622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>42</v>
       </c>
@@ -14492,7 +14636,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -14506,7 +14650,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -14520,7 +14664,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -14534,7 +14678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -14554,7 +14698,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -14574,7 +14718,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -14588,7 +14732,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -14602,7 +14746,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -14622,7 +14766,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14636,7 +14780,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -14650,7 +14794,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -14670,7 +14814,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>14</v>
       </c>
@@ -14684,7 +14828,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -14698,7 +14842,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -14718,7 +14862,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>42</v>
       </c>
@@ -14732,7 +14876,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -14746,7 +14890,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>14</v>
       </c>
@@ -14760,7 +14904,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -14780,7 +14924,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -14794,7 +14938,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -14814,7 +14958,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -14828,7 +14972,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>14</v>
       </c>
@@ -14842,7 +14986,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>432</v>
       </c>
@@ -14862,7 +15006,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -14876,7 +15020,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -14890,7 +15034,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>435</v>
       </c>
@@ -14910,7 +15054,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>14</v>
       </c>
@@ -14924,7 +15068,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>19</v>
       </c>
@@ -14952,21 +15096,21 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14986,7 +15130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -15006,7 +15150,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -15020,7 +15164,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -15034,7 +15178,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -15048,7 +15192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -15068,7 +15212,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>618</v>
       </c>
@@ -15088,7 +15232,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -15102,7 +15246,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -15116,7 +15260,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -15130,7 +15274,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -15150,7 +15294,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -15164,7 +15308,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -15184,7 +15328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>443</v>
       </c>
@@ -15204,7 +15348,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -15221,7 +15365,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>445</v>
       </c>
@@ -15232,7 +15376,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>708</v>
       </c>
@@ -15252,7 +15396,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -15266,7 +15410,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -15280,7 +15424,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -15300,7 +15444,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -15314,7 +15458,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -15334,7 +15478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>449</v>
       </c>
@@ -15354,7 +15498,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -15368,7 +15512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -15382,7 +15526,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -15396,7 +15540,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -15416,7 +15560,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -15430,7 +15574,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -15444,7 +15588,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -15464,7 +15608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -15478,7 +15622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -15498,7 +15642,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -15518,7 +15662,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -15538,7 +15682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -15552,7 +15696,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -15572,7 +15716,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -15586,7 +15730,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -15600,7 +15744,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -15620,7 +15764,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>42</v>
       </c>
@@ -15634,7 +15778,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -15667,21 +15811,21 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15701,7 +15845,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -15721,7 +15865,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -15735,7 +15879,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -15755,7 +15899,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -15769,7 +15913,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -15789,7 +15933,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>462</v>
       </c>
@@ -15809,7 +15953,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>618</v>
       </c>
@@ -15829,7 +15973,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -15843,7 +15987,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -15857,7 +16001,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -15871,7 +16015,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -15891,7 +16035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -15905,7 +16049,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -15919,7 +16063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -15933,7 +16077,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -15947,7 +16091,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>309</v>
       </c>
@@ -15967,7 +16111,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -15981,7 +16125,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>708</v>
       </c>
@@ -16001,7 +16145,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16015,7 +16159,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -16035,7 +16179,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -16055,7 +16199,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -16069,7 +16213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -16083,7 +16227,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -16097,7 +16241,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -16117,7 +16261,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -16131,7 +16275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -16145,7 +16289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -16159,7 +16303,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -16179,7 +16323,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -16193,7 +16337,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -16207,7 +16351,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -16221,7 +16365,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -16235,7 +16379,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -16255,7 +16399,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -16269,7 +16413,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -16283,7 +16427,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -16303,7 +16447,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -16317,7 +16461,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -16331,7 +16475,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -16345,7 +16489,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -16359,7 +16503,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -16379,7 +16523,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -16399,7 +16543,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -16413,7 +16557,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -16427,7 +16571,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -16447,7 +16591,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>484</v>
       </c>
@@ -16467,7 +16611,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>14</v>
       </c>
@@ -16481,7 +16625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>19</v>
       </c>
@@ -16495,7 +16639,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -16515,7 +16659,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -16529,7 +16673,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -16549,7 +16693,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -16563,7 +16707,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>435</v>
       </c>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8331" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73D1A949-4705-4C96-A324-1C2EDB0385DE}"/>
+  <xr:revisionPtr revIDLastSave="8332" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0379C81-2EE8-40C9-8004-EA106B41CE56}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -4694,7 +4694,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0E37DA49-E187-44AB-B98E-B264F7A3FB4B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4706,7 +4706,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{763BDCD1-F1D8-48FD-A680-2E8DB4329158}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5085,13 +5085,13 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
@@ -5204,13 +5204,13 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
@@ -5780,13 +5780,13 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
@@ -6231,13 +6231,13 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
@@ -7182,13 +7182,13 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
@@ -7945,13 +7945,13 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
@@ -8268,13 +8268,13 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
@@ -8944,13 +8944,13 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
@@ -9555,13 +9555,13 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
@@ -10342,8 +10342,8 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10429,7 +10429,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
@@ -10907,13 +10907,13 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
@@ -11386,13 +11386,13 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
@@ -11562,13 +11562,13 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
@@ -12314,13 +12314,13 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
@@ -13189,13 +13189,13 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
@@ -14030,13 +14030,13 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
@@ -15096,13 +15096,13 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
@@ -15811,13 +15811,13 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8332" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C0379C81-2EE8-40C9-8004-EA106B41CE56}"/>
+  <xr:revisionPtr revIDLastSave="8333" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D0C4B6B-00BC-4FC2-A324-8F27103778EF}"/>
   <bookViews>
-    <workbookView xWindow="3312" yWindow="3312" windowWidth="17280" windowHeight="8880" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -4779,10 +4779,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5086,20 +5082,20 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5119,7 +5115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -5139,7 +5135,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5153,7 +5149,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -5173,7 +5169,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -5187,10 +5183,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5205,20 +5201,20 @@
   <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5238,7 +5234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5258,7 +5254,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5272,7 +5268,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -5286,7 +5282,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5300,7 +5296,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -5314,7 +5310,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5334,7 +5330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -5351,7 +5347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5371,7 +5367,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -5385,7 +5381,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5399,7 +5395,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -5413,7 +5409,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -5427,7 +5423,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -5447,7 +5443,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -5467,7 +5463,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>632</v>
       </c>
@@ -5487,7 +5483,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -5501,7 +5497,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -5515,7 +5511,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>22</v>
       </c>
@@ -5529,7 +5525,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -5543,7 +5539,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>708</v>
       </c>
@@ -5563,7 +5559,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -5577,7 +5573,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -5597,7 +5593,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -5611,7 +5607,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5631,7 +5627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -5645,7 +5641,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -5679,7 +5675,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -5693,7 +5689,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -5727,7 +5723,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -5747,7 +5743,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>512</v>
       </c>
@@ -5781,20 +5777,20 @@
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5814,7 +5810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5834,7 +5830,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -5854,7 +5850,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -5874,7 +5870,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -5888,7 +5884,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5902,7 +5898,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -5916,7 +5912,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -5930,7 +5926,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -5950,7 +5946,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -5964,7 +5960,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -5978,7 +5974,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -5992,7 +5988,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -6006,7 +6002,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -6026,7 +6022,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -6040,7 +6036,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -6054,7 +6050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6068,7 +6064,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -6082,7 +6078,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -6096,7 +6092,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -6110,7 +6106,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -6130,7 +6126,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -6150,7 +6146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>527</v>
       </c>
@@ -6170,7 +6166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>124</v>
       </c>
@@ -6184,7 +6180,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -6201,7 +6197,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>530</v>
       </c>
@@ -6232,20 +6228,20 @@
   <dimension ref="A1:F77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6265,7 +6261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6285,7 +6281,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6305,7 +6301,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -6325,7 +6321,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6339,7 +6335,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -6353,7 +6349,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -6373,7 +6369,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -6387,7 +6383,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -6407,7 +6403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -6421,7 +6417,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6435,7 +6431,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -6449,7 +6445,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -6463,7 +6459,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -6477,7 +6473,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6494,7 +6490,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>363</v>
       </c>
@@ -6505,7 +6501,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -6525,7 +6521,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>708</v>
       </c>
@@ -6545,7 +6541,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -6559,7 +6555,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6573,7 +6569,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -6593,7 +6589,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6607,7 +6603,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6621,7 +6617,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>540</v>
       </c>
@@ -6641,7 +6637,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -6661,7 +6657,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -6675,7 +6671,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6689,7 +6685,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -6703,7 +6699,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -6717,7 +6713,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -6731,7 +6727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -6745,7 +6741,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -6765,7 +6761,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -6785,7 +6781,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -6799,7 +6795,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -6819,7 +6815,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -6833,7 +6829,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -6847,7 +6843,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -6861,7 +6857,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>23</v>
       </c>
@@ -6875,7 +6871,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -6895,7 +6891,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -6909,7 +6905,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -6929,7 +6925,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>42</v>
       </c>
@@ -6943,7 +6939,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -6957,7 +6953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -6971,7 +6967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -6985,7 +6981,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -7005,7 +7001,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -7025,7 +7021,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -7045,7 +7041,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -7059,7 +7055,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>14</v>
       </c>
@@ -7073,7 +7069,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -7093,7 +7089,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -7113,7 +7109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>124</v>
       </c>
@@ -7127,7 +7123,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>124</v>
       </c>
@@ -7141,7 +7137,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -7155,7 +7151,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>23</v>
       </c>
@@ -7183,20 +7179,20 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7216,7 +7212,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7236,7 +7232,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -7256,7 +7252,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7270,7 +7266,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -7290,7 +7286,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7304,7 +7300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7318,7 +7314,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -7332,7 +7328,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -7352,7 +7348,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7366,7 +7362,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>618</v>
       </c>
@@ -7386,7 +7382,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7406,7 +7402,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7420,7 +7416,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -7440,7 +7436,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7454,7 +7450,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -7468,7 +7464,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -7485,7 +7481,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>436</v>
       </c>
@@ -7496,7 +7492,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>708</v>
       </c>
@@ -7516,7 +7512,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7530,7 +7526,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -7544,7 +7540,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -7558,7 +7554,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>22</v>
       </c>
@@ -7572,7 +7568,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -7592,7 +7588,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -7612,7 +7608,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7626,7 +7622,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -7640,7 +7636,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -7654,7 +7650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -7668,7 +7664,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -7688,7 +7684,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -7708,7 +7704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -7722,7 +7718,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -7736,7 +7732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -7756,7 +7752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7776,7 +7772,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -7796,7 +7792,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -7810,7 +7806,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -7830,7 +7826,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7850,7 +7846,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -7870,7 +7866,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7884,7 +7880,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7898,7 +7894,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -7918,7 +7914,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7946,20 +7942,20 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7979,7 +7975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7999,7 +7995,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -8019,7 +8015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -8039,7 +8035,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>462</v>
       </c>
@@ -8059,7 +8055,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>580</v>
       </c>
@@ -8079,7 +8075,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -8093,7 +8089,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>585</v>
       </c>
@@ -8113,7 +8109,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -8133,7 +8129,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -8153,7 +8149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -8167,7 +8163,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8181,7 +8177,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8201,7 +8197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -8221,7 +8217,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8241,7 +8237,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>42</v>
       </c>
@@ -8269,20 +8265,20 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8302,7 +8298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>591</v>
       </c>
@@ -8322,7 +8318,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -8342,7 +8338,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>592</v>
       </c>
@@ -8362,7 +8358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -8382,7 +8378,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -8402,7 +8398,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -8416,7 +8412,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>309</v>
       </c>
@@ -8436,7 +8432,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8450,7 +8446,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -8464,7 +8460,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -8478,7 +8474,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>708</v>
       </c>
@@ -8498,7 +8494,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8512,7 +8508,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8532,7 +8528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -8546,7 +8542,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -8560,7 +8556,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>603</v>
       </c>
@@ -8580,7 +8576,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -8594,7 +8590,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -8608,7 +8604,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>22</v>
       </c>
@@ -8622,7 +8618,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -8642,7 +8638,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -8656,7 +8652,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8670,7 +8666,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8684,7 +8680,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -8704,7 +8700,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -8718,7 +8714,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8732,7 +8728,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>606</v>
       </c>
@@ -8752,7 +8748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -8766,7 +8762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -8786,7 +8782,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8800,7 +8796,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>611</v>
       </c>
@@ -8820,7 +8816,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -8840,7 +8836,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -8854,7 +8850,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -8868,7 +8864,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>618</v>
       </c>
@@ -8888,7 +8884,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -8902,7 +8898,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>619</v>
       </c>
@@ -8919,7 +8915,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>576</v>
       </c>
@@ -8945,20 +8941,20 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8978,7 +8974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -8998,7 +8994,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>624</v>
       </c>
@@ -9018,7 +9014,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -9032,7 +9028,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -9046,7 +9042,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -9060,7 +9056,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -9074,7 +9070,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -9094,7 +9090,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -9114,7 +9110,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -9128,7 +9124,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>632</v>
       </c>
@@ -9148,7 +9144,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>708</v>
       </c>
@@ -9168,7 +9164,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -9188,7 +9184,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -9208,7 +9204,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -9228,7 +9224,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -9242,7 +9238,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9256,7 +9252,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -9270,7 +9266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -9284,7 +9280,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>642</v>
       </c>
@@ -9304,7 +9300,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -9324,7 +9320,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -9344,7 +9340,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>645</v>
       </c>
@@ -9364,7 +9360,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -9378,7 +9374,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -9398,7 +9394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9412,7 +9408,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>603</v>
       </c>
@@ -9432,7 +9428,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -9446,7 +9442,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>653</v>
       </c>
@@ -9466,7 +9462,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -9480,7 +9476,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>656</v>
       </c>
@@ -9500,7 +9496,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -9514,7 +9510,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -9528,7 +9524,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9556,20 +9552,20 @@
   <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9589,7 +9585,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -9609,7 +9605,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>91</v>
       </c>
@@ -9629,7 +9625,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
@@ -9649,7 +9645,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>666</v>
       </c>
@@ -9669,7 +9665,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -9683,7 +9679,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -9697,7 +9693,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -9717,7 +9713,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -9731,7 +9727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -9745,7 +9741,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>618</v>
       </c>
@@ -9765,7 +9761,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -9785,7 +9781,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>632</v>
       </c>
@@ -9805,7 +9801,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -9819,7 +9815,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>708</v>
       </c>
@@ -9839,7 +9835,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>680</v>
       </c>
@@ -9859,7 +9855,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="C26" t="s">
         <v>14</v>
@@ -9874,7 +9870,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="C27" t="s">
         <v>19</v>
@@ -9889,7 +9885,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="C28" t="s">
         <v>22</v>
@@ -9904,7 +9900,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="C29" t="s">
         <v>23</v>
@@ -9919,7 +9915,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -9939,7 +9935,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>42</v>
       </c>
@@ -9953,7 +9949,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>687</v>
       </c>
@@ -9973,7 +9969,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -9987,7 +9983,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -10001,7 +9997,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -10015,7 +10011,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>692</v>
       </c>
@@ -10035,7 +10031,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>42</v>
       </c>
@@ -10049,7 +10045,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10063,7 +10059,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10077,7 +10073,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -10097,7 +10093,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>42</v>
       </c>
@@ -10111,7 +10107,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -10131,7 +10127,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>645</v>
       </c>
@@ -10151,7 +10147,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10165,7 +10161,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -10179,7 +10175,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -10199,7 +10195,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -10213,7 +10209,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -10227,7 +10223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -10247,7 +10243,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10261,7 +10257,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -10275,7 +10271,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -10295,7 +10291,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>653</v>
       </c>
@@ -10315,7 +10311,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -10343,20 +10339,20 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10376,7 +10372,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>106</v>
       </c>
@@ -10396,7 +10392,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -10424,20 +10420,20 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10457,7 +10453,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -10478,7 +10474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -10499,7 +10495,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -10520,7 +10516,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -10541,7 +10537,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -10562,7 +10558,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -10583,7 +10579,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -10604,7 +10600,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -10625,7 +10621,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -10646,7 +10642,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -10667,7 +10663,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -10688,7 +10684,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -10709,7 +10705,7 @@
         <v>0.48648648648648651</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -10730,7 +10726,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -10751,7 +10747,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -10772,7 +10768,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -10793,7 +10789,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -10814,7 +10810,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2024</v>
       </c>
@@ -10835,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -10860,7 +10856,7 @@
         <v>0.28333333333333333</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>179</v>
       </c>
@@ -10908,20 +10904,20 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10941,7 +10937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -10961,7 +10957,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -10975,7 +10971,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -10989,7 +10985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -11003,8 +10999,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -11024,7 +11020,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -11038,7 +11034,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -11058,7 +11054,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -11078,7 +11074,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -11098,7 +11094,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11112,7 +11108,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -11126,7 +11122,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -11146,7 +11142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -11160,7 +11156,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -11174,7 +11170,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -11188,7 +11184,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -11208,7 +11204,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -11222,7 +11218,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -11236,7 +11232,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -11256,7 +11252,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -11270,7 +11266,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -11284,7 +11280,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -11304,7 +11300,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -11318,7 +11314,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -11338,7 +11334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11352,7 +11348,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>227</v>
       </c>
@@ -11387,20 +11383,20 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11420,7 +11416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -11440,7 +11436,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -11460,7 +11456,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -11474,7 +11470,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -11494,7 +11490,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -11514,7 +11510,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>32</v>
       </c>
@@ -11528,7 +11524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -11563,20 +11559,20 @@
   <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11596,7 +11592,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -11616,7 +11612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -11636,7 +11632,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -11650,7 +11646,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -11664,7 +11660,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -11684,7 +11680,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -11698,7 +11694,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -11718,7 +11714,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -11732,7 +11728,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -11746,7 +11742,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -11766,7 +11762,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -11786,7 +11782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -11800,7 +11796,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -11814,7 +11810,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -11828,7 +11824,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -11848,7 +11844,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -11868,7 +11864,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>264</v>
       </c>
@@ -11888,7 +11884,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -11902,7 +11898,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -11916,7 +11912,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -11930,7 +11926,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -11944,7 +11940,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>270</v>
       </c>
@@ -11964,7 +11960,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -11978,7 +11974,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -11992,7 +11988,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -12006,7 +12002,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -12026,7 +12022,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -12040,7 +12036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -12060,7 +12056,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -12074,7 +12070,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -12088,7 +12084,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -12108,7 +12104,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -12122,7 +12118,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>280</v>
       </c>
@@ -12142,7 +12138,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -12156,7 +12152,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>19</v>
       </c>
@@ -12170,7 +12166,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>283</v>
       </c>
@@ -12190,7 +12186,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -12204,7 +12200,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -12218,7 +12214,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>287</v>
       </c>
@@ -12238,7 +12234,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -12252,7 +12248,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12266,7 +12262,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -12280,7 +12276,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>294</v>
       </c>
@@ -12315,20 +12311,20 @@
   <dimension ref="A1:F71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12348,7 +12344,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -12368,7 +12364,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -12388,7 +12384,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -12402,7 +12398,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -12422,8 +12418,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -12443,7 +12439,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -12463,7 +12459,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -12477,7 +12473,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -12497,7 +12493,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -12511,7 +12507,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -12525,7 +12521,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -12545,7 +12541,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -12559,7 +12555,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -12573,7 +12569,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -12593,7 +12589,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -12607,7 +12603,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -12621,7 +12617,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -12641,7 +12637,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -12655,7 +12651,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -12669,7 +12665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -12683,7 +12679,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -12697,7 +12693,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>708</v>
       </c>
@@ -12717,7 +12713,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -12737,7 +12733,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -12751,7 +12747,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -12765,7 +12761,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -12779,7 +12775,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -12793,7 +12789,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -12813,7 +12809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -12827,7 +12823,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -12841,7 +12837,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -12855,7 +12851,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>332</v>
       </c>
@@ -12875,7 +12871,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -12889,7 +12885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -12903,7 +12899,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -12923,7 +12919,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -12943,7 +12939,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>33</v>
       </c>
@@ -12957,7 +12953,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -12977,7 +12973,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -12997,7 +12993,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>275</v>
       </c>
@@ -13017,7 +13013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -13031,7 +13027,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -13045,7 +13041,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -13059,7 +13055,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -13079,7 +13075,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -13099,7 +13095,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>33</v>
       </c>
@@ -13113,7 +13109,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -13127,7 +13123,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -13147,7 +13143,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>42</v>
       </c>
@@ -13161,7 +13157,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -13190,20 +13186,20 @@
   <dimension ref="A1:F68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13223,7 +13219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13243,7 +13239,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -13263,7 +13259,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -13283,7 +13279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -13297,8 +13293,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -13318,7 +13314,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -13338,7 +13334,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -13352,7 +13348,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -13372,7 +13368,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -13386,7 +13382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -13400,7 +13396,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>42</v>
       </c>
@@ -13414,7 +13410,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -13428,7 +13424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -13448,7 +13444,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>368</v>
       </c>
@@ -13468,7 +13464,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -13488,7 +13484,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -13502,7 +13498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>48</v>
       </c>
@@ -13516,7 +13512,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -13530,7 +13526,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>708</v>
       </c>
@@ -13550,7 +13546,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -13570,7 +13566,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -13584,7 +13580,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>42</v>
       </c>
@@ -13598,7 +13594,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -13612,7 +13608,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>379</v>
       </c>
@@ -13632,7 +13628,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -13646,7 +13642,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -13660,7 +13656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -13674,7 +13670,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -13694,7 +13690,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>42</v>
       </c>
@@ -13708,7 +13704,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -13722,7 +13718,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -13736,7 +13732,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -13756,7 +13752,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -13770,7 +13766,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -13784,7 +13780,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>390</v>
       </c>
@@ -13804,7 +13800,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>275</v>
       </c>
@@ -13824,7 +13820,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -13844,7 +13840,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -13858,7 +13854,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -13872,7 +13868,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -13886,7 +13882,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -13906,7 +13902,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -13920,7 +13916,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -13934,7 +13930,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -13954,7 +13950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -13968,7 +13964,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -13988,7 +13984,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>42</v>
       </c>
@@ -14002,7 +13998,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -14031,20 +14027,20 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14064,7 +14060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -14084,7 +14080,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -14098,7 +14094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -14112,7 +14108,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -14132,7 +14128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -14146,7 +14142,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -14160,7 +14156,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -14174,8 +14170,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -14195,7 +14191,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -14209,7 +14205,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -14223,7 +14219,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -14237,7 +14233,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -14251,7 +14247,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -14265,7 +14261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -14285,7 +14281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -14299,7 +14295,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -14319,7 +14315,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>618</v>
       </c>
@@ -14339,7 +14335,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -14359,7 +14355,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -14373,7 +14369,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -14387,7 +14383,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>309</v>
       </c>
@@ -14407,7 +14403,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -14424,7 +14420,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>708</v>
       </c>
@@ -14444,7 +14440,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -14464,7 +14460,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -14478,7 +14474,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -14492,7 +14488,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>415</v>
       </c>
@@ -14512,7 +14508,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -14526,7 +14522,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -14540,7 +14536,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -14560,7 +14556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -14574,7 +14570,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -14588,7 +14584,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -14602,7 +14598,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -14622,7 +14618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>42</v>
       </c>
@@ -14636,7 +14632,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -14650,7 +14646,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -14664,7 +14660,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -14678,7 +14674,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -14698,7 +14694,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -14718,7 +14714,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -14732,7 +14728,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -14746,7 +14742,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -14766,7 +14762,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -14780,7 +14776,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -14794,7 +14790,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -14814,7 +14810,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>14</v>
       </c>
@@ -14828,7 +14824,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -14842,7 +14838,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -14862,7 +14858,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>42</v>
       </c>
@@ -14876,7 +14872,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -14890,7 +14886,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C71" t="s">
         <v>14</v>
       </c>
@@ -14904,7 +14900,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -14924,7 +14920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -14938,7 +14934,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -14958,7 +14954,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -14972,7 +14968,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
         <v>14</v>
       </c>
@@ -14986,7 +14982,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>432</v>
       </c>
@@ -15006,7 +15002,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -15020,7 +15016,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -15034,7 +15030,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>435</v>
       </c>
@@ -15054,7 +15050,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C85" t="s">
         <v>14</v>
       </c>
@@ -15068,7 +15064,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C86" t="s">
         <v>19</v>
       </c>
@@ -15097,20 +15093,20 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15130,7 +15126,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -15150,7 +15146,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -15164,7 +15160,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -15178,7 +15174,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -15192,7 +15188,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -15212,7 +15208,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>618</v>
       </c>
@@ -15232,7 +15228,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -15246,7 +15242,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -15260,7 +15256,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -15274,7 +15270,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -15294,7 +15290,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -15308,7 +15304,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -15328,7 +15324,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>443</v>
       </c>
@@ -15348,7 +15344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -15365,7 +15361,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>445</v>
       </c>
@@ -15376,7 +15372,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>708</v>
       </c>
@@ -15396,7 +15392,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -15410,7 +15406,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -15424,7 +15420,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -15444,7 +15440,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -15458,7 +15454,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -15478,7 +15474,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>449</v>
       </c>
@@ -15498,7 +15494,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -15512,7 +15508,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -15526,7 +15522,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -15540,7 +15536,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -15560,7 +15556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -15574,7 +15570,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -15588,7 +15584,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -15608,7 +15604,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -15622,7 +15618,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -15642,7 +15638,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -15662,7 +15658,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -15682,7 +15678,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -15696,7 +15692,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -15716,7 +15712,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -15730,7 +15726,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -15744,7 +15740,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -15764,7 +15760,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
         <v>42</v>
       </c>
@@ -15778,7 +15774,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -15812,20 +15808,20 @@
   <dimension ref="A1:F75"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:A19 F1:F19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15845,7 +15841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -15865,7 +15861,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -15879,7 +15875,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -15899,7 +15895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -15913,7 +15909,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -15933,7 +15929,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>462</v>
       </c>
@@ -15953,7 +15949,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>618</v>
       </c>
@@ -15973,7 +15969,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -15987,7 +15983,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -16001,7 +15997,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -16015,7 +16011,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -16035,7 +16031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -16049,7 +16045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -16063,7 +16059,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -16077,7 +16073,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -16091,7 +16087,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>309</v>
       </c>
@@ -16111,7 +16107,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -16125,7 +16121,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>708</v>
       </c>
@@ -16145,7 +16141,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16159,7 +16155,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -16179,7 +16175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -16199,7 +16195,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -16213,7 +16209,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -16227,7 +16223,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -16241,7 +16237,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -16261,7 +16257,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -16275,7 +16271,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -16289,7 +16285,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -16303,7 +16299,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -16323,7 +16319,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -16337,7 +16333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -16351,7 +16347,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -16365,7 +16361,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -16379,7 +16375,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -16399,7 +16395,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -16413,7 +16409,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -16427,7 +16423,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -16447,7 +16443,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -16461,7 +16457,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -16475,7 +16471,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -16489,7 +16485,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -16503,7 +16499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -16523,7 +16519,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -16543,7 +16539,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -16557,7 +16553,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -16571,7 +16567,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -16591,7 +16587,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>484</v>
       </c>
@@ -16611,7 +16607,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>14</v>
       </c>
@@ -16625,7 +16621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>19</v>
       </c>
@@ -16639,7 +16635,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -16659,7 +16655,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -16673,7 +16669,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -16693,7 +16689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -16707,7 +16703,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>435</v>
       </c>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8333" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D0C4B6B-00BC-4FC2-A324-8F27103778EF}"/>
+  <xr:revisionPtr revIDLastSave="8344" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1C9B87C-E385-4177-81A8-4409E170FB80}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3134" uniqueCount="711">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="713">
   <si>
     <t>ROUND</t>
   </si>
@@ -2186,6 +2186,12 @@
   </si>
   <si>
     <t>Kateřina Siniaková (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Yue Yuan (CHINA)</t>
+  </si>
+  <si>
+    <t>6-4 3-6 7-6(5)</t>
   </si>
 </sst>
 </file>
@@ -2713,7 +2719,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3278,7 +3284,7 @@
                   <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4694,7 +4700,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0E37DA49-E187-44AB-B98E-B264F7A3FB4B}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -4706,7 +4712,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{763BDCD1-F1D8-48FD-A680-2E8DB4329158}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="82" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -4779,10 +4785,14 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4820,7 +4830,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4926,7 +4936,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5068,7 +5078,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5081,7 +5091,7 @@
   </sheetPr>
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5200,7 +5210,7 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5776,7 +5786,7 @@
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6227,7 +6237,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7178,7 +7188,7 @@
   </sheetPr>
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -7941,7 +7951,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8264,7 +8274,7 @@
   </sheetPr>
   <dimension ref="A1:F55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8940,7 +8950,7 @@
   </sheetPr>
   <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -9551,7 +9561,7 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10336,9 +10346,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -10349,7 +10359,7 @@
     <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -10404,6 +10414,26 @@
       </c>
       <c r="F3" t="s">
         <v>709</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>711</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -10420,7 +10450,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10815,7 +10845,7 @@
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10824,11 +10854,11 @@
         <v>1</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10837,7 +10867,7 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B2:B19)</f>
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
@@ -10849,11 +10879,11 @@
       </c>
       <c r="E20" s="3">
         <f>SUM(E2:E19)</f>
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28333333333333333</v>
+        <v>0.28055555555555556</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10862,7 +10892,7 @@
       </c>
       <c r="B21" s="3">
         <f>AVERAGE(B2:B19)</f>
-        <v>14.944444444444445</v>
+        <v>15</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C2:C19)</f>
@@ -10874,11 +10904,11 @@
       </c>
       <c r="E21" s="3">
         <f>AVERAGE(E2:E19)</f>
-        <v>14.333333333333334</v>
+        <v>14.388888888888889</v>
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.28333333333333333</v>
+        <v>0.28055555555555556</v>
       </c>
     </row>
   </sheetData>
@@ -10903,7 +10933,7 @@
   </sheetPr>
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11382,7 +11412,7 @@
   </sheetPr>
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -11558,7 +11588,7 @@
   </sheetPr>
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -12310,7 +12340,7 @@
   </sheetPr>
   <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -13185,7 +13215,7 @@
   </sheetPr>
   <dimension ref="A1:F68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -14026,7 +14056,7 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15092,7 +15122,7 @@
   </sheetPr>
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -15807,7 +15837,7 @@
   </sheetPr>
   <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8344" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E1C9B87C-E385-4177-81A8-4409E170FB80}"/>
+  <xr:revisionPtr revIDLastSave="8360" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF50A23-2CA0-4DA6-B8F0-A42CB690D547}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3140" uniqueCount="713">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="717">
   <si>
     <t>ROUND</t>
   </si>
@@ -2192,6 +2192,18 @@
   </si>
   <si>
     <t>6-4 3-6 7-6(5)</t>
+  </si>
+  <si>
+    <t>Anna Kalinskaya (RUSSIA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-7(10) 6-1 6-4 </t>
+  </si>
+  <si>
+    <t>Daria Kasatkina (RUSSIA)</t>
+  </si>
+  <si>
+    <t>Olivia Gadecki (AUSTRALIA)</t>
   </si>
 </sst>
 </file>
@@ -2563,7 +2575,7 @@
                   <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2719,7 +2731,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3284,7 +3296,7 @@
                   <c:v>0.20833333333333334</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-1</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9561,8 +9573,8 @@
   </sheetPr>
   <dimension ref="A1:F64"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C39" sqref="C39:C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10346,20 +10358,20 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E7" activeCellId="1" sqref="E2 E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -10434,6 +10446,54 @@
       </c>
       <c r="F5" t="s">
         <v>712</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>716</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" t="s">
+        <v>715</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>713</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -10845,20 +10905,20 @@
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10867,7 +10927,7 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B2:B19)</f>
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
@@ -10875,15 +10935,15 @@
       </c>
       <c r="D20" s="3">
         <f>SUM(D2:D19)</f>
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E20" s="3">
         <f>SUM(E2:E19)</f>
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28055555555555556</v>
+        <v>0.28176795580110497</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10892,7 +10952,7 @@
       </c>
       <c r="B21" s="3">
         <f>AVERAGE(B2:B19)</f>
-        <v>15</v>
+        <v>15.055555555555555</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C2:C19)</f>
@@ -10900,15 +10960,15 @@
       </c>
       <c r="D21" s="3">
         <f>AVERAGE(D2:D19)</f>
-        <v>20</v>
+        <v>20.111111111111111</v>
       </c>
       <c r="E21" s="3">
         <f>AVERAGE(E2:E19)</f>
-        <v>14.388888888888889</v>
+        <v>14.444444444444445</v>
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.28055555555555556</v>
+        <v>0.28176795580110497</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8360" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FF50A23-2CA0-4DA6-B8F0-A42CB690D547}"/>
+  <xr:revisionPtr revIDLastSave="8381" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF8B925-1B16-41A0-924D-AE84008D418D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3154" uniqueCount="717">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="721">
   <si>
     <t>ROUND</t>
   </si>
@@ -2161,9 +2161,6 @@
     <t>TENNIS IN THE LAND</t>
   </si>
   <si>
-    <t>Sara Sorribes Tormo</t>
-  </si>
-  <si>
     <t>Mirra Andreeva (RUSSIA)</t>
   </si>
   <si>
@@ -2204,6 +2201,21 @@
   </si>
   <si>
     <t>Olivia Gadecki (AUSTRALIA)</t>
+  </si>
+  <si>
+    <t>7-5, 6-4</t>
+  </si>
+  <si>
+    <t>Ann Li (USA)</t>
+  </si>
+  <si>
+    <t>Emiliana Arango (COLOMBIA)</t>
+  </si>
+  <si>
+    <t>Sara Sorribes Tormo (SPAIN)</t>
+  </si>
+  <si>
+    <t>QATAR OPEN</t>
   </si>
 </sst>
 </file>
@@ -2572,7 +2584,7 @@
                   <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>3</c:v>
@@ -2728,10 +2740,10 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3293,10 +3305,10 @@
                   <c:v>0.11764705882352941</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.20833333333333334</c:v>
+                  <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4802,9 +4814,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4842,7 +4854,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4948,7 +4960,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5090,7 +5102,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5563,7 +5575,7 @@
     </row>
     <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B28" t="s">
         <v>13</v>
@@ -6249,7 +6261,7 @@
   </sheetPr>
   <dimension ref="A1:F77"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -6545,7 +6557,7 @@
     </row>
     <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B25" t="s">
         <v>13</v>
@@ -7516,7 +7528,7 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B27" t="s">
         <v>13</v>
@@ -7963,7 +7975,7 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -8498,7 +8510,7 @@
     </row>
     <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B18" t="s">
         <v>13</v>
@@ -9168,7 +9180,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B17" t="s">
         <v>13</v>
@@ -9571,10 +9583,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:C41"/>
+      <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9839,7 +9851,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -10262,7 +10274,7 @@
         <v>16</v>
       </c>
       <c r="F57" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -10270,7 +10282,7 @@
         <v>14</v>
       </c>
       <c r="D58" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E58" s="6" t="s">
         <v>16</v>
@@ -10284,7 +10296,7 @@
         <v>19</v>
       </c>
       <c r="D59" t="s">
-        <v>702</v>
+        <v>719</v>
       </c>
       <c r="E59" s="7" t="s">
         <v>17</v>
@@ -10304,13 +10316,13 @@
         <v>58</v>
       </c>
       <c r="D61" t="s">
+        <v>704</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F61" t="s">
         <v>705</v>
-      </c>
-      <c r="E61" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F61" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -10324,7 +10336,7 @@
         <v>15</v>
       </c>
       <c r="D63" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>16</v>
@@ -10345,6 +10357,40 @@
       </c>
       <c r="F64" t="s">
         <v>524</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>656</v>
+      </c>
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>42</v>
+      </c>
+      <c r="D66" t="s">
+        <v>717</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C67" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" t="s">
+        <v>718</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F67" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -10358,10 +10404,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" activeCellId="1" sqref="E2 E7:E8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10405,7 +10451,7 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>16</v>
@@ -10419,13 +10465,13 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
       <c r="F3" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -10439,13 +10485,13 @@
         <v>15</v>
       </c>
       <c r="D5" t="s">
+        <v>710</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
         <v>711</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -10459,7 +10505,7 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>16</v>
@@ -10473,7 +10519,7 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>16</v>
@@ -10487,13 +10533,33 @@
         <v>15</v>
       </c>
       <c r="D9" t="s">
+        <v>712</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>713</v>
       </c>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>714</v>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>720</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -10884,20 +10950,20 @@
         <v>2023</v>
       </c>
       <c r="B18">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" si="0"/>
-        <v>0.20833333333333334</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -10905,7 +10971,7 @@
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10914,11 +10980,11 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.33333333333333331</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10927,7 +10993,7 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B2:B19)</f>
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
@@ -10935,15 +11001,15 @@
       </c>
       <c r="D20" s="3">
         <f>SUM(D2:D19)</f>
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="E20" s="3">
         <f>SUM(E2:E19)</f>
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28176795580110497</v>
+        <v>0.27823691460055094</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -10952,7 +11018,7 @@
       </c>
       <c r="B21" s="3">
         <f>AVERAGE(B2:B19)</f>
-        <v>15.055555555555555</v>
+        <v>15.166666666666666</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C2:C19)</f>
@@ -10960,15 +11026,15 @@
       </c>
       <c r="D21" s="3">
         <f>AVERAGE(D2:D19)</f>
-        <v>20.111111111111111</v>
+        <v>20.166666666666668</v>
       </c>
       <c r="E21" s="3">
         <f>AVERAGE(E2:E19)</f>
-        <v>14.444444444444445</v>
+        <v>14.555555555555555</v>
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.28176795580110497</v>
+        <v>0.278236914600551</v>
       </c>
     </row>
   </sheetData>
@@ -12785,7 +12851,7 @@
     </row>
     <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -13618,7 +13684,7 @@
     </row>
     <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -14512,7 +14578,7 @@
     </row>
     <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -15464,7 +15530,7 @@
     </row>
     <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -16213,7 +16279,7 @@
     </row>
     <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B26" t="s">
         <v>13</v>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8381" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7CF8B925-1B16-41A0-924D-AE84008D418D}"/>
+  <xr:revisionPtr revIDLastSave="8389" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B65A8BB8-A9A8-4089-9FED-3D0A06B40E3C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3170" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="721">
   <si>
     <t>ROUND</t>
   </si>
@@ -2743,7 +2743,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,7 +3308,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.33333333333333331</c:v>
+                  <c:v>-0.66666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8975,7 +8975,7 @@
   <dimension ref="A1:F50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="D39" sqref="D39:E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9585,7 +9585,7 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
@@ -10404,15 +10404,15 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
@@ -10560,6 +10560,26 @@
       </c>
       <c r="F11" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" t="s">
+        <v>651</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -10971,7 +10991,7 @@
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C19">
         <v>0</v>
@@ -10980,11 +11000,11 @@
         <v>3</v>
       </c>
       <c r="E19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>-0.33333333333333331</v>
+        <v>-0.66666666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -10993,7 +11013,7 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B2:B19)</f>
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
@@ -11005,11 +11025,11 @@
       </c>
       <c r="E20" s="3">
         <f>SUM(E2:E19)</f>
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.27823691460055094</v>
+        <v>0.27548209366391185</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11018,7 +11038,7 @@
       </c>
       <c r="B21" s="3">
         <f>AVERAGE(B2:B19)</f>
-        <v>15.166666666666666</v>
+        <v>15.222222222222221</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C2:C19)</f>
@@ -11030,11 +11050,11 @@
       </c>
       <c r="E21" s="3">
         <f>AVERAGE(E2:E19)</f>
-        <v>14.555555555555555</v>
+        <v>14.611111111111111</v>
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.278236914600551</v>
+        <v>0.27548209366391191</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8389" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B65A8BB8-A9A8-4089-9FED-3D0A06B40E3C}"/>
+  <xr:revisionPtr revIDLastSave="8398" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D3F0DB-D98B-404E-AEDB-E17761555BAF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="19305" windowHeight="17130" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3176" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="723">
   <si>
     <t>ROUND</t>
   </si>
@@ -2216,6 +2216,12 @@
   </si>
   <si>
     <t>QATAR OPEN</t>
+  </si>
+  <si>
+    <t>Tereza Martincová (CZECH REPUBLIC)</t>
+  </si>
+  <si>
+    <t>Anastajia Sevastova (LATVIA)</t>
   </si>
 </sst>
 </file>
@@ -2587,7 +2593,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2743,7 +2749,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,7 +3314,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.66666666666666663</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4814,9 +4820,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -4854,7 +4860,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4960,7 +4966,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -5102,7 +5108,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9585,8 +9591,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10404,10 +10410,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10582,6 +10588,40 @@
         <v>56</v>
       </c>
     </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>672</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" t="s">
+        <v>721</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>722</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -10596,7 +10636,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10991,20 +11031,20 @@
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>-0.66666666666666663</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11013,7 +11053,7 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B2:B19)</f>
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
@@ -11021,15 +11061,15 @@
       </c>
       <c r="D20" s="3">
         <f>SUM(D2:D19)</f>
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E20" s="3">
         <f>SUM(E2:E19)</f>
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.27548209366391185</v>
+        <v>0.27472527472527475</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11038,7 +11078,7 @@
       </c>
       <c r="B21" s="3">
         <f>AVERAGE(B2:B19)</f>
-        <v>15.222222222222221</v>
+        <v>15.277777777777779</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C2:C19)</f>
@@ -11046,15 +11086,15 @@
       </c>
       <c r="D21" s="3">
         <f>AVERAGE(D2:D19)</f>
-        <v>20.166666666666668</v>
+        <v>20.222222222222221</v>
       </c>
       <c r="E21" s="3">
         <f>AVERAGE(E2:E19)</f>
-        <v>14.611111111111111</v>
+        <v>14.666666666666666</v>
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.27548209366391191</v>
+        <v>0.27472527472527475</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8398" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4D3F0DB-D98B-404E-AEDB-E17761555BAF}"/>
+  <xr:revisionPtr revIDLastSave="8411" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1D3A4CF-CB0C-4089-AFE4-4785B9FA033E}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="19305" windowHeight="17130" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3186" uniqueCount="723">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="726">
   <si>
     <t>ROUND</t>
   </si>
@@ -2222,6 +2222,15 @@
   </si>
   <si>
     <t>Anastajia Sevastova (LATVIA)</t>
+  </si>
+  <si>
+    <t>Mayar Sherif (EGYPT)</t>
+  </si>
+  <si>
+    <t>6-0 7-5</t>
+  </si>
+  <si>
+    <t>2-6 6-4 6-4</t>
   </si>
 </sst>
 </file>
@@ -2593,7 +2602,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2749,7 +2758,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3314,7 +3323,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.5</c:v>
+                  <c:v>-0.16666666666666666</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10410,10 +10419,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E18" activeCellId="3" sqref="E2 E7:E8 E15 E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10622,6 +10631,54 @@
         <v>43</v>
       </c>
     </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>618</v>
+      </c>
+      <c r="B18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D18" t="s">
+        <v>723</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>409</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" t="s">
+        <v>714</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F20" t="s">
+        <v>725</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -10636,7 +10693,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11031,20 +11088,20 @@
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>-0.5</v>
+        <v>-0.16666666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -11053,7 +11110,7 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B2:B19)</f>
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
@@ -11061,15 +11118,15 @@
       </c>
       <c r="D20" s="3">
         <f>SUM(D2:D19)</f>
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E20" s="3">
         <f>SUM(E2:E19)</f>
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.27472527472527475</v>
+        <v>0.27595628415300544</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -11078,7 +11135,7 @@
       </c>
       <c r="B21" s="3">
         <f>AVERAGE(B2:B19)</f>
-        <v>15.277777777777779</v>
+        <v>15.333333333333334</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C2:C19)</f>
@@ -11086,15 +11143,15 @@
       </c>
       <c r="D21" s="3">
         <f>AVERAGE(D2:D19)</f>
-        <v>20.222222222222221</v>
+        <v>20.333333333333332</v>
       </c>
       <c r="E21" s="3">
         <f>AVERAGE(E2:E19)</f>
-        <v>14.666666666666666</v>
+        <v>14.722222222222221</v>
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.27472527472527475</v>
+        <v>0.27595628415300544</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8411" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1D3A4CF-CB0C-4089-AFE4-4785B9FA033E}"/>
+  <xr:revisionPtr revIDLastSave="8431" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747ABB0E-BF4E-4CD1-A7C8-0970A20764B0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3200" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="729">
   <si>
     <t>ROUND</t>
   </si>
@@ -2231,6 +2231,15 @@
   </si>
   <si>
     <t>2-6 6-4 6-4</t>
+  </si>
+  <si>
+    <t>Angelique Kerber (GERMANY)</t>
+  </si>
+  <si>
+    <t>Leylah Fernandez (CANADA)</t>
+  </si>
+  <si>
+    <t>Danielle Collins (USA)</t>
   </si>
 </sst>
 </file>
@@ -2602,7 +2611,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2758,7 +2767,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>7</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3323,7 +3332,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.16666666666666666</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4824,10 +4833,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -5134,17 +5139,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5164,7 +5169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -5184,7 +5189,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5198,7 +5203,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -5218,7 +5223,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -5232,10 +5237,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5253,17 +5258,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5283,7 +5288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5303,7 +5308,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5317,7 +5322,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -5331,7 +5336,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5345,7 +5350,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -5359,7 +5364,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5379,7 +5384,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -5396,7 +5401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5416,7 +5421,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -5430,7 +5435,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5444,7 +5449,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -5458,7 +5463,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -5472,7 +5477,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -5492,7 +5497,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -5512,7 +5517,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>632</v>
       </c>
@@ -5532,7 +5537,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -5546,7 +5551,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -5560,7 +5565,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>22</v>
       </c>
@@ -5574,7 +5579,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -5588,7 +5593,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>707</v>
       </c>
@@ -5608,7 +5613,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -5622,7 +5627,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -5642,7 +5647,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -5656,7 +5661,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5676,7 +5681,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -5690,7 +5695,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -5704,7 +5709,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -5724,7 +5729,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -5738,7 +5743,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5752,7 +5757,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -5772,7 +5777,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -5792,7 +5797,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>512</v>
       </c>
@@ -5829,17 +5834,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5859,7 +5864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5879,7 +5884,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -5899,7 +5904,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -5919,7 +5924,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -5933,7 +5938,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5947,7 +5952,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -5961,7 +5966,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -5975,7 +5980,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -5995,7 +6000,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -6009,7 +6014,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -6023,7 +6028,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -6037,7 +6042,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -6051,7 +6056,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -6071,7 +6076,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -6085,7 +6090,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -6099,7 +6104,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6113,7 +6118,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -6127,7 +6132,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -6141,7 +6146,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -6155,7 +6160,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -6175,7 +6180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -6195,7 +6200,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>527</v>
       </c>
@@ -6215,7 +6220,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>124</v>
       </c>
@@ -6229,7 +6234,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -6246,7 +6251,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D34" t="s">
         <v>530</v>
       </c>
@@ -6280,17 +6285,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6310,7 +6315,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6330,7 +6335,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6350,7 +6355,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -6370,7 +6375,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6384,7 +6389,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -6398,7 +6403,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -6418,7 +6423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -6432,7 +6437,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -6452,7 +6457,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -6466,7 +6471,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6480,7 +6485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -6494,7 +6499,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -6508,7 +6513,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -6522,7 +6527,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6539,7 +6544,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D21" t="s">
         <v>363</v>
       </c>
@@ -6550,7 +6555,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -6570,7 +6575,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>707</v>
       </c>
@@ -6590,7 +6595,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -6604,7 +6609,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6618,7 +6623,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -6638,7 +6643,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6652,7 +6657,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6666,7 +6671,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>540</v>
       </c>
@@ -6686,7 +6691,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -6706,7 +6711,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -6720,7 +6725,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6734,7 +6739,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -6748,7 +6753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -6762,7 +6767,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -6776,7 +6781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -6790,7 +6795,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -6810,7 +6815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -6830,7 +6835,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -6844,7 +6849,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -6864,7 +6869,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -6878,7 +6883,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -6892,7 +6897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -6906,7 +6911,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>23</v>
       </c>
@@ -6920,7 +6925,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -6940,7 +6945,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -6954,7 +6959,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -6974,7 +6979,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>42</v>
       </c>
@@ -6988,7 +6993,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7002,7 +7007,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7016,7 +7021,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -7030,7 +7035,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -7050,7 +7055,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -7070,7 +7075,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -7090,7 +7095,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -7104,7 +7109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>14</v>
       </c>
@@ -7118,7 +7123,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -7138,7 +7143,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -7158,7 +7163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>124</v>
       </c>
@@ -7172,7 +7177,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C75" t="s">
         <v>124</v>
       </c>
@@ -7186,7 +7191,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -7200,7 +7205,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>23</v>
       </c>
@@ -7231,17 +7236,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7261,7 +7266,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7281,7 +7286,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -7301,7 +7306,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7315,7 +7320,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -7335,7 +7340,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7349,7 +7354,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7363,7 +7368,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -7377,7 +7382,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -7397,7 +7402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7411,7 +7416,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>618</v>
       </c>
@@ -7431,7 +7436,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7451,7 +7456,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7465,7 +7470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -7485,7 +7490,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7499,7 +7504,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -7513,7 +7518,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -7530,7 +7535,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>436</v>
       </c>
@@ -7541,7 +7546,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>707</v>
       </c>
@@ -7561,7 +7566,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7575,7 +7580,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -7589,7 +7594,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -7603,7 +7608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>22</v>
       </c>
@@ -7617,7 +7622,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -7637,7 +7642,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -7657,7 +7662,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7671,7 +7676,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -7685,7 +7690,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -7699,7 +7704,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -7713,7 +7718,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -7733,7 +7738,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -7753,7 +7758,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -7767,7 +7772,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -7781,7 +7786,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -7801,7 +7806,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7821,7 +7826,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -7841,7 +7846,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -7855,7 +7860,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -7875,7 +7880,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7895,7 +7900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -7915,7 +7920,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7929,7 +7934,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7943,7 +7948,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -7963,7 +7968,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -7994,17 +7999,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8024,7 +8029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -8044,7 +8049,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -8064,7 +8069,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -8084,7 +8089,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>462</v>
       </c>
@@ -8104,7 +8109,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>580</v>
       </c>
@@ -8124,7 +8129,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -8138,7 +8143,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>585</v>
       </c>
@@ -8158,7 +8163,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -8178,7 +8183,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -8198,7 +8203,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -8212,7 +8217,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8226,7 +8231,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8246,7 +8251,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -8266,7 +8271,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8286,7 +8291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>42</v>
       </c>
@@ -8317,17 +8322,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8347,7 +8352,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>591</v>
       </c>
@@ -8367,7 +8372,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -8387,7 +8392,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>592</v>
       </c>
@@ -8407,7 +8412,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -8427,7 +8432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -8447,7 +8452,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -8461,7 +8466,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>309</v>
       </c>
@@ -8481,7 +8486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8495,7 +8500,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -8509,7 +8514,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -8523,7 +8528,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>707</v>
       </c>
@@ -8543,7 +8548,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8557,7 +8562,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8577,7 +8582,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -8591,7 +8596,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -8605,7 +8610,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>603</v>
       </c>
@@ -8625,7 +8630,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -8639,7 +8644,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -8653,7 +8658,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>22</v>
       </c>
@@ -8667,7 +8672,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -8687,7 +8692,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -8701,7 +8706,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8715,7 +8720,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8729,7 +8734,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -8749,7 +8754,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -8763,7 +8768,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8777,7 +8782,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>606</v>
       </c>
@@ -8797,7 +8802,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -8811,7 +8816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -8831,7 +8836,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8845,7 +8850,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>611</v>
       </c>
@@ -8865,7 +8870,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -8885,7 +8890,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -8899,7 +8904,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -8913,7 +8918,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>618</v>
       </c>
@@ -8933,7 +8938,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -8947,7 +8952,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>619</v>
       </c>
@@ -8964,7 +8969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>576</v>
       </c>
@@ -8993,17 +8998,17 @@
       <selection activeCell="D39" sqref="D39:E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9023,7 +9028,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -9043,7 +9048,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>624</v>
       </c>
@@ -9063,7 +9068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -9077,7 +9082,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -9091,7 +9096,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -9105,7 +9110,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -9119,7 +9124,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -9139,7 +9144,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -9159,7 +9164,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>632</v>
       </c>
@@ -9193,7 +9198,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>707</v>
       </c>
@@ -9213,7 +9218,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -9233,7 +9238,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -9253,7 +9258,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -9273,7 +9278,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -9287,7 +9292,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9301,7 +9306,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -9315,7 +9320,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -9329,7 +9334,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>642</v>
       </c>
@@ -9349,7 +9354,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -9369,7 +9374,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -9389,7 +9394,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>645</v>
       </c>
@@ -9409,7 +9414,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -9423,7 +9428,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -9443,7 +9448,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9457,7 +9462,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>603</v>
       </c>
@@ -9477,7 +9482,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -9491,7 +9496,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>653</v>
       </c>
@@ -9511,7 +9516,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -9525,7 +9530,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>656</v>
       </c>
@@ -9545,7 +9550,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -9559,7 +9564,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -9573,7 +9578,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9601,20 +9606,20 @@
   <dimension ref="A1:F67"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:C13"/>
+      <selection activeCell="A20" sqref="A20:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9634,7 +9639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -9654,7 +9659,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>91</v>
       </c>
@@ -9674,7 +9679,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
@@ -9694,7 +9699,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>666</v>
       </c>
@@ -9714,7 +9719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -9728,7 +9733,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -9742,7 +9747,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -9762,7 +9767,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -9776,7 +9781,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -9790,7 +9795,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>618</v>
       </c>
@@ -9810,7 +9815,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -9830,7 +9835,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>632</v>
       </c>
@@ -9850,7 +9855,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -9864,7 +9869,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>707</v>
       </c>
@@ -9884,7 +9889,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>680</v>
       </c>
@@ -9904,7 +9909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="9"/>
       <c r="C26" t="s">
         <v>14</v>
@@ -9919,7 +9924,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="9"/>
       <c r="C27" t="s">
         <v>19</v>
@@ -9934,7 +9939,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="9"/>
       <c r="C28" t="s">
         <v>22</v>
@@ -9949,7 +9954,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="9"/>
       <c r="C29" t="s">
         <v>23</v>
@@ -9964,7 +9969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -9984,7 +9989,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>42</v>
       </c>
@@ -9998,7 +10003,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>687</v>
       </c>
@@ -10018,7 +10023,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -10032,7 +10037,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -10046,7 +10051,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -10060,7 +10065,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>692</v>
       </c>
@@ -10080,7 +10085,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>42</v>
       </c>
@@ -10094,7 +10099,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10108,7 +10113,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10122,7 +10127,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -10142,7 +10147,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>42</v>
       </c>
@@ -10156,7 +10161,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -10176,7 +10181,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>645</v>
       </c>
@@ -10196,7 +10201,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10210,7 +10215,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -10224,7 +10229,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -10244,7 +10249,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -10258,7 +10263,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -10272,7 +10277,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -10292,7 +10297,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10306,7 +10311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -10320,7 +10325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -10340,7 +10345,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>653</v>
       </c>
@@ -10360,7 +10365,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -10374,7 +10379,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>656</v>
       </c>
@@ -10394,7 +10399,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -10419,23 +10424,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" activeCellId="3" sqref="E2 E7:E8 E15 E18:E19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E27" activeCellId="8" sqref="E3 E5 E9 E11 E13 E16 E20 E23 E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10455,7 +10460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>106</v>
       </c>
@@ -10475,7 +10480,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -10489,7 +10494,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -10509,7 +10514,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -10529,7 +10534,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -10543,7 +10548,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -10557,7 +10562,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>720</v>
       </c>
@@ -10577,7 +10582,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -10597,7 +10602,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>672</v>
       </c>
@@ -10617,7 +10622,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -10631,7 +10636,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -10651,7 +10656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -10665,7 +10670,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10677,6 +10682,88 @@
       </c>
       <c r="F20" t="s">
         <v>725</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>726</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>409</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>632</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>175</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" t="s">
+        <v>727</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>728</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -10696,17 +10783,17 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10726,7 +10813,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -10747,7 +10834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -10768,7 +10855,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -10789,7 +10876,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -10810,7 +10897,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -10831,7 +10918,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -10852,7 +10939,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -10873,7 +10960,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -10894,7 +10981,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -10915,7 +11002,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -10936,7 +11023,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -10957,7 +11044,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -10978,7 +11065,7 @@
         <v>0.48648648648648651</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -10999,7 +11086,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -11020,7 +11107,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -11041,7 +11128,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -11062,7 +11149,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -11083,34 +11170,34 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>-0.16666666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3">
         <f>SUM(B2:B19)</f>
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
@@ -11118,24 +11205,24 @@
       </c>
       <c r="D20" s="3">
         <f>SUM(D2:D19)</f>
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E20" s="3">
         <f>SUM(E2:E19)</f>
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.27595628415300544</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.27642276422764228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B21" s="3">
         <f>AVERAGE(B2:B19)</f>
-        <v>15.333333333333334</v>
+        <v>15.277777777777779</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C2:C19)</f>
@@ -11143,15 +11230,15 @@
       </c>
       <c r="D21" s="3">
         <f>AVERAGE(D2:D19)</f>
-        <v>20.333333333333332</v>
+        <v>20.5</v>
       </c>
       <c r="E21" s="3">
         <f>AVERAGE(E2:E19)</f>
-        <v>14.722222222222221</v>
+        <v>14.833333333333334</v>
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.27595628415300544</v>
+        <v>0.27642276422764223</v>
       </c>
     </row>
   </sheetData>
@@ -11180,17 +11267,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11210,7 +11297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -11230,7 +11317,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -11244,7 +11331,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -11258,7 +11345,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -11272,8 +11359,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -11293,7 +11380,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -11307,7 +11394,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -11327,7 +11414,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -11347,7 +11434,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -11367,7 +11454,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11381,7 +11468,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -11395,7 +11482,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -11415,7 +11502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -11429,7 +11516,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -11443,7 +11530,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -11457,7 +11544,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -11477,7 +11564,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -11491,7 +11578,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -11505,7 +11592,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -11525,7 +11612,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -11539,7 +11626,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -11553,7 +11640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -11573,7 +11660,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -11587,7 +11674,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -11607,7 +11694,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11621,7 +11708,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>227</v>
       </c>
@@ -11659,17 +11746,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11689,7 +11776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -11709,7 +11796,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -11729,7 +11816,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -11743,7 +11830,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -11763,7 +11850,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -11783,7 +11870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>32</v>
       </c>
@@ -11797,7 +11884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -11835,17 +11922,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11865,7 +11952,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -11885,7 +11972,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -11905,7 +11992,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -11919,7 +12006,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -11933,7 +12020,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -11953,7 +12040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -11967,7 +12054,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -11987,7 +12074,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -12001,7 +12088,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -12015,7 +12102,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -12035,7 +12122,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -12055,7 +12142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -12069,7 +12156,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -12083,7 +12170,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -12097,7 +12184,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -12117,7 +12204,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -12137,7 +12224,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>264</v>
       </c>
@@ -12157,7 +12244,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -12171,7 +12258,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -12185,7 +12272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -12199,7 +12286,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -12213,7 +12300,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>270</v>
       </c>
@@ -12233,7 +12320,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -12247,7 +12334,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -12261,7 +12348,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -12275,7 +12362,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -12295,7 +12382,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -12309,7 +12396,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -12329,7 +12416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -12343,7 +12430,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -12357,7 +12444,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>84</v>
       </c>
@@ -12377,7 +12464,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>33</v>
       </c>
@@ -12391,7 +12478,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>280</v>
       </c>
@@ -12411,7 +12498,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>14</v>
       </c>
@@ -12425,7 +12512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>19</v>
       </c>
@@ -12439,7 +12526,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>283</v>
       </c>
@@ -12459,7 +12546,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -12473,7 +12560,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -12487,7 +12574,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>287</v>
       </c>
@@ -12507,7 +12594,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>14</v>
       </c>
@@ -12521,7 +12608,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>19</v>
       </c>
@@ -12535,7 +12622,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>22</v>
       </c>
@@ -12549,7 +12636,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>294</v>
       </c>
@@ -12587,17 +12674,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12617,7 +12704,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -12637,7 +12724,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -12657,7 +12744,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -12671,7 +12758,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>248</v>
       </c>
@@ -12691,8 +12778,8 @@
         <v>302</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -12712,7 +12799,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -12732,7 +12819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -12746,7 +12833,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -12766,7 +12853,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -12780,7 +12867,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -12794,7 +12881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>309</v>
       </c>
@@ -12814,7 +12901,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>33</v>
       </c>
@@ -12828,7 +12915,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -12842,7 +12929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -12862,7 +12949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -12876,7 +12963,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>48</v>
       </c>
@@ -12890,7 +12977,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -12910,7 +12997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>33</v>
       </c>
@@ -12924,7 +13011,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C28" t="s">
         <v>48</v>
       </c>
@@ -12938,7 +13025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -12952,7 +13039,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -12966,7 +13053,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>707</v>
       </c>
@@ -12986,7 +13073,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>324</v>
       </c>
@@ -13006,7 +13093,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -13020,7 +13107,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -13034,7 +13121,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -13048,7 +13135,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>23</v>
       </c>
@@ -13062,7 +13149,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>62</v>
       </c>
@@ -13082,7 +13169,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -13096,7 +13183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -13110,7 +13197,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>58</v>
       </c>
@@ -13124,7 +13211,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>332</v>
       </c>
@@ -13144,7 +13231,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -13158,7 +13245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>19</v>
       </c>
@@ -13172,7 +13259,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>141</v>
       </c>
@@ -13192,7 +13279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>78</v>
       </c>
@@ -13212,7 +13299,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>33</v>
       </c>
@@ -13226,7 +13313,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>220</v>
       </c>
@@ -13246,7 +13333,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>155</v>
       </c>
@@ -13266,7 +13353,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>275</v>
       </c>
@@ -13286,7 +13373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -13300,7 +13387,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -13314,7 +13401,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -13328,7 +13415,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>180</v>
       </c>
@@ -13348,7 +13435,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>83</v>
       </c>
@@ -13368,7 +13455,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>33</v>
       </c>
@@ -13382,7 +13469,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>48</v>
       </c>
@@ -13396,7 +13483,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -13416,7 +13503,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>42</v>
       </c>
@@ -13430,7 +13517,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>15</v>
       </c>
@@ -13462,17 +13549,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -13492,7 +13579,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -13512,7 +13599,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>91</v>
       </c>
@@ -13532,7 +13619,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -13552,7 +13639,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>42</v>
       </c>
@@ -13566,8 +13653,8 @@
         <v>356</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>357</v>
       </c>
@@ -13587,7 +13674,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>618</v>
       </c>
@@ -13607,7 +13694,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -13621,7 +13708,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -13641,7 +13728,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>33</v>
       </c>
@@ -13655,7 +13742,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>58</v>
       </c>
@@ -13669,7 +13756,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>42</v>
       </c>
@@ -13683,7 +13770,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -13697,7 +13784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -13717,7 +13804,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>368</v>
       </c>
@@ -13737,7 +13824,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>98</v>
       </c>
@@ -13757,7 +13844,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>33</v>
       </c>
@@ -13771,7 +13858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>48</v>
       </c>
@@ -13785,7 +13872,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -13799,7 +13886,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>707</v>
       </c>
@@ -13819,7 +13906,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -13839,7 +13926,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -13853,7 +13940,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>42</v>
       </c>
@@ -13867,7 +13954,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -13881,7 +13968,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>379</v>
       </c>
@@ -13901,7 +13988,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -13915,7 +14002,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>19</v>
       </c>
@@ -13929,7 +14016,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>22</v>
       </c>
@@ -13943,7 +14030,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>62</v>
       </c>
@@ -13963,7 +14050,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>42</v>
       </c>
@@ -13977,7 +14064,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -13991,7 +14078,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>14</v>
       </c>
@@ -14005,7 +14092,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>78</v>
       </c>
@@ -14025,7 +14112,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C47" t="s">
         <v>42</v>
       </c>
@@ -14039,7 +14126,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -14053,7 +14140,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>390</v>
       </c>
@@ -14073,7 +14160,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>275</v>
       </c>
@@ -14093,7 +14180,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -14113,7 +14200,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -14127,7 +14214,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C56" t="s">
         <v>19</v>
       </c>
@@ -14141,7 +14228,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>22</v>
       </c>
@@ -14155,7 +14242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -14175,7 +14262,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -14189,7 +14276,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -14203,7 +14290,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>83</v>
       </c>
@@ -14223,7 +14310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -14237,7 +14324,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -14257,7 +14344,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>42</v>
       </c>
@@ -14271,7 +14358,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -14303,17 +14390,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -14333,7 +14420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -14353,7 +14440,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -14367,7 +14454,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -14381,7 +14468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>91</v>
       </c>
@@ -14401,7 +14488,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -14415,7 +14502,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -14429,7 +14516,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>22</v>
       </c>
@@ -14443,8 +14530,8 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>68</v>
       </c>
@@ -14464,7 +14551,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>42</v>
       </c>
@@ -14478,7 +14565,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -14492,7 +14579,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -14506,7 +14593,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -14520,7 +14607,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -14534,7 +14621,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>108</v>
       </c>
@@ -14554,7 +14641,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -14568,7 +14655,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>111</v>
       </c>
@@ -14588,7 +14675,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>618</v>
       </c>
@@ -14608,7 +14695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>95</v>
       </c>
@@ -14628,7 +14715,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -14642,7 +14729,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -14656,7 +14743,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>309</v>
       </c>
@@ -14676,7 +14763,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>135</v>
       </c>
@@ -14693,7 +14780,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>707</v>
       </c>
@@ -14713,7 +14800,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>99</v>
       </c>
@@ -14733,7 +14820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -14747,7 +14834,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>14</v>
       </c>
@@ -14761,7 +14848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>415</v>
       </c>
@@ -14781,7 +14868,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -14795,7 +14882,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C41" t="s">
         <v>19</v>
       </c>
@@ -14809,7 +14896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>62</v>
       </c>
@@ -14829,7 +14916,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -14843,7 +14930,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -14857,7 +14944,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -14871,7 +14958,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>78</v>
       </c>
@@ -14891,7 +14978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>42</v>
       </c>
@@ -14905,7 +14992,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -14919,7 +15006,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -14933,7 +15020,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>19</v>
       </c>
@@ -14947,7 +15034,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>155</v>
       </c>
@@ -14967,7 +15054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>178</v>
       </c>
@@ -14987,7 +15074,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>15</v>
       </c>
@@ -15001,7 +15088,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -15015,7 +15102,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>180</v>
       </c>
@@ -15035,7 +15122,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>15</v>
       </c>
@@ -15049,7 +15136,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
         <v>14</v>
       </c>
@@ -15063,7 +15150,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>83</v>
       </c>
@@ -15083,7 +15170,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C65" t="s">
         <v>14</v>
       </c>
@@ -15097,7 +15184,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>19</v>
       </c>
@@ -15111,7 +15198,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -15131,7 +15218,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C69" t="s">
         <v>42</v>
       </c>
@@ -15145,7 +15232,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -15159,7 +15246,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C71" t="s">
         <v>14</v>
       </c>
@@ -15173,7 +15260,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>87</v>
       </c>
@@ -15193,7 +15280,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C74" t="s">
         <v>15</v>
       </c>
@@ -15207,7 +15294,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>114</v>
       </c>
@@ -15227,7 +15314,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>15</v>
       </c>
@@ -15241,7 +15328,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C78" t="s">
         <v>14</v>
       </c>
@@ -15255,7 +15342,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>432</v>
       </c>
@@ -15275,7 +15362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C81" t="s">
         <v>14</v>
       </c>
@@ -15289,7 +15376,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C82" t="s">
         <v>19</v>
       </c>
@@ -15303,7 +15390,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>435</v>
       </c>
@@ -15323,7 +15410,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C85" t="s">
         <v>14</v>
       </c>
@@ -15337,7 +15424,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C86" t="s">
         <v>19</v>
       </c>
@@ -15369,17 +15456,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -15399,7 +15486,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -15419,7 +15506,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>42</v>
       </c>
@@ -15433,7 +15520,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -15447,7 +15534,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -15461,7 +15548,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>108</v>
       </c>
@@ -15481,7 +15568,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>618</v>
       </c>
@@ -15501,7 +15588,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
         <v>15</v>
       </c>
@@ -15515,7 +15602,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -15529,7 +15616,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -15543,7 +15630,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
@@ -15563,7 +15650,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>15</v>
       </c>
@@ -15577,7 +15664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>309</v>
       </c>
@@ -15597,7 +15684,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>443</v>
       </c>
@@ -15617,7 +15704,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>135</v>
       </c>
@@ -15634,7 +15721,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>445</v>
       </c>
@@ -15645,7 +15732,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>707</v>
       </c>
@@ -15665,7 +15752,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -15679,7 +15766,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -15693,7 +15780,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
@@ -15713,7 +15800,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -15727,7 +15814,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -15747,7 +15834,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>449</v>
       </c>
@@ -15767,7 +15854,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>42</v>
       </c>
@@ -15781,7 +15868,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>15</v>
       </c>
@@ -15795,7 +15882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C36" t="s">
         <v>14</v>
       </c>
@@ -15809,7 +15896,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>141</v>
       </c>
@@ -15829,7 +15916,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -15843,7 +15930,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C40" t="s">
         <v>19</v>
       </c>
@@ -15857,7 +15944,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>154</v>
       </c>
@@ -15877,7 +15964,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -15891,7 +15978,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>78</v>
       </c>
@@ -15911,7 +15998,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -15931,7 +16018,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -15951,7 +16038,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -15965,7 +16052,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -15985,7 +16072,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>15</v>
       </c>
@@ -15999,7 +16086,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>14</v>
       </c>
@@ -16013,7 +16100,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>84</v>
       </c>
@@ -16033,7 +16120,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C57" t="s">
         <v>42</v>
       </c>
@@ -16047,7 +16134,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>460</v>
       </c>
@@ -16084,17 +16171,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -16114,7 +16201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -16134,7 +16221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -16148,7 +16235,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -16168,7 +16255,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -16182,7 +16269,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -16202,7 +16289,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>462</v>
       </c>
@@ -16222,7 +16309,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>618</v>
       </c>
@@ -16242,7 +16329,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -16256,7 +16343,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -16270,7 +16357,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -16284,7 +16371,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -16304,7 +16391,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -16318,7 +16405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -16332,7 +16419,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>14</v>
       </c>
@@ -16346,7 +16433,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>19</v>
       </c>
@@ -16360,7 +16447,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>309</v>
       </c>
@@ -16380,7 +16467,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
         <v>15</v>
       </c>
@@ -16394,7 +16481,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>707</v>
       </c>
@@ -16414,7 +16501,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C27" t="s">
         <v>15</v>
       </c>
@@ -16428,7 +16515,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -16448,7 +16535,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -16468,7 +16555,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -16482,7 +16569,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>19</v>
       </c>
@@ -16496,7 +16583,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
         <v>22</v>
       </c>
@@ -16510,7 +16597,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>62</v>
       </c>
@@ -16530,7 +16617,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C37" t="s">
         <v>42</v>
       </c>
@@ -16544,7 +16631,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C38" t="s">
         <v>15</v>
       </c>
@@ -16558,7 +16645,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
         <v>14</v>
       </c>
@@ -16572,7 +16659,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -16592,7 +16679,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
         <v>15</v>
       </c>
@@ -16606,7 +16693,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C43" t="s">
         <v>14</v>
       </c>
@@ -16620,7 +16707,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C44" t="s">
         <v>19</v>
       </c>
@@ -16634,7 +16721,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C45" t="s">
         <v>22</v>
       </c>
@@ -16648,7 +16735,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>78</v>
       </c>
@@ -16668,7 +16755,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -16682,7 +16769,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -16696,7 +16783,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>155</v>
       </c>
@@ -16716,7 +16803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -16730,7 +16817,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C53" t="s">
         <v>19</v>
       </c>
@@ -16744,7 +16831,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C54" t="s">
         <v>22</v>
       </c>
@@ -16758,7 +16845,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
         <v>23</v>
       </c>
@@ -16772,7 +16859,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>178</v>
       </c>
@@ -16792,7 +16879,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>180</v>
       </c>
@@ -16812,7 +16899,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C60" t="s">
         <v>15</v>
       </c>
@@ -16826,7 +16913,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
         <v>14</v>
       </c>
@@ -16840,7 +16927,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>84</v>
       </c>
@@ -16860,7 +16947,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>484</v>
       </c>
@@ -16880,7 +16967,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>14</v>
       </c>
@@ -16894,7 +16981,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C67" t="s">
         <v>19</v>
       </c>
@@ -16908,7 +16995,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>132</v>
       </c>
@@ -16928,7 +17015,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C70" t="s">
         <v>15</v>
       </c>
@@ -16942,7 +17029,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>114</v>
       </c>
@@ -16962,7 +17049,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C73" t="s">
         <v>15</v>
       </c>
@@ -16976,7 +17063,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>435</v>
       </c>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8431" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{747ABB0E-BF4E-4CD1-A7C8-0970A20764B0}"/>
+  <xr:revisionPtr revIDLastSave="8451" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C48CC61-1F5C-4D44-BB29-49B64D465ABB}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3224" uniqueCount="729">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="733">
   <si>
     <t>ROUND</t>
   </si>
@@ -2240,6 +2240,18 @@
   </si>
   <si>
     <t>Danielle Collins (USA)</t>
+  </si>
+  <si>
+    <t>OPEN DE ROUEN</t>
+  </si>
+  <si>
+    <t>1-6 6-1 6-3</t>
+  </si>
+  <si>
+    <t>6-1 2-6 6-2</t>
+  </si>
+  <si>
+    <t>Magda Linette (POLAND)</t>
   </si>
 </sst>
 </file>
@@ -2611,7 +2623,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3332,7 +3344,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>0.35714285714285715</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4833,6 +4845,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
@@ -9605,8 +9621,8 @@
   </sheetPr>
   <dimension ref="A1:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:C21"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25:C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10424,7 +10440,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E27" activeCellId="8" sqref="E3 E5 E9 E11 E13 E16 E20 E23 E27"/>
@@ -10766,6 +10782,82 @@
         <v>24</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>729</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" t="s">
+        <v>689</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>137</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C31" t="s">
+        <v>19</v>
+      </c>
+      <c r="D31" t="s">
+        <v>710</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>659</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>732</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33" t="s">
+        <v>731</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -10780,7 +10872,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11175,20 +11267,20 @@
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <v>9</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -11197,15 +11289,15 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B2:B19)</f>
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="3">
         <f>SUM(D2:D19)</f>
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="E20" s="3">
         <f>SUM(E2:E19)</f>
@@ -11213,7 +11305,7 @@
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.27642276422764228</v>
+        <v>0.28609625668449196</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -11222,15 +11314,15 @@
       </c>
       <c r="B21" s="3">
         <f>AVERAGE(B2:B19)</f>
-        <v>15.277777777777779</v>
+        <v>15.5</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C2:C19)</f>
-        <v>0.3888888888888889</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="D21" s="3">
         <f>AVERAGE(D2:D19)</f>
-        <v>20.5</v>
+        <v>20.777777777777779</v>
       </c>
       <c r="E21" s="3">
         <f>AVERAGE(E2:E19)</f>
@@ -11238,7 +11330,7 @@
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.27642276422764223</v>
+        <v>0.28609625668449196</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8451" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C48CC61-1F5C-4D44-BB29-49B64D465ABB}"/>
+  <xr:revisionPtr revIDLastSave="8467" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF1F3019-F450-4EC0-890E-6BC934EBD70A}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3246" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="734">
   <si>
     <t>ROUND</t>
   </si>
@@ -2252,6 +2252,9 @@
   </si>
   <si>
     <t>Magda Linette (POLAND)</t>
+  </si>
+  <si>
+    <t>Martina Trevisan (ITALY)</t>
   </si>
 </sst>
 </file>
@@ -2623,7 +2626,7 @@
                   <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>14</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2779,7 +2782,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3344,7 +3347,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.35714285714285715</c:v>
+                  <c:v>0.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -10440,10 +10443,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E27" activeCellId="8" sqref="E3 E5 E9 E11 E13 E16 E20 E23 E27"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E35" activeCellId="7" sqref="E2 E7:E8 E15 E18:E19 E22 E25:E26 E29:E33 E35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10844,7 +10847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>23</v>
       </c>
@@ -10856,6 +10859,54 @@
       </c>
       <c r="F33" t="s">
         <v>731</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>707</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D35" t="s">
+        <v>733</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C36" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" t="s">
+        <v>706</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>647</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -10872,7 +10923,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11267,20 +11318,20 @@
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E19">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0.35714285714285715</v>
+        <v>0.375</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
@@ -11289,7 +11340,7 @@
       </c>
       <c r="B20" s="3">
         <f>SUM(B2:B19)</f>
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
@@ -11297,15 +11348,15 @@
       </c>
       <c r="D20" s="3">
         <f>SUM(D2:D19)</f>
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E20" s="3">
         <f>SUM(E2:E19)</f>
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28609625668449196</v>
+        <v>0.28723404255319152</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
@@ -11314,7 +11365,7 @@
       </c>
       <c r="B21" s="3">
         <f>AVERAGE(B2:B19)</f>
-        <v>15.5</v>
+        <v>15.555555555555555</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C2:C19)</f>
@@ -11322,15 +11373,15 @@
       </c>
       <c r="D21" s="3">
         <f>AVERAGE(D2:D19)</f>
-        <v>20.777777777777779</v>
+        <v>20.888888888888889</v>
       </c>
       <c r="E21" s="3">
         <f>AVERAGE(E2:E19)</f>
-        <v>14.833333333333334</v>
+        <v>14.888888888888889</v>
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.28609625668449196</v>
+        <v>0.28723404255319146</v>
       </c>
     </row>
   </sheetData>

--- a/Tennis/WTA Tour/Sloane Stephens.xlsx
+++ b/Tennis/WTA Tour/Sloane Stephens.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8467" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BF1F3019-F450-4EC0-890E-6BC934EBD70A}"/>
+  <xr:revisionPtr revIDLastSave="8475" documentId="114_{AC9F4747-BE0F-452C-A2C8-58738AABDFF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{680A5260-AF29-4338-A8F2-4C12D301E152}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="11" activeTab="18" xr2:uid="{D410B975-7922-4813-88AB-46142460CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="13" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3260" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3266" uniqueCount="734">
   <si>
     <t>ROUND</t>
   </si>
@@ -2782,7 +2782,7 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3347,7 +3347,7 @@
                   <c:v>0.2</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.375</c:v>
+                  <c:v>0.3125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5158,17 +5158,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5188,7 +5188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>183</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5222,7 +5222,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>187</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>14</v>
       </c>
@@ -5256,10 +5256,10 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="59" orientation="landscape" r:id="rId1"/>
@@ -5277,17 +5277,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>89</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>14</v>
       </c>
@@ -5341,7 +5341,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>19</v>
       </c>
@@ -5355,7 +5355,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>22</v>
       </c>
@@ -5369,7 +5369,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>23</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>135</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -5454,7 +5454,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -5468,7 +5468,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>22</v>
       </c>
@@ -5482,7 +5482,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>23</v>
       </c>
@@ -5496,7 +5496,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -5516,7 +5516,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>95</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>632</v>
       </c>
@@ -5556,7 +5556,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>14</v>
       </c>
@@ -5570,7 +5570,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>19</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>22</v>
       </c>
@@ -5598,7 +5598,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>23</v>
       </c>
@@ -5612,7 +5612,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>707</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>15</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>379</v>
       </c>
@@ -5666,7 +5666,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>14</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>42</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -5728,7 +5728,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>78</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>42</v>
       </c>
@@ -5762,7 +5762,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>15</v>
       </c>
@@ -5776,7 +5776,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -5796,7 +5796,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>178</v>
       </c>
@@ -5816,7 +5816,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>512</v>
       </c>
@@ -5853,17 +5853,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>78</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -5923,7 +5923,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>178</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>15</v>
       </c>
@@ -5957,7 +5957,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -5971,7 +5971,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>19</v>
       </c>
@@ -5985,7 +5985,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>22</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>180</v>
       </c>
@@ -6019,7 +6019,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -6033,7 +6033,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>14</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>19</v>
       </c>
@@ -6061,7 +6061,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>22</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>84</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -6123,7 +6123,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -6137,7 +6137,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>22</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>23</v>
       </c>
@@ -6179,7 +6179,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>132</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>114</v>
       </c>
@@ -6219,7 +6219,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>527</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>124</v>
       </c>
@@ -6253,7 +6253,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>135</v>
       </c>
@@ -6270,7 +6270,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>530</v>
       </c>
@@ -6304,17 +6304,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -6334,7 +6334,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>115</v>
       </c>
@@ -6354,7 +6354,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -6374,7 +6374,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>462</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>19</v>
       </c>
@@ -6422,7 +6422,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -6442,7 +6442,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>15</v>
       </c>
@@ -6456,7 +6456,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>95</v>
       </c>
@@ -6476,7 +6476,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -6518,7 +6518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>22</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>23</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>135</v>
       </c>
@@ -6563,7 +6563,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>363</v>
       </c>
@@ -6574,7 +6574,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>126</v>
       </c>
@@ -6594,7 +6594,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>707</v>
       </c>
@@ -6614,7 +6614,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -6628,7 +6628,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>99</v>
       </c>
@@ -6662,7 +6662,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>15</v>
       </c>
@@ -6676,7 +6676,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>14</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>540</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -6744,7 +6744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -6758,7 +6758,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -6772,7 +6772,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>22</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>23</v>
       </c>
@@ -6814,7 +6814,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -6834,7 +6834,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>155</v>
       </c>
@@ -6854,7 +6854,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
         <v>14</v>
       </c>
@@ -6868,7 +6868,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>178</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -6902,7 +6902,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -6916,7 +6916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>22</v>
       </c>
@@ -6930,7 +6930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>23</v>
       </c>
@@ -6944,7 +6944,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>180</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -6978,7 +6978,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>84</v>
       </c>
@@ -6998,7 +6998,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>42</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
         <v>19</v>
       </c>
@@ -7054,7 +7054,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>87</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>132</v>
       </c>
@@ -7094,7 +7094,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>114</v>
       </c>
@@ -7114,7 +7114,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>15</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>14</v>
       </c>
@@ -7142,7 +7142,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>550</v>
       </c>
@@ -7162,7 +7162,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -7182,7 +7182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
         <v>124</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
         <v>124</v>
       </c>
@@ -7210,7 +7210,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
         <v>22</v>
       </c>
@@ -7224,7 +7224,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
         <v>23</v>
       </c>
@@ -7255,17 +7255,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -7305,7 +7305,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -7325,7 +7325,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -7339,7 +7339,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -7387,7 +7387,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>14</v>
       </c>
@@ -7401,7 +7401,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>462</v>
       </c>
@@ -7421,7 +7421,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -7435,7 +7435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>618</v>
       </c>
@@ -7455,7 +7455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>95</v>
       </c>
@@ -7475,7 +7475,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>15</v>
       </c>
@@ -7489,7 +7489,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>309</v>
       </c>
@@ -7509,7 +7509,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>14</v>
       </c>
@@ -7523,7 +7523,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>19</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>135</v>
       </c>
@@ -7554,7 +7554,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>436</v>
       </c>
@@ -7565,7 +7565,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>707</v>
       </c>
@@ -7585,7 +7585,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>15</v>
       </c>
@@ -7599,7 +7599,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>14</v>
       </c>
@@ -7613,7 +7613,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>19</v>
       </c>
@@ -7627,7 +7627,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>22</v>
       </c>
@@ -7641,7 +7641,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>99</v>
       </c>
@@ -7661,7 +7661,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>62</v>
       </c>
@@ -7681,7 +7681,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -7723,7 +7723,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>19</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -7757,7 +7757,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>78</v>
       </c>
@@ -7777,7 +7777,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
         <v>42</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>15</v>
       </c>
@@ -7805,7 +7805,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -7825,7 +7825,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>178</v>
       </c>
@@ -7845,7 +7845,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>180</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>14</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>84</v>
       </c>
@@ -7899,7 +7899,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>87</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>132</v>
       </c>
@@ -7939,7 +7939,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>15</v>
       </c>
@@ -7953,7 +7953,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
         <v>14</v>
       </c>
@@ -7967,7 +7967,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>114</v>
       </c>
@@ -7987,7 +7987,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
         <v>15</v>
       </c>
@@ -8018,17 +8018,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="30" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8048,7 +8048,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>106</v>
       </c>
@@ -8068,7 +8068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>174</v>
       </c>
@@ -8088,7 +8088,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>462</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>580</v>
       </c>
@@ -8148,7 +8148,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>14</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>585</v>
       </c>
@@ -8182,7 +8182,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -8202,7 +8202,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>84</v>
       </c>
@@ -8222,7 +8222,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>42</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8250,7 +8250,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>379</v>
       </c>
@@ -8290,7 +8290,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -8310,7 +8310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>42</v>
       </c>
@@ -8341,17 +8341,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -8371,7 +8371,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>591</v>
       </c>
@@ -8391,7 +8391,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -8411,7 +8411,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>592</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>580</v>
       </c>
@@ -8451,7 +8451,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -8471,7 +8471,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>42</v>
       </c>
@@ -8485,7 +8485,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>309</v>
       </c>
@@ -8505,7 +8505,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>15</v>
       </c>
@@ -8519,7 +8519,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -8533,7 +8533,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -8547,7 +8547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>707</v>
       </c>
@@ -8567,7 +8567,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>15</v>
       </c>
@@ -8581,7 +8581,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>99</v>
       </c>
@@ -8601,7 +8601,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>33</v>
       </c>
@@ -8615,7 +8615,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>603</v>
       </c>
@@ -8649,7 +8649,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -8663,7 +8663,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -8677,7 +8677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>22</v>
       </c>
@@ -8691,7 +8691,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>62</v>
       </c>
@@ -8711,7 +8711,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -8725,7 +8725,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>15</v>
       </c>
@@ -8739,7 +8739,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>14</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>78</v>
       </c>
@@ -8773,7 +8773,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -8787,7 +8787,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -8801,7 +8801,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>606</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>14</v>
       </c>
@@ -8835,7 +8835,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>178</v>
       </c>
@@ -8855,7 +8855,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>15</v>
       </c>
@@ -8869,7 +8869,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>611</v>
       </c>
@@ -8889,7 +8889,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>84</v>
       </c>
@@ -8909,7 +8909,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>42</v>
       </c>
@@ -8923,7 +8923,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>15</v>
       </c>
@@ -8937,7 +8937,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>618</v>
       </c>
@@ -8957,7 +8957,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C52" t="s">
         <v>42</v>
       </c>
@@ -8971,7 +8971,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>619</v>
       </c>
@@ -8988,7 +8988,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
         <v>576</v>
       </c>
@@ -9017,17 +9017,17 @@
       <selection activeCell="D39" sqref="D39:E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9047,7 +9047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -9067,7 +9067,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>624</v>
       </c>
@@ -9087,7 +9087,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -9101,7 +9101,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>19</v>
       </c>
@@ -9115,7 +9115,7 @@
         <v>628</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>22</v>
       </c>
@@ -9129,7 +9129,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>23</v>
       </c>
@@ -9143,7 +9143,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>618</v>
       </c>
@@ -9163,7 +9163,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>95</v>
       </c>
@@ -9183,7 +9183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>42</v>
       </c>
@@ -9197,7 +9197,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>632</v>
       </c>
@@ -9217,7 +9217,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>707</v>
       </c>
@@ -9237,7 +9237,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -9257,7 +9257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>379</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>62</v>
       </c>
@@ -9297,7 +9297,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>42</v>
       </c>
@@ -9311,7 +9311,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>15</v>
       </c>
@@ -9325,7 +9325,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>14</v>
       </c>
@@ -9339,7 +9339,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>19</v>
       </c>
@@ -9353,7 +9353,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>642</v>
       </c>
@@ -9373,7 +9373,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>78</v>
       </c>
@@ -9393,7 +9393,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>155</v>
       </c>
@@ -9413,7 +9413,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>645</v>
       </c>
@@ -9433,7 +9433,7 @@
         <v>648</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>15</v>
       </c>
@@ -9447,7 +9447,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>180</v>
       </c>
@@ -9467,7 +9467,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>15</v>
       </c>
@@ -9481,7 +9481,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>603</v>
       </c>
@@ -9501,7 +9501,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -9515,7 +9515,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>653</v>
       </c>
@@ -9535,7 +9535,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>14</v>
       </c>
@@ -9549,7 +9549,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>656</v>
       </c>
@@ -9569,7 +9569,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>15</v>
       </c>
@@ -9583,7 +9583,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C49" t="s">
         <v>14</v>
       </c>
@@ -9597,7 +9597,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="50" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>19</v>
       </c>
@@ -9628,17 +9628,17 @@
       <selection activeCell="C25" sqref="C25:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -9658,7 +9658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>89</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>662</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>91</v>
       </c>
@@ -9698,7 +9698,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>68</v>
       </c>
@@ -9718,7 +9718,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>666</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>14</v>
       </c>
@@ -9752,7 +9752,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>19</v>
       </c>
@@ -9766,7 +9766,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>672</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>14</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>19</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>618</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>95</v>
       </c>
@@ -9854,7 +9854,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>632</v>
       </c>
@@ -9874,7 +9874,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>15</v>
       </c>
@@ -9888,7 +9888,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>707</v>
       </c>
@@ -9908,7 +9908,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>680</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="9"/>
       <c r="C26" t="s">
         <v>14</v>
@@ -9943,7 +9943,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="9"/>
       <c r="C27" t="s">
         <v>19</v>
@@ -9958,7 +9958,7 @@
         <v>679</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9"/>
       <c r="C28" t="s">
         <v>22</v>
@@ -9973,7 +9973,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="9"/>
       <c r="C29" t="s">
         <v>23</v>
@@ -9988,7 +9988,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>99</v>
       </c>
@@ -10008,7 +10008,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>42</v>
       </c>
@@ -10022,7 +10022,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>687</v>
       </c>
@@ -10042,7 +10042,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>19</v>
       </c>
@@ -10070,7 +10070,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>22</v>
       </c>
@@ -10084,7 +10084,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>692</v>
       </c>
@@ -10104,7 +10104,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>42</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>15</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>14</v>
       </c>
@@ -10146,7 +10146,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>78</v>
       </c>
@@ -10166,7 +10166,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
         <v>42</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>155</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>645</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C50" t="s">
         <v>15</v>
       </c>
@@ -10234,7 +10234,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C51" t="s">
         <v>14</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>180</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C54" t="s">
         <v>15</v>
       </c>
@@ -10282,7 +10282,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C55" t="s">
         <v>14</v>
       </c>
@@ -10296,7 +10296,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>701</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
         <v>14</v>
       </c>
@@ -10330,7 +10330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
         <v>19</v>
       </c>
@@ -10344,7 +10344,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>84</v>
       </c>
@@ -10364,7 +10364,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>653</v>
       </c>
@@ -10384,7 +10384,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
         <v>14</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>656</v>
       </c>
@@ -10418,7 +10418,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>15</v>
       </c>
@@ -10443,23 +10443,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E35" activeCellId="7" sqref="E2 E7:E8 E15 E18:E19 E22 E25:E26 E29:E33 E35:E36"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="29.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -10479,7 +10479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>106</v>
       </c>
@@ -10499,7 +10499,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>15</v>
       </c>
@@ -10513,7 +10513,7 @@
         <v>708</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>91</v>
       </c>
@@ -10533,7 +10533,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>68</v>
       </c>
@@ -10553,7 +10553,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>42</v>
       </c>
@@ -10567,7 +10567,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -10581,7 +10581,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>720</v>
       </c>
@@ -10601,7 +10601,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>111</v>
       </c>
@@ -10621,7 +10621,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>672</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>14</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>618</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>42</v>
       </c>
@@ -10689,7 +10689,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>15</v>
       </c>
@@ -10703,7 +10703,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -10723,7 +10723,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>42</v>
       </c>
@@ -10737,7 +10737,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>632</v>
       </c>
@@ -10757,7 +10757,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C26" t="s">
         <v>15</v>
       </c>
@@ -10771,7 +10771,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -10785,7 +10785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>729</v>
       </c>
@@ -10805,7 +10805,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>14</v>
       </c>
@@ -10819,7 +10819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
         <v>19</v>
       </c>
@@ -10833,7 +10833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>22</v>
       </c>
@@ -10847,7 +10847,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>23</v>
       </c>
@@ -10861,7 +10861,7 @@
         <v>731</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>707</v>
       </c>
@@ -10881,7 +10881,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
         <v>42</v>
       </c>
@@ -10895,7 +10895,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
         <v>15</v>
       </c>
@@ -10907,6 +10907,26 @@
       </c>
       <c r="F37" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>99</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" t="s">
+        <v>693</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -10926,17 +10946,17 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -10956,7 +10976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2007</v>
       </c>
@@ -10977,7 +10997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2008</v>
       </c>
@@ -10998,7 +11018,7 @@
         <v>0.26666666666666666</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2009</v>
       </c>
@@ -11019,7 +11039,7 @@
         <v>-1.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2010</v>
       </c>
@@ -11040,7 +11060,7 @@
         <v>0.34615384615384615</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2011</v>
       </c>
@@ -11061,7 +11081,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -11082,7 +11102,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2013</v>
       </c>
@@ -11103,7 +11123,7 @@
         <v>0.41025641025641024</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2014</v>
       </c>
@@ -11124,7 +11144,7 @@
         <v>9.5238095238095233E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2015</v>
       </c>
@@ -11145,7 +11165,7 @@
         <v>0.375</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2016</v>
       </c>
@@ -11166,7 +11186,7 @@
         <v>0.54545454545454541</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2017</v>
       </c>
@@ -11187,7 +11207,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -11208,7 +11228,7 @@
         <v>0.48648648648648651</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2019</v>
       </c>
@@ -11229,7 +11249,7 @@
         <v>0.20833333333333334</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2020</v>
       </c>
@@ -11250,7 +11270,7 @@
         <v>-1.75</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2021</v>
       </c>
@@ -11271,7 +11291,7 @@
         <v>0.19047619047619047</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2022</v>
       </c>
@@ -11292,7 +11312,7 @@
         <v>0.11764705882352941</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2023</v>
       </c>
@@ -11313,12 +11333,12 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2024</v>
       </c>
       <c r="B19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -11327,20 +11347,20 @@
         <v>16</v>
       </c>
       <c r="E19">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" si="0"/>
-        <v>0.375</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="3">
         <f>SUM(B2:B19)</f>
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C20" s="3">
         <f>SUM(C2:C19)</f>
@@ -11352,20 +11372,20 @@
       </c>
       <c r="E20" s="3">
         <f>SUM(E2:E19)</f>
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F20" s="4">
         <f>(D20-E20)/D20</f>
-        <v>0.28723404255319152</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0.28457446808510639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B21" s="3">
         <f>AVERAGE(B2:B19)</f>
-        <v>15.555555555555555</v>
+        <v>15.611111111111111</v>
       </c>
       <c r="C21" s="3">
         <f>AVERAGE(C2:C19)</f>
@@ -11377,11 +11397,11 @@
       </c>
       <c r="E21" s="3">
         <f>AVERAGE(E2:E19)</f>
-        <v>14.888888888888889</v>
+        <v>14.944444444444445</v>
       </c>
       <c r="F21" s="4">
         <f>(D21-E21)/D21</f>
-        <v>0.28723404255319146</v>
+        <v>0.28457446808510639</v>
       </c>
     </row>
   </sheetData>
@@ -11410,17 +11430,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11440,7 +11460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>190</v>
       </c>
@@ -11460,7 +11480,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>33</v>
       </c>
@@ -11474,7 +11494,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>15</v>
       </c>
@@ -11488,7 +11508,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -11502,8 +11522,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>196</v>
       </c>
@@ -11523,7 +11543,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>14</v>
       </c>
@@ -11537,7 +11557,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>95</v>
       </c>
@@ -11557,7 +11577,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>200</v>
       </c>
@@ -11577,7 +11597,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>202</v>
       </c>
@@ -11597,7 +11617,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>14</v>
       </c>
@@ -11611,7 +11631,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>19</v>
       </c>
@@ -11625,7 +11645,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>206</v>
       </c>
@@ -11645,7 +11665,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>14</v>
       </c>
@@ -11659,7 +11679,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>19</v>
       </c>
@@ -11673,7 +11693,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>22</v>
       </c>
@@ -11687,7 +11707,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>211</v>
       </c>
@@ -11707,7 +11727,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>14</v>
       </c>
@@ -11721,7 +11741,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C25" t="s">
         <v>19</v>
       </c>
@@ -11735,7 +11755,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>215</v>
       </c>
@@ -11755,7 +11775,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>33</v>
       </c>
@@ -11769,7 +11789,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>48</v>
       </c>
@@ -11783,7 +11803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>220</v>
       </c>
@@ -11803,7 +11823,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
         <v>33</v>
       </c>
@@ -11817,7 +11837,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>84</v>
       </c>
@@ -11837,7 +11857,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>33</v>
       </c>
@@ -11851,7 +11871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>227</v>
       </c>
@@ -11889,17 +11909,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -11919,7 +11939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>230</v>
       </c>
@@ -11939,7 +11959,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>231</v>
       </c>
@@ -11959,7 +11979,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>14</v>
       </c>
@@ -11973,7 +11993,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>95</v>
       </c>
@@ -11993,7 +12013,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>236</v>
       </c>
@@ -12013,7 +12033,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>32</v>
       </c>
@@ -12027,7 +12047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>84</v>
       </c>
@@ -12065,17 +12085,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -12095,7 +12115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>240</v>
       </c>
@@ -12115,7 +12135,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>243</v>
       </c>
@@ -12135,7 +12155,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>33</v>
       </c>
@@ -12149,7 +12169,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>15</v>
       </c>
@@ -12163,7 +12183,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>248</v>
       </c>
@@ -12183,7 +12203,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>33</v>
       </c>
@@ -12197,7 +12217,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>252</v>
       </c>
@@ -12217,7 +12237,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>33</v>
       </c>
@@ -12231,7 +12251,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>15</v>
       </c>
@@ -12245,7 +12265,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>230</v>
       </c>
@@ -12265,7 +12285,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>618</v>
       </c>
@@ -12285,7 +12305,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>33</v>
       </c>
@@ -12299,7 +12319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>58</v>
       </c>
@@ -12313,7 +12333,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>42</v>
       </c>
@@ -12327,7 +12347,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -12347,7 +12367,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>262</v>
       </c>
@@ -12367,7 +12387,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>264</v>
       </c>
@@ -12387,7 +12407,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
         <v>14</v>
       </c>
@@ -12401,7 +12421,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
         <v>19</v>
       </c>
@@ -12415,7 +12435,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
         <v>22</v>
       </c>
@@ -12429,7 +12449,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
         <v>23</v>
       </c>
@@ -12443,7 +12463,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>270</v>
       </c>
@@ -12463,7 +12483,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
         <v>33</v>
       </c>
@@ -12477,7 +12497,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
         <v>15</v>
       </c>
@@ -12491,7 +12511,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
         <v>14</v>
       </c>
@@ -12505,7 +12525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>119</v>
       </c>
@@ -12525,7 +12545,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>14</v>
       </c>
@@ -12539,7 +12559,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>275</v>
       </c>
@@ -12559,7 +12579,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>33</v>
       </c>
@@ -12573,7 +12593,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>48</v>
       </c>
@@ -12587,7 +12607,7 @@
         <v>277</v>
       </c>
     </row>
-